--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -504,22 +504,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -639,8 +631,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -654,29 +661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -685,15 +669,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,17 +699,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,64 +768,19 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -870,7 +856,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +940,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,126 +1006,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1049,6 +1035,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1082,9 +1081,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1100,6 +1097,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1154,19 +1162,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
@@ -1553,6 +1548,60 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,6 +1613,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,71 +1644,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1662,10 +1657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1674,145 +1669,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1820,19 +1818,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1841,8 +1845,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,201 +1863,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2058,112 +2069,108 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2488,7 +2495,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2504,1080 +2511,1086 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="64.5" customHeight="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" customFormat="1" ht="21" spans="1:9">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="101"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="106" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="103"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72">
         <v>5</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="73">
         <v>4</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="74">
         <v>2</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="75">
         <f t="shared" ref="F5:F45" si="0">D5+E5</f>
         <v>6</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="76">
         <f t="shared" ref="G5:G45" si="1">C5-F5</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="77">
         <f t="shared" ref="H5:H45" si="2">E5/F5</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="108">
         <f t="shared" ref="I5:I45" si="3">F5/C5</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79">
         <v>5</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="80">
         <v>4</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="81">
         <v>1</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="84">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="109">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75">
+      <c r="B7" s="78"/>
+      <c r="C7" s="79">
         <v>4</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="80">
         <v>4</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="81">
         <v>2</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="83">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="84">
         <f t="shared" si="2"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="109">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75">
+      <c r="B8" s="78"/>
+      <c r="C8" s="79">
         <v>0</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="80">
         <v>3</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="81">
         <v>2</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="82">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="83">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="84">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="I8" s="105" t="e">
+      <c r="I8" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88">
         <v>9</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="89">
         <v>7</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="90">
         <v>2</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="91">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="93">
         <f t="shared" si="2"/>
         <v>0.222222222222222</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="110">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="96">
         <v>0</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="73">
         <v>0</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="74">
         <v>0</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="73" t="e">
+      <c r="H10" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="104" t="e">
+      <c r="I10" s="108" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
-      <c r="A11" s="93"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="98">
         <v>1</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="80">
         <v>0</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="81">
         <v>0</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="80" t="e">
+      <c r="H11" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
-      <c r="A12" s="93"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="98">
         <v>1</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="80">
         <v>4</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="81">
         <v>0</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="82">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="83">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="105">
+      <c r="I12" s="109">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
-      <c r="A13" s="93"/>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78">
+      <c r="C13" s="98">
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0</v>
+      </c>
+      <c r="F13" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="80" t="e">
+      <c r="H13" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="105" t="e">
+      <c r="I13" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" s="93"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78">
+      <c r="A14" s="97"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="80" t="e">
+      <c r="H14" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="105" t="e">
+      <c r="I14" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="89" t="e">
+      <c r="H15" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="106" t="e">
+      <c r="I15" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
-      <c r="A16" s="99"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71">
+      <c r="A16" s="103"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="73" t="e">
+      <c r="H16" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="104" t="e">
+      <c r="I16" s="108" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
-      <c r="A17" s="99"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78">
+      <c r="A17" s="103"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="79">
+      <c r="G17" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="80" t="e">
+      <c r="H17" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="105" t="e">
+      <c r="I17" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
-      <c r="A18" s="99"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78">
+      <c r="A18" s="103"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="79">
+      <c r="G18" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="80" t="e">
+      <c r="H18" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="105" t="e">
+      <c r="I18" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
-      <c r="A19" s="99"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78">
+      <c r="A19" s="103"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="79">
+      <c r="G19" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="80" t="e">
+      <c r="H19" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="105" t="e">
+      <c r="I19" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
-      <c r="A20" s="99"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78">
+      <c r="A20" s="103"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="80" t="e">
+      <c r="H20" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="105" t="e">
+      <c r="I20" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A21" s="100"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87">
+      <c r="A21" s="104"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G21" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="89" t="e">
+      <c r="H21" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="106" t="e">
+      <c r="I21" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" s="99"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71">
+      <c r="A22" s="103"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="73" t="e">
+      <c r="H22" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="104" t="e">
+      <c r="I22" s="108" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="99"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78">
+      <c r="A23" s="103"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="80" t="e">
+      <c r="H23" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="105" t="e">
+      <c r="I23" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:9">
-      <c r="A24" s="99"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78">
+      <c r="A24" s="103"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="80" t="e">
+      <c r="H24" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="105" t="e">
+      <c r="I24" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="99"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78">
+      <c r="A25" s="103"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="79">
+      <c r="G25" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="80" t="e">
+      <c r="H25" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="105" t="e">
+      <c r="I25" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:9">
-      <c r="A26" s="99"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78">
+      <c r="A26" s="103"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="80" t="e">
+      <c r="H26" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="105" t="e">
+      <c r="I26" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A27" s="100"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87">
+      <c r="A27" s="104"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="89" t="e">
+      <c r="H27" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="106" t="e">
+      <c r="I27" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
-      <c r="A28" s="99"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71">
+      <c r="A28" s="103"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="73" t="e">
+      <c r="H28" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="104" t="e">
+      <c r="I28" s="108" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:9">
-      <c r="A29" s="99"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78">
+      <c r="A29" s="103"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="80" t="e">
+      <c r="H29" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="105" t="e">
+      <c r="I29" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:9">
-      <c r="A30" s="99"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78">
+      <c r="A30" s="103"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="80" t="e">
+      <c r="H30" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="105" t="e">
+      <c r="I30" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="99"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78">
+      <c r="A31" s="103"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="80" t="e">
+      <c r="H31" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="105" t="e">
+      <c r="I31" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="99"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78">
+      <c r="A32" s="103"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="80" t="e">
+      <c r="H32" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="105" t="e">
+      <c r="I32" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A33" s="100"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87">
+      <c r="A33" s="104"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="88">
+      <c r="G33" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="89" t="e">
+      <c r="H33" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="106" t="e">
+      <c r="I33" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="99"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71">
+      <c r="A34" s="103"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="73" t="e">
+      <c r="H34" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="104" t="e">
+      <c r="I34" s="108" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="99"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78">
+      <c r="A35" s="103"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="80" t="e">
+      <c r="H35" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="105" t="e">
+      <c r="I35" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="99"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="78">
+      <c r="A36" s="103"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="79">
+      <c r="G36" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="80" t="e">
+      <c r="H36" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="105" t="e">
+      <c r="I36" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="99"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="78">
+      <c r="A37" s="103"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="80" t="e">
+      <c r="H37" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="105" t="e">
+      <c r="I37" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:9">
-      <c r="A38" s="99"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="78">
+      <c r="A38" s="103"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="80" t="e">
+      <c r="H38" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="105" t="e">
+      <c r="I38" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A39" s="100"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87">
+      <c r="A39" s="104"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="89" t="e">
+      <c r="H39" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="106" t="e">
+      <c r="I39" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:9">
-      <c r="A40" s="99"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71">
+      <c r="A40" s="103"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="73" t="e">
+      <c r="H40" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="104" t="e">
+      <c r="I40" s="108" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:9">
-      <c r="A41" s="99"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78">
+      <c r="A41" s="103"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="79">
+      <c r="G41" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="80" t="e">
+      <c r="H41" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="105" t="e">
+      <c r="I41" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:9">
-      <c r="A42" s="99"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78">
+      <c r="A42" s="103"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="79">
+      <c r="G42" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="80" t="e">
+      <c r="H42" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="105" t="e">
+      <c r="I42" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:9">
-      <c r="A43" s="99"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78">
+      <c r="A43" s="103"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="79">
+      <c r="G43" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="80" t="e">
+      <c r="H43" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="105" t="e">
+      <c r="I43" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:9">
-      <c r="A44" s="99"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78">
+      <c r="A44" s="103"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="79">
+      <c r="G44" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="80" t="e">
+      <c r="H44" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="105" t="e">
+      <c r="I44" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A45" s="100"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="87">
+      <c r="A45" s="104"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="88">
+      <c r="G45" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="89" t="e">
+      <c r="H45" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="106" t="e">
+      <c r="I45" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3619,7 +3632,7 @@
   <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.45" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.45" style="19" customWidth="1"/>
     <col min="3" max="3" width="11.45" customWidth="1"/>
     <col min="4" max="4" width="26.9083333333333" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -3631,50 +3644,50 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3682,40 +3695,40 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="36">
         <v>43102</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="42">
         <v>76119980</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="28" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1">
@@ -3729,43 +3742,43 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="36">
         <v>43103</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="42">
         <v>76120617</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="42">
         <v>15651615666</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3776,40 +3789,40 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="36">
         <v>43124</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="42">
         <v>76125705</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N4" s="1">
@@ -3823,40 +3836,40 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="36">
         <v>43129</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N5" s="1">
@@ -3870,40 +3883,40 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="36">
         <v>43130</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="28" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="28" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="1">
@@ -3917,40 +3930,40 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <v>43132</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>76128399</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="1">
@@ -3964,40 +3977,40 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="36">
         <v>43133</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="28" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="1">
         <v>76129828</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N8" s="1">
@@ -4011,19 +4024,19 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="36">
         <v>43140</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="28" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="1">
@@ -4032,19 +4045,19 @@
       <c r="H9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="28" t="s">
         <v>72</v>
       </c>
       <c r="N9" s="1">
@@ -4058,10 +4071,10 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="36">
         <v>43144</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4070,7 +4083,7 @@
       <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="1">
@@ -4079,22 +4092,22 @@
       <c r="H10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K10" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="28">
         <v>18762310760</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -4105,10 +4118,10 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="36">
         <v>43157</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4123,25 +4136,25 @@
       <c r="G11" s="1">
         <v>76131263</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="46" t="s">
         <v>79</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -4152,10 +4165,10 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="36">
         <v>43158</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4164,31 +4177,31 @@
       <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="1">
         <v>76132273</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="46">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -4199,10 +4212,10 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <v>43183</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -4246,16 +4259,16 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="36">
         <v>43183</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4293,19 +4306,19 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="36">
         <v>43184</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="1">
@@ -4323,10 +4336,10 @@
       <c r="K15" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N15" s="1">
@@ -4340,19 +4353,19 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="36">
         <v>43185</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="1">
@@ -4370,10 +4383,10 @@
       <c r="K16" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N16" s="1">
@@ -4387,19 +4400,19 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="36">
         <v>43186</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="1">
@@ -4417,10 +4430,10 @@
       <c r="K17" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N17" s="1">
@@ -4434,19 +4447,19 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="36">
         <v>43197</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1">
@@ -4464,10 +4477,10 @@
       <c r="K18" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="28" t="s">
         <v>96</v>
       </c>
       <c r="N18" s="1">
@@ -4481,7 +4494,7 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4528,25 +4541,25 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="36">
         <v>43207</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="1">
         <v>76153256</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="28" t="s">
         <v>103</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -4558,10 +4571,10 @@
       <c r="K20" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N20" s="1">
@@ -4575,25 +4588,25 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="36">
         <v>43207</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="28">
         <v>76158795</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="28" t="s">
         <v>107</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -4605,10 +4618,10 @@
       <c r="K21" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N21" s="1">
@@ -4622,46 +4635,46 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="36">
         <v>43220</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="28">
         <v>76158188</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="28">
         <v>15396777171</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4669,93 +4682,93 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="36">
         <v>43220</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="28">
         <v>76153259</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="28">
         <v>13913145062</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="24" customFormat="1" spans="1:15">
+    <row r="24" s="28" customFormat="1" spans="1:15">
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="36">
         <v>43220</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="28">
         <v>76159325</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="28">
         <v>13003428203</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4763,40 +4776,40 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <v>43220</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="1">
         <v>76163656</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N25" s="1">
@@ -4810,43 +4823,43 @@
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="36">
         <v>43220</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="1">
         <v>76119975</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="28">
         <v>15396777171</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -4857,43 +4870,43 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="28">
         <v>76159317</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="28">
         <v>13003428203</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -4904,40 +4917,40 @@
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="28">
         <v>76168257</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N28" s="1">
@@ -4951,40 +4964,40 @@
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="28">
         <v>76166928</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N29" s="1">
@@ -4998,40 +5011,40 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="28">
         <v>76166316</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="28">
         <v>15952077449</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="L30" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N30" s="1">
@@ -5043,7 +5056,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -5060,7 +5073,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5077,7 +5090,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="32"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5094,7 +5107,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5111,7 +5124,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="32"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5128,7 +5141,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5145,7 +5158,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="32"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5162,7 +5175,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="32"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5179,7 +5192,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="32"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5196,7 +5209,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="32"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5213,7 +5226,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="32"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5230,7 +5243,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="32"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5247,7 +5260,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="32"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5264,7 +5277,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="32"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5281,7 +5294,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="32"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5298,7 +5311,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="32"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5315,7 +5328,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="32"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5332,7 +5345,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="32"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5349,7 +5362,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="32"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5366,7 +5379,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="32"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5383,7 +5396,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="32"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5400,7 +5413,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="32"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5417,7 +5430,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="32"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5434,7 +5447,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="32"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5451,7 +5464,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="32"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5468,7 +5481,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="32"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5485,7 +5498,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="32"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5502,7 +5515,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="32"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5519,7 +5532,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="32"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5536,7 +5549,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="32"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5553,7 +5566,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="32"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5570,7 +5583,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="32"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5587,7 +5600,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="32"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5604,7 +5617,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="32"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5621,7 +5634,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="32"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5638,7 +5651,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="32"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5655,7 +5668,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="32"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5672,7 +5685,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="32"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5689,7 +5702,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="32"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5706,7 +5719,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="32"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5723,7 +5736,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="32"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5740,7 +5753,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="32"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5757,7 +5770,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="32"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5774,7 +5787,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="32"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5791,7 +5804,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="32"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5808,7 +5821,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="32"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5825,7 +5838,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="32"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5842,7 +5855,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="32"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5859,7 +5872,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="32"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5876,7 +5889,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="32"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5893,7 +5906,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="32"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5910,7 +5923,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="32"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5927,7 +5940,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="32"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5944,7 +5957,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="32"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5961,7 +5974,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="32"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5978,7 +5991,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="32"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5995,7 +6008,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="32"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6012,7 +6025,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="32"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6029,7 +6042,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="32"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6046,7 +6059,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="32"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -6063,7 +6076,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="32"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -6080,7 +6093,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="32"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -6097,7 +6110,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="32"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6114,7 +6127,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="32"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6131,7 +6144,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="32"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -6148,7 +6161,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="32"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -6165,7 +6178,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="32"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -6182,7 +6195,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="32"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -6199,7 +6212,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="32"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -6216,7 +6229,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="32"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -6233,7 +6246,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="32"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -6250,7 +6263,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="32"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6267,7 +6280,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="32"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -6284,7 +6297,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="32"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6301,7 +6314,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="32"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -6318,7 +6331,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="32"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -6335,7 +6348,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="32"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -6352,7 +6365,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="32"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -6369,7 +6382,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="32"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -6386,7 +6399,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="32"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6403,7 +6416,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="32"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6420,7 +6433,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="32"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6437,7 +6450,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="32"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6454,7 +6467,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="32"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6471,7 +6484,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="32"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6488,7 +6501,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="32"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6505,7 +6518,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="32"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6522,7 +6535,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="32"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6539,7 +6552,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="32"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6556,7 +6569,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="32"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6573,7 +6586,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="32"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -6590,7 +6603,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="32"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -6607,7 +6620,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="32"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -6624,7 +6637,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="32"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -6641,7 +6654,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="32"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -6658,7 +6671,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="32"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -6675,7 +6688,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="32"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -6692,7 +6705,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="32"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6709,7 +6722,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="32"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6726,7 +6739,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="32"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6743,7 +6756,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="32"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -6760,7 +6773,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="32"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -6777,7 +6790,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="32"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -6794,7 +6807,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="32"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6811,7 +6824,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="32"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6828,7 +6841,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="32"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6845,7 +6858,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="32"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6862,7 +6875,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="32"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6879,7 +6892,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="32"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6896,7 +6909,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="32"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6913,7 +6926,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="32"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6930,7 +6943,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="32"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6947,7 +6960,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="32"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6964,7 +6977,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="32"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6981,7 +6994,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="32"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6998,7 +7011,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="32"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -7015,7 +7028,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="32"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -7032,7 +7045,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="32"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -7049,7 +7062,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="32"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -7066,7 +7079,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="32"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -7083,7 +7096,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="32"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -7100,7 +7113,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="32"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -7117,7 +7130,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="32"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -7134,7 +7147,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="32"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -7151,7 +7164,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="32"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -7168,7 +7181,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="32"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -7185,7 +7198,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="32"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -7202,7 +7215,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="32"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -7219,7 +7232,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="32"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -7236,7 +7249,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="32"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -7253,7 +7266,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="32"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -7270,7 +7283,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="32"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -7287,7 +7300,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="32"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -7304,7 +7317,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="32"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -7321,7 +7334,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="32"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7338,7 +7351,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="32"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -7355,7 +7368,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="32"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -7372,7 +7385,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="32"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -7389,7 +7402,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="32"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -7406,7 +7419,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="32"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -7423,7 +7436,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="32"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7440,7 +7453,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="32"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7457,7 +7470,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="32"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7474,7 +7487,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="32"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7491,7 +7504,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="32"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7508,7 +7521,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="32"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -7525,7 +7538,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="32"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -7542,7 +7555,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="32"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7559,7 +7572,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="32"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7576,7 +7589,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="32"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -7593,7 +7606,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="32"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7610,7 +7623,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="32"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7627,7 +7640,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="32"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7644,7 +7657,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="32"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7661,7 +7674,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="32"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7678,7 +7691,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="32"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7695,7 +7708,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="32"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7712,7 +7725,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="32"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7729,7 +7742,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="32"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -7746,7 +7759,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="32"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7763,7 +7776,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="32"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7780,7 +7793,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="32"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7797,7 +7810,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="32"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7814,7 +7827,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="32"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7831,7 +7844,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="32"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -7848,7 +7861,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="32"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -7865,7 +7878,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="32"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -7882,7 +7895,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="32"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -7899,7 +7912,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="32"/>
+      <c r="B199" s="36"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -7916,7 +7929,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="32"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -7933,7 +7946,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="32"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -7950,7 +7963,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="32"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -7967,7 +7980,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="32"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -7984,7 +7997,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="32"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8001,7 +8014,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="32"/>
+      <c r="B205" s="36"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8018,7 +8031,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="32"/>
+      <c r="B206" s="36"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8035,7 +8048,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="32"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -8052,7 +8065,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="32"/>
+      <c r="B208" s="36"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -8069,7 +8082,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="32"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8086,7 +8099,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="32"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8103,7 +8116,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="32"/>
+      <c r="B211" s="36"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8120,7 +8133,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="32"/>
+      <c r="B212" s="36"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8137,7 +8150,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="32"/>
+      <c r="B213" s="36"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -8154,7 +8167,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="32"/>
+      <c r="B214" s="36"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -8171,7 +8184,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="32"/>
+      <c r="B215" s="36"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -8188,7 +8201,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="32"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8205,7 +8218,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="32"/>
+      <c r="B217" s="36"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8222,7 +8235,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="32"/>
+      <c r="B218" s="36"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8239,7 +8252,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="32"/>
+      <c r="B219" s="36"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -8256,7 +8269,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="32"/>
+      <c r="B220" s="36"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -8273,7 +8286,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="32"/>
+      <c r="B221" s="36"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -8290,7 +8303,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="32"/>
+      <c r="B222" s="36"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -8307,7 +8320,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="32"/>
+      <c r="B223" s="36"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -8324,7 +8337,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="32"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -8341,7 +8354,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="32"/>
+      <c r="B225" s="36"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -8358,7 +8371,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="32"/>
+      <c r="B226" s="36"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -8375,7 +8388,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="32"/>
+      <c r="B227" s="36"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -8392,7 +8405,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="32"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -8409,7 +8422,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="32"/>
+      <c r="B229" s="36"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -8426,7 +8439,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="32"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -8443,7 +8456,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="32"/>
+      <c r="B231" s="36"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -8460,7 +8473,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="32"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -8477,7 +8490,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="32"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -8494,7 +8507,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="32"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -8511,7 +8524,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="32"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -8528,7 +8541,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="32"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -8545,7 +8558,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="32"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -8562,7 +8575,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="32"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -8579,7 +8592,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="32"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -8596,7 +8609,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="32"/>
+      <c r="B240" s="36"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -8613,7 +8626,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="32"/>
+      <c r="B241" s="36"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -8630,7 +8643,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="32"/>
+      <c r="B242" s="36"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -8647,7 +8660,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="32"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -8664,7 +8677,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="32"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -8681,7 +8694,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="32"/>
+      <c r="B245" s="36"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -8698,7 +8711,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="32"/>
+      <c r="B246" s="36"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -8715,7 +8728,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="32"/>
+      <c r="B247" s="36"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -8732,7 +8745,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="32"/>
+      <c r="B248" s="36"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -8749,7 +8762,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="32"/>
+      <c r="B249" s="36"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -8766,7 +8779,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="32"/>
+      <c r="B250" s="36"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -8783,7 +8796,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="32"/>
+      <c r="B251" s="36"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -8800,7 +8813,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="32"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -8817,7 +8830,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="32"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -8834,7 +8847,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="32"/>
+      <c r="B254" s="36"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -8851,7 +8864,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="32"/>
+      <c r="B255" s="36"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -8868,7 +8881,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="32"/>
+      <c r="B256" s="36"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -8885,7 +8898,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="32"/>
+      <c r="B257" s="36"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -8902,7 +8915,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="32"/>
+      <c r="B258" s="36"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -8919,7 +8932,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="32"/>
+      <c r="B259" s="36"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8936,7 +8949,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="32"/>
+      <c r="B260" s="36"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8953,7 +8966,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="32"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -8970,7 +8983,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="32"/>
+      <c r="B262" s="36"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -8987,7 +9000,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="32"/>
+      <c r="B263" s="36"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -9004,7 +9017,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="32"/>
+      <c r="B264" s="36"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -9021,7 +9034,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="32"/>
+      <c r="B265" s="36"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -9038,7 +9051,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="32"/>
+      <c r="B266" s="36"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -9055,7 +9068,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="32"/>
+      <c r="B267" s="36"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -9072,7 +9085,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="32"/>
+      <c r="B268" s="36"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -9089,7 +9102,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="32"/>
+      <c r="B269" s="36"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -9106,7 +9119,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="32"/>
+      <c r="B270" s="36"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -9123,7 +9136,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="32"/>
+      <c r="B271" s="36"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -9140,7 +9153,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="32"/>
+      <c r="B272" s="36"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -9157,7 +9170,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="32"/>
+      <c r="B273" s="36"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -9174,7 +9187,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="32"/>
+      <c r="B274" s="36"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -9191,7 +9204,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="32"/>
+      <c r="B275" s="36"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -9208,7 +9221,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="32"/>
+      <c r="B276" s="36"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -9225,7 +9238,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="32"/>
+      <c r="B277" s="36"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -9242,7 +9255,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="32"/>
+      <c r="B278" s="36"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -9259,7 +9272,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="32"/>
+      <c r="B279" s="36"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -9276,7 +9289,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="32"/>
+      <c r="B280" s="36"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -9293,7 +9306,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="32"/>
+      <c r="B281" s="36"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -9310,7 +9323,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="32"/>
+      <c r="B282" s="36"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -9327,7 +9340,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="32"/>
+      <c r="B283" s="36"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -9344,7 +9357,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="32"/>
+      <c r="B284" s="36"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -9361,7 +9374,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="32"/>
+      <c r="B285" s="36"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -9378,7 +9391,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="32"/>
+      <c r="B286" s="36"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -9395,7 +9408,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="32"/>
+      <c r="B287" s="36"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -9412,7 +9425,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="32"/>
+      <c r="B288" s="36"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -9429,7 +9442,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="32"/>
+      <c r="B289" s="36"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -9446,7 +9459,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="32"/>
+      <c r="B290" s="36"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -9463,7 +9476,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="32"/>
+      <c r="B291" s="36"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -9480,7 +9493,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="32"/>
+      <c r="B292" s="36"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -9497,7 +9510,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="32"/>
+      <c r="B293" s="36"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -9514,7 +9527,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="32"/>
+      <c r="B294" s="36"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -9531,7 +9544,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="32"/>
+      <c r="B295" s="36"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -9548,7 +9561,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="32"/>
+      <c r="B296" s="36"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -9565,7 +9578,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="32"/>
+      <c r="B297" s="36"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -9582,7 +9595,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="32"/>
+      <c r="B298" s="36"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -9599,7 +9612,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="32"/>
+      <c r="B299" s="36"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9616,7 +9629,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="32"/>
+      <c r="B300" s="36"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -9660,49 +9673,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.63333333333333" style="14"/>
+    <col min="1" max="1" width="8.63333333333333" style="18"/>
     <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.725" style="15" customWidth="1"/>
-    <col min="4" max="4" width="35.2666666666667" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.725" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.2666666666667" style="20" customWidth="1"/>
     <col min="5" max="5" width="13.45" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20">
+      <c r="A2" s="24">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="26">
         <v>43203</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="27" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9711,19 +9724,19 @@
       <c r="F2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="26">
         <v>43215</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -9737,10 +9750,10 @@
       </c>
     </row>
     <row r="4" hidden="1" spans="1:7">
-      <c r="A4" s="26"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="29" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="1"/>
@@ -9748,694 +9761,694 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="26"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="30"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="30"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="30"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="13"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="30"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="25"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="26"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="30"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="13"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" ht="14.25" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="30"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="30"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="25"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="25"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="26"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="25"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" ht="14.25" spans="1:7">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="30"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="25"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="29"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="25"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="25"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="25"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="29"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="26"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -10471,7 +10484,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -10479,44 +10492,44 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.0916666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.725" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="4" max="4" width="48.725" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>43086</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10524,19 +10537,19 @@
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>43092</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10544,16 +10557,16 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>43197</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F4" s="12"/>
@@ -10562,19 +10575,19 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <v>43205</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10582,16 +10595,16 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>43211</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10599,16 +10612,16 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>43220</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10616,38 +10629,38 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>43226</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F010F8D-0DDD-4B92-9D57-F7F1A298B894}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="172">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -445,15 +451,6 @@
     <t>万彤</t>
   </si>
   <si>
-    <t>君渴</t>
-  </si>
-  <si>
-    <t>店铺装修中</t>
-  </si>
-  <si>
-    <t>崔冰冰</t>
-  </si>
-  <si>
     <t>未上线</t>
   </si>
   <si>
@@ -497,20 +494,100 @@
   </si>
   <si>
     <t>花食间庐山路店实施培训</t>
+  </si>
+  <si>
+    <t>苏州食觉餐饮管理有限公司</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶无缺</t>
+  </si>
+  <si>
+    <t>茶无缺（星悦汇店）</t>
+  </si>
+  <si>
+    <t>坤明</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京市历久鲜餐饮管理公司</t>
+  </si>
+  <si>
+    <t>鸭得堡（竹山路店）</t>
+  </si>
+  <si>
+    <t>鸭得堡老鸭粉丝汤</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈姐</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京亿潼金餐饮管理有限公司君渴</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>君渴桥北金盛路店</t>
+  </si>
+  <si>
+    <t>宋总</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌蚌鲜虾粥南京大洋百货店</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+  </si>
+  <si>
+    <t>5月30号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实施培训</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>李燕东</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,7 +677,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -631,151 +708,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,7 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,19 +787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,164 +809,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1149,7 +948,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,7 +961,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,255 +1350,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1872,9 +1429,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,12 +1444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1940,6 +1488,142 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1970,265 +1654,100 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2486,1111 +2005,1119 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="64.5" customHeight="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" customFormat="1" ht="21" spans="1:9">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="105"/>
-    </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="104" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="107"/>
     </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>5</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="49">
         <v>4</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="51">
         <f t="shared" ref="F5:F45" si="0">D5+E5</f>
         <v>6</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="52">
         <f t="shared" ref="G5:G45" si="1">C5-F5</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="53">
         <f t="shared" ref="H5:H45" si="2">E5/F5</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I5" s="108">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="76">
         <f t="shared" ref="I5:I45" si="3">F5/C5</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55">
         <v>5</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="56">
         <v>4</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="57">
         <v>1</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="60">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="109">
+      <c r="I6" s="77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:9">
-      <c r="A7" s="85" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55">
         <v>4</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="56">
         <v>4</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="57">
         <v>2</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="59">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="60">
         <f t="shared" si="2"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I7" s="109">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="77">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:9">
-      <c r="A8" s="85" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55">
         <v>0</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="56">
         <v>3</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="57">
         <v>2</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="59">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="60">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="I8" s="109" t="e">
+      <c r="I8" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64">
         <v>9</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="65">
         <v>7</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="66">
         <v>2</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="67">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="69">
         <f t="shared" si="2"/>
-        <v>0.222222222222222</v>
-      </c>
-      <c r="I9" s="110">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I9" s="78">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:9">
-      <c r="A10" s="94" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="71">
         <v>0</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="49">
         <v>0</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="50">
         <v>0</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="77" t="e">
+      <c r="H10" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="108" t="e">
+      <c r="I10" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:9">
-      <c r="A11" s="97"/>
-      <c r="B11" s="95" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="94"/>
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="72">
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="56">
         <v>0</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="57">
         <v>0</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="84" t="e">
+      <c r="H11" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="109">
+      <c r="I11" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
-      <c r="A12" s="97"/>
-      <c r="B12" s="95" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="72">
         <v>1</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="56">
         <v>4</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="57">
         <v>0</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="59">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="77">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:9">
-      <c r="A13" s="97"/>
-      <c r="B13" s="95" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
+      <c r="B13" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="72">
         <v>0</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="56">
         <v>0</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="57">
         <v>0</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="84" t="e">
+      <c r="H13" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="109" t="e">
+      <c r="I13" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" s="97"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="72">
+        <v>1</v>
+      </c>
+      <c r="D14" s="56">
+        <v>4</v>
+      </c>
+      <c r="E14" s="57">
+        <v>0</v>
+      </c>
+      <c r="F14" s="58">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="59">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="77">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G15" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="84" t="e">
+      <c r="H15" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="109" t="e">
+      <c r="I15" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="93" t="e">
+      <c r="H16" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="110" t="e">
+      <c r="I16" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:9">
-      <c r="A16" s="103"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G17" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="77" t="e">
+      <c r="H17" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="108" t="e">
+      <c r="I17" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:9">
-      <c r="A17" s="103"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="83">
+      <c r="G18" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="84" t="e">
+      <c r="H18" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="109" t="e">
+      <c r="I18" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:9">
-      <c r="A18" s="103"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G19" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="84" t="e">
+      <c r="H19" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="109" t="e">
+      <c r="I19" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:9">
-      <c r="A19" s="103"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G20" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="84" t="e">
+      <c r="H20" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="109" t="e">
+      <c r="I20" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:9">
-      <c r="A20" s="103"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="83">
+      <c r="G21" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="84" t="e">
+      <c r="H21" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="109" t="e">
+      <c r="I21" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A21" s="104"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G22" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="93" t="e">
+      <c r="H22" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="110" t="e">
+      <c r="I22" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" s="103"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G23" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="77" t="e">
+      <c r="H23" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="108" t="e">
+      <c r="I23" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="103"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="83">
+      <c r="G24" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="84" t="e">
+      <c r="H24" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="109" t="e">
+      <c r="I24" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:9">
-      <c r="A24" s="103"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="79"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G25" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="84" t="e">
+      <c r="H25" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="109" t="e">
+      <c r="I25" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="103"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G26" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="84" t="e">
+      <c r="H26" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="109" t="e">
+      <c r="I26" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:9">
-      <c r="A26" s="103"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G27" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="84" t="e">
+      <c r="H27" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="109" t="e">
+      <c r="I27" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A27" s="104"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G28" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="93" t="e">
+      <c r="H28" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="110" t="e">
+      <c r="I28" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:9">
-      <c r="A28" s="103"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="79"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G29" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="77" t="e">
+      <c r="H29" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="108" t="e">
+      <c r="I29" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:9">
-      <c r="A29" s="103"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G30" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="84" t="e">
+      <c r="H30" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="109" t="e">
+      <c r="I30" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:9">
-      <c r="A30" s="103"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G31" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="84" t="e">
+      <c r="H31" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="109" t="e">
+      <c r="I31" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="103"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G32" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="84" t="e">
+      <c r="H32" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="109" t="e">
+      <c r="I32" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="103"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G33" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="84" t="e">
+      <c r="H33" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="109" t="e">
+      <c r="I33" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A33" s="104"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="91">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="79"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="92">
+      <c r="G34" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="93" t="e">
+      <c r="H34" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="110" t="e">
+      <c r="I34" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="103"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="79"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="77" t="e">
+      <c r="H35" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="108" t="e">
+      <c r="I35" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="103"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="83">
+      <c r="G36" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="84" t="e">
+      <c r="H36" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="109" t="e">
+      <c r="I36" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="103"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="79"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G37" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="84" t="e">
+      <c r="H37" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="109" t="e">
+      <c r="I37" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="103"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="79"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G38" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="84" t="e">
+      <c r="H38" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="109" t="e">
+      <c r="I38" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:9">
-      <c r="A38" s="103"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="82">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="80"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="83">
+      <c r="G39" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="84" t="e">
+      <c r="H39" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="109" t="e">
+      <c r="I39" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A39" s="104"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="91">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="79"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G40" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="93" t="e">
+      <c r="H40" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="110" t="e">
+      <c r="I40" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:9">
-      <c r="A40" s="103"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="79"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="76">
+      <c r="G41" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="77" t="e">
+      <c r="H41" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="108" t="e">
+      <c r="I41" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:9">
-      <c r="A41" s="103"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="79"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="83">
+      <c r="G42" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="84" t="e">
+      <c r="H42" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="109" t="e">
+      <c r="I42" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:9">
-      <c r="A42" s="103"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="79"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G43" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="84" t="e">
+      <c r="H43" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="109" t="e">
+      <c r="I43" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:9">
-      <c r="A43" s="103"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="82">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="79"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="83">
+      <c r="G44" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="84" t="e">
+      <c r="H44" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="109" t="e">
+      <c r="I44" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:9">
-      <c r="A44" s="103"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="82">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="80"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G45" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="84" t="e">
+      <c r="H45" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="109" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A45" s="104"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="93" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="110" t="e">
+      <c r="I45" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3602,133 +3129,132 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.45" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.45" customWidth="1"/>
-    <col min="4" max="4" width="26.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.0916666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.90833333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="33">
         <v>43102</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="39">
         <v>76119980</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1">
@@ -3738,91 +3264,91 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>43103</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="39">
         <v>76120617</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="39">
         <v>15651615666</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="33">
         <v>43124</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="39">
         <v>76125705</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N4" s="1">
@@ -3832,44 +3358,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="33">
         <v>43129</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N5" s="1">
@@ -3879,44 +3405,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="33">
         <v>43130</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="1">
@@ -3926,44 +3452,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="33">
         <v>43132</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>76128399</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="1">
@@ -3973,44 +3499,44 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="33">
         <v>43133</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="1">
         <v>76129828</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N8" s="1">
@@ -4020,23 +3546,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="33">
         <v>43140</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="1">
@@ -4045,19 +3571,19 @@
       <c r="H9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="27" t="s">
         <v>72</v>
       </c>
       <c r="N9" s="1">
@@ -4067,14 +3593,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="33">
         <v>43144</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4083,7 +3609,7 @@
       <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="1">
@@ -4092,36 +3618,36 @@
       <c r="H10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K10" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>18762310760</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="33">
         <v>43157</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4136,39 +3662,39 @@
       <c r="G11" s="1">
         <v>76131263</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="43" t="s">
         <v>79</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="33">
         <v>43158</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4177,45 +3703,45 @@
       <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="1">
         <v>76132273</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="43">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="33">
         <v>43183</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -4255,20 +3781,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="33">
         <v>43183</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4302,23 +3828,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="33">
         <v>43184</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="1">
@@ -4336,10 +3862,10 @@
       <c r="K15" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N15" s="1">
@@ -4349,23 +3875,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="33">
         <v>43185</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="1">
@@ -4383,10 +3909,10 @@
       <c r="K16" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N16" s="1">
@@ -4396,23 +3922,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="33">
         <v>43186</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="1">
@@ -4430,10 +3956,10 @@
       <c r="K17" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N17" s="1">
@@ -4443,23 +3969,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="33">
         <v>43197</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1">
@@ -4477,10 +4003,10 @@
       <c r="K18" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="27" t="s">
         <v>96</v>
       </c>
       <c r="N18" s="1">
@@ -4490,11 +4016,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="33">
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4537,29 +4063,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="33">
         <v>43207</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="1">
         <v>76153256</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>103</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -4571,10 +4097,10 @@
       <c r="K20" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N20" s="1">
@@ -4584,29 +4110,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="33">
         <v>43207</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>76158795</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>107</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -4618,10 +4144,10 @@
       <c r="K21" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N21" s="1">
@@ -4631,185 +4157,185 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="33">
         <v>43220</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>76158188</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="27">
         <v>15396777171</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="33">
         <v>43220</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>76153259</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="27">
         <v>13913145062</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="33">
         <v>43220</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>76159325</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="27">
         <v>13003428203</v>
       </c>
-      <c r="O24" s="28" t="s">
+      <c r="O24" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="33">
         <v>43220</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="1">
         <v>76163656</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N25" s="1">
@@ -4819,138 +4345,138 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="33">
         <v>43220</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="1">
         <v>76119975</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="27">
         <v>15396777171</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>76159317</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="27">
         <v>13003428203</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>76168257</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N28" s="1">
@@ -4960,44 +4486,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>76166928</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N29" s="1">
@@ -5007,44 +4533,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>76166316</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="27" t="s">
         <v>51</v>
       </c>
       <c r="N30" s="1">
@@ -5054,77 +4580,150 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15">
+    <row r="31" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>22</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="27">
+        <v>76173398</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="27">
+        <v>18551177101</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>22</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="27">
+        <v>76172532</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="27">
+        <v>13401911658</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>22</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="27">
+        <v>76162813</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="N33" s="27">
+        <v>13305141327</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5139,9 +4738,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="36"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5156,9 +4755,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="36"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5173,9 +4772,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="36"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5190,9 +4789,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="36"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5207,9 +4806,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="36"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5224,9 +4823,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="36"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5241,9 +4840,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="36"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5258,9 +4857,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="36"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5275,9 +4874,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5292,9 +4891,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="36"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5309,9 +4908,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5326,9 +4925,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="36"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5343,9 +4942,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="36"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5360,9 +4959,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="36"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5377,9 +4976,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="36"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5394,9 +4993,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="36"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5411,9 +5010,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="36"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5428,9 +5027,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="36"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5445,9 +5044,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="36"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5462,9 +5061,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="36"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5479,9 +5078,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="36"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5496,9 +5095,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="36"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5513,9 +5112,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="36"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5530,9 +5129,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="36"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5547,9 +5146,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="36"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5564,9 +5163,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="36"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5581,9 +5180,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="36"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5598,9 +5197,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="36"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5615,9 +5214,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="36"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5632,9 +5231,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="36"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5649,9 +5248,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="36"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5666,9 +5265,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="36"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5683,9 +5282,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="36"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5700,9 +5299,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="36"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5717,9 +5316,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="36"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5734,9 +5333,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="36"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5751,9 +5350,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="36"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5768,9 +5367,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="36"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5785,9 +5384,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="36"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5802,9 +5401,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="36"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5819,9 +5418,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="36"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5836,9 +5435,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="36"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5853,9 +5452,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="36"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5870,9 +5469,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="36"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5887,9 +5486,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="36"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5904,9 +5503,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="36"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5921,9 +5520,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="36"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5938,9 +5537,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="36"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5955,9 +5554,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="36"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5972,9 +5571,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="36"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5989,9 +5588,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="36"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6006,9 +5605,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="36"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6023,9 +5622,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="36"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6040,9 +5639,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="36"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6057,9 +5656,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="36"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -6074,9 +5673,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="36"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -6091,9 +5690,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="36"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -6108,9 +5707,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="36"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6125,9 +5724,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="36"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6142,9 +5741,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="36"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -6159,9 +5758,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="36"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -6176,9 +5775,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="36"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -6193,9 +5792,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="36"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -6210,9 +5809,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="36"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -6227,9 +5826,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="36"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -6244,9 +5843,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="36"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -6261,9 +5860,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="36"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6278,9 +5877,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="36"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -6295,9 +5894,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="36"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6312,9 +5911,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="36"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -6329,9 +5928,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="36"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -6346,9 +5945,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="36"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -6363,9 +5962,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="36"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -6380,9 +5979,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="36"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -6397,9 +5996,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="36"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6414,9 +6013,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="36"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6431,9 +6030,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="36"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6448,9 +6047,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="36"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6465,9 +6064,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="36"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6482,9 +6081,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="36"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6499,9 +6098,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="36"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6516,9 +6115,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="36"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6533,9 +6132,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="36"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6550,9 +6149,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="36"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6567,9 +6166,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="36"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6584,9 +6183,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="36"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -6601,9 +6200,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="36"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -6618,9 +6217,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="36"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -6635,9 +6234,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="36"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -6652,9 +6251,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="36"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -6669,9 +6268,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="36"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -6686,9 +6285,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="36"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -6703,9 +6302,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="36"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6720,9 +6319,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="36"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6737,9 +6336,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="36"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6754,9 +6353,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="36"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -6771,9 +6370,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="36"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -6788,9 +6387,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="36"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -6805,9 +6404,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="36"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6822,9 +6421,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="36"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6839,9 +6438,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="36"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6856,9 +6455,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="36"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6873,9 +6472,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="36"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6890,9 +6489,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="36"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6907,9 +6506,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="36"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6924,9 +6523,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="36"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6941,9 +6540,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="36"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6958,9 +6557,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="36"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6975,9 +6574,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="36"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6992,9 +6591,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="36"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -7009,9 +6608,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="36"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -7026,9 +6625,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="36"/>
+      <c r="B147" s="33"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -7043,9 +6642,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="36"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -7060,9 +6659,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="36"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -7077,9 +6676,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="36"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -7094,9 +6693,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="36"/>
+      <c r="B151" s="33"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -7111,9 +6710,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="36"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -7128,9 +6727,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="36"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -7145,9 +6744,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="36"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -7162,9 +6761,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="36"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -7179,9 +6778,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="36"/>
+      <c r="B156" s="33"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -7196,9 +6795,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="36"/>
+      <c r="B157" s="33"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -7213,9 +6812,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="36"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -7230,9 +6829,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="36"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -7247,9 +6846,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="36"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -7264,9 +6863,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="36"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -7281,9 +6880,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="36"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -7298,9 +6897,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="36"/>
+      <c r="B163" s="33"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -7315,9 +6914,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="36"/>
+      <c r="B164" s="33"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -7332,9 +6931,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="36"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7349,9 +6948,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="36"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -7366,9 +6965,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="36"/>
+      <c r="B167" s="33"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -7383,9 +6982,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="36"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -7400,9 +6999,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="36"/>
+      <c r="B169" s="33"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -7417,9 +7016,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="36"/>
+      <c r="B170" s="33"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -7434,9 +7033,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="36"/>
+      <c r="B171" s="33"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7451,9 +7050,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="36"/>
+      <c r="B172" s="33"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7468,9 +7067,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="36"/>
+      <c r="B173" s="33"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7485,9 +7084,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="36"/>
+      <c r="B174" s="33"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7502,9 +7101,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="36"/>
+      <c r="B175" s="33"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7519,9 +7118,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="36"/>
+      <c r="B176" s="33"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -7536,9 +7135,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="36"/>
+      <c r="B177" s="33"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -7553,9 +7152,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="36"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7570,9 +7169,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="36"/>
+      <c r="B179" s="33"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7587,9 +7186,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="36"/>
+      <c r="B180" s="33"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -7604,9 +7203,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="36"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7621,9 +7220,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="36"/>
+      <c r="B182" s="33"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7638,9 +7237,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="36"/>
+      <c r="B183" s="33"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7655,9 +7254,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="36"/>
+      <c r="B184" s="33"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7672,9 +7271,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="36"/>
+      <c r="B185" s="33"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7689,9 +7288,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="36"/>
+      <c r="B186" s="33"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7706,9 +7305,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="36"/>
+      <c r="B187" s="33"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7723,9 +7322,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="36"/>
+      <c r="B188" s="33"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7740,9 +7339,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="36"/>
+      <c r="B189" s="33"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -7757,9 +7356,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="36"/>
+      <c r="B190" s="33"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7774,9 +7373,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="36"/>
+      <c r="B191" s="33"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7791,9 +7390,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="36"/>
+      <c r="B192" s="33"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7808,9 +7407,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="36"/>
+      <c r="B193" s="33"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7825,9 +7424,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="36"/>
+      <c r="B194" s="33"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7842,9 +7441,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="36"/>
+      <c r="B195" s="33"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -7859,9 +7458,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="36"/>
+      <c r="B196" s="33"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -7876,9 +7475,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="36"/>
+      <c r="B197" s="33"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -7893,9 +7492,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="36"/>
+      <c r="B198" s="33"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -7910,9 +7509,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="36"/>
+      <c r="B199" s="33"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -7927,9 +7526,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="36"/>
+      <c r="B200" s="33"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -7944,9 +7543,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="36"/>
+      <c r="B201" s="33"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -7961,9 +7560,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="36"/>
+      <c r="B202" s="33"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -7978,9 +7577,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="36"/>
+      <c r="B203" s="33"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -7995,9 +7594,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="36"/>
+      <c r="B204" s="33"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8012,9 +7611,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="36"/>
+      <c r="B205" s="33"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8029,9 +7628,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="36"/>
+      <c r="B206" s="33"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8046,9 +7645,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="36"/>
+      <c r="B207" s="33"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -8063,9 +7662,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="36"/>
+      <c r="B208" s="33"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -8080,9 +7679,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="36"/>
+      <c r="B209" s="33"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8097,9 +7696,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="36"/>
+      <c r="B210" s="33"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8114,9 +7713,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="36"/>
+      <c r="B211" s="33"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8131,9 +7730,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="36"/>
+      <c r="B212" s="33"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8148,9 +7747,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="36"/>
+      <c r="B213" s="33"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -8165,9 +7764,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="36"/>
+      <c r="B214" s="33"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -8182,9 +7781,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="36"/>
+      <c r="B215" s="33"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -8199,9 +7798,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="36"/>
+      <c r="B216" s="33"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8216,9 +7815,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="36"/>
+      <c r="B217" s="33"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8233,9 +7832,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="36"/>
+      <c r="B218" s="33"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8250,9 +7849,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="36"/>
+      <c r="B219" s="33"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -8267,9 +7866,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="36"/>
+      <c r="B220" s="33"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -8284,9 +7883,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="36"/>
+      <c r="B221" s="33"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -8301,9 +7900,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="36"/>
+      <c r="B222" s="33"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -8318,9 +7917,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="36"/>
+      <c r="B223" s="33"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -8335,9 +7934,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="36"/>
+      <c r="B224" s="33"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -8352,9 +7951,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="36"/>
+      <c r="B225" s="33"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -8369,9 +7968,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="36"/>
+      <c r="B226" s="33"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -8386,9 +7985,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="36"/>
+      <c r="B227" s="33"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -8403,9 +8002,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="36"/>
+      <c r="B228" s="33"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -8420,9 +8019,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="36"/>
+      <c r="B229" s="33"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -8437,9 +8036,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="36"/>
+      <c r="B230" s="33"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -8454,9 +8053,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="36"/>
+      <c r="B231" s="33"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -8471,9 +8070,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="36"/>
+      <c r="B232" s="33"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -8488,9 +8087,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="36"/>
+      <c r="B233" s="33"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -8505,9 +8104,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="36"/>
+      <c r="B234" s="33"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -8522,9 +8121,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="36"/>
+      <c r="B235" s="33"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -8539,9 +8138,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="36"/>
+      <c r="B236" s="33"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -8556,9 +8155,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="36"/>
+      <c r="B237" s="33"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -8573,9 +8172,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="36"/>
+      <c r="B238" s="33"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -8590,9 +8189,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="36"/>
+      <c r="B239" s="33"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -8607,9 +8206,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="36"/>
+      <c r="B240" s="33"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -8624,9 +8223,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="36"/>
+      <c r="B241" s="33"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -8641,9 +8240,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="36"/>
+      <c r="B242" s="33"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -8658,9 +8257,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="36"/>
+      <c r="B243" s="33"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -8675,9 +8274,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="36"/>
+      <c r="B244" s="33"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -8692,9 +8291,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="36"/>
+      <c r="B245" s="33"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -8709,9 +8308,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="36"/>
+      <c r="B246" s="33"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -8726,9 +8325,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="36"/>
+      <c r="B247" s="33"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -8743,9 +8342,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="36"/>
+      <c r="B248" s="33"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -8760,9 +8359,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="36"/>
+      <c r="B249" s="33"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -8777,9 +8376,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="36"/>
+      <c r="B250" s="33"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -8794,9 +8393,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="36"/>
+      <c r="B251" s="33"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -8811,9 +8410,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="36"/>
+      <c r="B252" s="33"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -8828,9 +8427,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="36"/>
+      <c r="B253" s="33"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -8845,9 +8444,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="36"/>
+      <c r="B254" s="33"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -8862,9 +8461,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="36"/>
+      <c r="B255" s="33"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -8879,9 +8478,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="36"/>
+      <c r="B256" s="33"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -8896,9 +8495,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="36"/>
+      <c r="B257" s="33"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -8913,9 +8512,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="36"/>
+      <c r="B258" s="33"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -8930,9 +8529,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="36"/>
+      <c r="B259" s="33"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8947,9 +8546,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="36"/>
+      <c r="B260" s="33"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8964,9 +8563,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="36"/>
+      <c r="B261" s="33"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -8981,9 +8580,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="36"/>
+      <c r="B262" s="33"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -8998,9 +8597,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="36"/>
+      <c r="B263" s="33"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -9015,9 +8614,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="36"/>
+      <c r="B264" s="33"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -9032,9 +8631,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="36"/>
+      <c r="B265" s="33"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -9049,9 +8648,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="36"/>
+      <c r="B266" s="33"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -9066,9 +8665,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="36"/>
+      <c r="B267" s="33"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -9083,9 +8682,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="36"/>
+      <c r="B268" s="33"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -9100,9 +8699,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="36"/>
+      <c r="B269" s="33"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -9117,9 +8716,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="36"/>
+      <c r="B270" s="33"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -9134,9 +8733,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="36"/>
+      <c r="B271" s="33"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -9151,9 +8750,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="36"/>
+      <c r="B272" s="33"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -9168,9 +8767,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="36"/>
+      <c r="B273" s="33"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -9185,9 +8784,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
-      <c r="B274" s="36"/>
+      <c r="B274" s="33"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -9202,9 +8801,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
-      <c r="B275" s="36"/>
+      <c r="B275" s="33"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -9219,9 +8818,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
-      <c r="B276" s="36"/>
+      <c r="B276" s="33"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -9236,9 +8835,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
-      <c r="B277" s="36"/>
+      <c r="B277" s="33"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -9253,9 +8852,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
-      <c r="B278" s="36"/>
+      <c r="B278" s="33"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -9270,9 +8869,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
-      <c r="B279" s="36"/>
+      <c r="B279" s="33"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -9287,9 +8886,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
-      <c r="B280" s="36"/>
+      <c r="B280" s="33"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -9304,9 +8903,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
-      <c r="B281" s="36"/>
+      <c r="B281" s="33"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -9321,9 +8920,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
-      <c r="B282" s="36"/>
+      <c r="B282" s="33"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -9338,9 +8937,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
-      <c r="B283" s="36"/>
+      <c r="B283" s="33"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -9355,9 +8954,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
-      <c r="B284" s="36"/>
+      <c r="B284" s="33"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -9372,9 +8971,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
-      <c r="B285" s="36"/>
+      <c r="B285" s="33"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -9389,9 +8988,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="B286" s="36"/>
+      <c r="B286" s="33"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -9406,9 +9005,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
-      <c r="B287" s="36"/>
+      <c r="B287" s="33"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -9423,9 +9022,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
-      <c r="B288" s="36"/>
+      <c r="B288" s="33"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -9440,9 +9039,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-      <c r="B289" s="36"/>
+      <c r="B289" s="33"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -9457,9 +9056,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
-      <c r="B290" s="36"/>
+      <c r="B290" s="33"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -9474,9 +9073,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
-      <c r="B291" s="36"/>
+      <c r="B291" s="33"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -9491,9 +9090,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
-      <c r="B292" s="36"/>
+      <c r="B292" s="33"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -9508,9 +9107,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
-      <c r="B293" s="36"/>
+      <c r="B293" s="33"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -9525,9 +9124,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
-      <c r="B294" s="36"/>
+      <c r="B294" s="33"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -9542,9 +9141,9 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
-      <c r="B295" s="36"/>
+      <c r="B295" s="33"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -9559,9 +9158,9 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
-      <c r="B296" s="36"/>
+      <c r="B296" s="33"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -9576,9 +9175,9 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
-      <c r="B297" s="36"/>
+      <c r="B297" s="33"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -9593,9 +9192,9 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
-      <c r="B298" s="36"/>
+      <c r="B298" s="33"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -9610,9 +9209,9 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="B299" s="36"/>
+      <c r="B299" s="33"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9627,9 +9226,9 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
-      <c r="B300" s="36"/>
+      <c r="B300" s="33"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -9645,44 +9244,43 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.63333333333333" style="18"/>
-    <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.725" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.2666666666667" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.45" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="18"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -9705,17 +9303,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="24">
-        <v>20</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="108">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>43203</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9724,796 +9322,785 @@
       <c r="F2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="26">
-        <v>43215</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" spans="1:7">
-      <c r="A4" s="30"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="109"/>
+      <c r="B4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="30">
+        <v>43246</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="24"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="29"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="109"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="29"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="29"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="109"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="29"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="110"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="29"/>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="29"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="29"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="24"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="29"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="109"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="29"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="109"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="29"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="109"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="109"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="109"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="110"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="29"/>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="34"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="109"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="34"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="109"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="29"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="109"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="29"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="109"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="29"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="109"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="29"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="109"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="29"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="109"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="29"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="109"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="109"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="109"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="109"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="109"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="29"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="109"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="24"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="29"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="110"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="30"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="29"/>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="108"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="31"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="34"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="109"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="34"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="109"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="34"/>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="109"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="34"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="109"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="29"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="109"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="29"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="109"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="29"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="109"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="29"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="109"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="29"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="109"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="29"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="109"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="29"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="110"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="30"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="29"/>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="108"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="31"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="34"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="109"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="25"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="34"/>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="109"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" ht="14.25" spans="1:7">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="34"/>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="109"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="34"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="109"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="29"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="109"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="29"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="109"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="29"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="109"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="29"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="109"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="29"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="109"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="29"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="109"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="29"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="110"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="30"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="29"/>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="109"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:7">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="34"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="109"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:7">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="34"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="109"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="29"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="109"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="29"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="109"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="29"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="109"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="29"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="109"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="29"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="109"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="29"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="109"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="29"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="110"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="30"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="A72:A81"/>
+  <mergeCells count="6">
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.725" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" style="2" customWidth="1"/>
     <col min="5" max="5" width="45" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12</v>
       </c>
@@ -10524,16 +10111,16 @@
         <v>43086</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -10544,16 +10131,16 @@
         <v>43092</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -10564,14 +10151,14 @@
         <v>43197</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10582,16 +10169,16 @@
         <v>43205</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10602,13 +10189,13 @@
         <v>43211</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -10619,13 +10206,13 @@
         <v>43220</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -10636,35 +10223,35 @@
         <v>43226</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F010F8D-0DDD-4B92-9D57-F7F1A298B894}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -94,6 +88,9 @@
   </si>
   <si>
     <t>第21周</t>
+  </si>
+  <si>
+    <t>第22周</t>
   </si>
   <si>
     <t>周次</t>
@@ -421,6 +418,54 @@
     <t>邓总</t>
   </si>
   <si>
+    <t>5月30号</t>
+  </si>
+  <si>
+    <t>苏州食觉餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>茶无缺</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>茶无缺（星悦汇店）</t>
+  </si>
+  <si>
+    <t>坤明</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>南京市历久鲜餐饮管理公司</t>
+  </si>
+  <si>
+    <t>鸭得堡老鸭粉丝汤</t>
+  </si>
+  <si>
+    <t>鸭得堡（竹山路店）</t>
+  </si>
+  <si>
+    <t>陈姐</t>
+  </si>
+  <si>
+    <t>老板娘</t>
+  </si>
+  <si>
+    <t>南京亿潼金餐饮管理有限公司君渴</t>
+  </si>
+  <si>
+    <t>君渴</t>
+  </si>
+  <si>
+    <t>君渴桥北金盛路店</t>
+  </si>
+  <si>
+    <t>宋总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -454,6 +499,21 @@
     <t>未上线</t>
   </si>
   <si>
+    <t>蚌蚌鲜虾粥南京大洋百货店</t>
+  </si>
+  <si>
+    <t>已实施培训</t>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>李燕东</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -494,100 +554,20 @@
   </si>
   <si>
     <t>花食间庐山路店实施培训</t>
-  </si>
-  <si>
-    <t>苏州食觉餐饮管理有限公司</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶无缺</t>
-  </si>
-  <si>
-    <t>茶无缺（星悦汇店）</t>
-  </si>
-  <si>
-    <t>坤明</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaaS</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京市历久鲜餐饮管理公司</t>
-  </si>
-  <si>
-    <t>鸭得堡（竹山路店）</t>
-  </si>
-  <si>
-    <t>鸭得堡老鸭粉丝汤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏州</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板娘</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈姐</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京亿潼金餐饮管理有限公司君渴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>君渴桥北金盛路店</t>
-  </si>
-  <si>
-    <t>宋总</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌蚌鲜虾粥南京大洋百货店</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>第22周</t>
-  </si>
-  <si>
-    <t>5月30号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>已实施培训</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
-    <t>李燕东</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +599,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -677,7 +670,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -708,29 +701,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,7 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,19 +902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,8 +924,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -920,6 +1221,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -934,21 +1248,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,7 +1262,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,19 +1529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1286,6 +1574,19 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1350,13 +1651,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,9 +1909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,6 +1969,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,37 +1984,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1483,25 +2038,100 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1526,7 +2156,7 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1551,15 +2181,15 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1584,7 +2214,11 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1592,22 +2226,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,137 +2276,62 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2005,1119 +2589,1119 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="6.26666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.9083333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.0916666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="19.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" ht="21" spans="1:9">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="106"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="100" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="44" t="s">
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="107"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="108"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73">
         <v>5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="74">
         <v>4</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="75">
         <v>2</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="76">
         <f t="shared" ref="F5:F45" si="0">D5+E5</f>
         <v>6</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="77">
         <f t="shared" ref="G5:G45" si="1">C5-F5</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="78">
         <f t="shared" ref="H5:H45" si="2">E5/F5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I5" s="76">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I5" s="109">
         <f t="shared" ref="I5:I45" si="3">F5/C5</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80">
         <v>5</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="81">
         <v>4</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="82">
         <v>1</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="83">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="85">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="110">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80">
         <v>4</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="81">
         <v>4</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="82">
         <v>2</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="83">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="84">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="85">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I7" s="77">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I7" s="110">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80">
         <v>0</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="81">
         <v>3</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="82">
         <v>2</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="83">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="84">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="85">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="I8" s="77" t="e">
+      <c r="I8" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89">
         <v>9</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="90">
         <v>7</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="91">
         <v>2</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="92">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="94">
         <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="I9" s="78">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="I9" s="111">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="97">
         <v>0</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="74">
         <v>0</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="75">
         <v>0</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="53" t="e">
+      <c r="H10" s="78" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="76" t="e">
+      <c r="I10" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="70" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="98"/>
+      <c r="B11" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="99">
         <v>1</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="81">
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="82">
         <v>0</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="84">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="60" t="e">
+      <c r="H11" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="70" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="98"/>
+      <c r="B12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="99">
         <v>1</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="81">
         <v>4</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="82">
         <v>0</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="83">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="84">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="110">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="70" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="98"/>
+      <c r="B13" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="99">
         <v>0</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="81">
         <v>0</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="82">
         <v>0</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="60" t="e">
+      <c r="H13" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="77" t="e">
+      <c r="I13" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="72">
-        <v>1</v>
-      </c>
-      <c r="D14" s="56">
-        <v>4</v>
-      </c>
-      <c r="E14" s="57">
+    <row r="14" spans="1:9">
+      <c r="A14" s="98"/>
+      <c r="B14" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="99">
+        <v>3</v>
+      </c>
+      <c r="D14" s="81">
+        <v>3</v>
+      </c>
+      <c r="E14" s="82">
         <v>0</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="83">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G14" s="59">
+        <v>3</v>
+      </c>
+      <c r="G14" s="84">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="H14" s="60">
+        <v>0</v>
+      </c>
+      <c r="H14" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="110">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="69" t="e">
+      <c r="H15" s="94" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="78" t="e">
+      <c r="I15" s="111" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51">
+    <row r="16" spans="1:9">
+      <c r="A16" s="103"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="53" t="e">
+      <c r="H16" s="78" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="76" t="e">
+      <c r="I16" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58">
+    <row r="17" spans="1:9">
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="60" t="e">
+      <c r="H17" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="77" t="e">
+      <c r="I17" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58">
+    <row r="18" spans="1:9">
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="60" t="e">
+      <c r="H18" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="77" t="e">
+      <c r="I18" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58">
+    <row r="19" spans="1:9">
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="60" t="e">
+      <c r="H19" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="77" t="e">
+      <c r="I19" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58">
+    <row r="20" spans="1:9">
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="60" t="e">
+      <c r="H20" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="77" t="e">
+      <c r="I20" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67">
+    <row r="21" ht="14.25" spans="1:9">
+      <c r="A21" s="105"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="69" t="e">
+      <c r="H21" s="94" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="78" t="e">
+      <c r="I21" s="111" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51">
+    <row r="22" spans="1:9">
+      <c r="A22" s="103"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="53" t="e">
+      <c r="H22" s="78" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="76" t="e">
+      <c r="I22" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58">
+    <row r="23" spans="1:9">
+      <c r="A23" s="103"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="60" t="e">
+      <c r="H23" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="77" t="e">
+      <c r="I23" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58">
+    <row r="24" spans="1:9">
+      <c r="A24" s="103"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="60" t="e">
+      <c r="H24" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="77" t="e">
+      <c r="I24" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+    <row r="25" spans="1:9">
+      <c r="A25" s="103"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="60" t="e">
+      <c r="H25" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="77" t="e">
+      <c r="I25" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58">
+    <row r="26" spans="1:9">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="60" t="e">
+      <c r="H26" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="77" t="e">
+      <c r="I26" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67">
+    <row r="27" ht="14.25" spans="1:9">
+      <c r="A27" s="105"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="69" t="e">
+      <c r="H27" s="94" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="78" t="e">
+      <c r="I27" s="111" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51">
+    <row r="28" spans="1:9">
+      <c r="A28" s="103"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="53" t="e">
+      <c r="H28" s="78" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="76" t="e">
+      <c r="I28" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58">
+    <row r="29" spans="1:9">
+      <c r="A29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="60" t="e">
+      <c r="H29" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="77" t="e">
+      <c r="I29" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58">
+    <row r="30" spans="1:9">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="60" t="e">
+      <c r="H30" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="77" t="e">
+      <c r="I30" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58">
+    <row r="31" spans="1:9">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="60" t="e">
+      <c r="H31" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="77" t="e">
+      <c r="I31" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58">
+    <row r="32" spans="1:9">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="60" t="e">
+      <c r="H32" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="77" t="e">
+      <c r="I32" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67">
+    <row r="33" ht="14.25" spans="1:9">
+      <c r="A33" s="105"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="69" t="e">
+      <c r="H33" s="94" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="78" t="e">
+      <c r="I33" s="111" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51">
+    <row r="34" spans="1:9">
+      <c r="A34" s="103"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="53" t="e">
+      <c r="H34" s="78" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="76" t="e">
+      <c r="I34" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58">
+    <row r="35" spans="1:9">
+      <c r="A35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="60" t="e">
+      <c r="H35" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="77" t="e">
+      <c r="I35" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58">
+    <row r="36" spans="1:9">
+      <c r="A36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="60" t="e">
+      <c r="H36" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="77" t="e">
+      <c r="I36" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58">
+    <row r="37" spans="1:9">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="60" t="e">
+      <c r="H37" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="77" t="e">
+      <c r="I37" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58">
+    <row r="38" spans="1:9">
+      <c r="A38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="60" t="e">
+      <c r="H38" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="77" t="e">
+      <c r="I38" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67">
+    <row r="39" ht="14.25" spans="1:9">
+      <c r="A39" s="105"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="69" t="e">
+      <c r="H39" s="94" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="78" t="e">
+      <c r="I39" s="111" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51">
+    <row r="40" spans="1:9">
+      <c r="A40" s="103"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="53" t="e">
+      <c r="H40" s="78" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="76" t="e">
+      <c r="I40" s="109" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58">
+    <row r="41" spans="1:9">
+      <c r="A41" s="103"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="60" t="e">
+      <c r="H41" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="77" t="e">
+      <c r="I41" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58">
+    <row r="42" spans="1:9">
+      <c r="A42" s="103"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="60" t="e">
+      <c r="H42" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="77" t="e">
+      <c r="I42" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58">
+    <row r="43" spans="1:9">
+      <c r="A43" s="103"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="59">
+      <c r="G43" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="60" t="e">
+      <c r="H43" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="77" t="e">
+      <c r="I43" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58">
+    <row r="44" spans="1:9">
+      <c r="A44" s="103"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="60" t="e">
+      <c r="H44" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="77" t="e">
+      <c r="I44" s="110" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67">
+    <row r="45" ht="14.25" spans="1:9">
+      <c r="A45" s="105"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="68">
+      <c r="G45" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="69" t="e">
+      <c r="H45" s="94" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="78" t="e">
+      <c r="I45" s="111" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3129,1601 +3713,1605 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.45" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.45" customWidth="1"/>
+    <col min="4" max="4" width="26.9083333333333" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.0916666666667" customWidth="1"/>
+    <col min="9" max="9" width="9.90833333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.9083333333333" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" s="38" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="M1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="36">
         <v>43102</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="39">
+        <v>41</v>
+      </c>
+      <c r="G2" s="43">
         <v>76119980</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1">
         <v>18112141314</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="36">
         <v>43103</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="39">
+        <v>43</v>
+      </c>
+      <c r="G3" s="43">
         <v>76120617</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1">
         <v>15952077449</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="39">
+        <v>52</v>
+      </c>
+      <c r="N3" s="43">
         <v>15651615666</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="36">
         <v>43124</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="39">
+        <v>43</v>
+      </c>
+      <c r="G4" s="43">
         <v>76125705</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1">
         <v>15952077449</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1">
         <v>13952023516</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="36">
         <v>43129</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1">
         <v>15605155898</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="36">
         <v>43130</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1">
         <v>18796963653</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="36">
         <v>43132</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1">
         <v>76128399</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1">
         <v>15952077449</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1">
         <v>13773320055</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="36">
         <v>43133</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1">
         <v>76129828</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="1">
         <v>15952077449</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="1">
         <v>18952027077</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="36">
         <v>43140</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1">
         <v>76130623</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="1">
         <v>15952077449</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1">
         <v>18768124846</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="36">
         <v>43144</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1">
         <v>76118602</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="1">
         <v>15952077449</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N10" s="27">
         <v>18762310760</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="36">
         <v>43157</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1">
         <v>76131263</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="1">
         <v>15952077449</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>79</v>
+        <v>52</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="36">
         <v>43158</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1">
         <v>76132273</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1">
         <v>15952077449</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="43">
+        <v>52</v>
+      </c>
+      <c r="N12" s="46">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="36">
         <v>43183</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>76137862</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1">
         <v>15952077449</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N13" s="1">
         <v>15996213885</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="36">
         <v>43183</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1">
         <v>76137863</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1">
         <v>15952077449</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N14" s="1">
         <v>15996213885</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="36">
         <v>43184</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1">
         <v>76139652</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="1">
         <v>15952077449</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N15" s="1">
         <v>18952027077</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="36">
         <v>43185</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1">
         <v>76150298</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" s="1">
         <v>15952077449</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N16" s="1">
         <v>18952027077</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="36">
         <v>43186</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1">
         <v>76150305</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" s="1">
         <v>15952077449</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N17" s="1">
         <v>18952027077</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="36">
         <v>43197</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1">
         <v>76156072</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" s="1">
         <v>15952077449</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N18" s="1">
         <v>15365136818</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="36">
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="1">
         <v>76155329</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" s="1">
         <v>15952077449</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19" s="1">
         <v>18910614320</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="36">
         <v>43207</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1">
         <v>76153256</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1">
         <v>15952077449</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N20" s="1">
         <v>13913145062</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="36">
         <v>43207</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" s="27">
         <v>76158795</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" s="1">
         <v>15952077449</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N21" s="1">
         <v>13675152232</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="36">
         <v>43220</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="27">
         <v>76158188</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" s="27">
         <v>15952077449</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N22" s="27">
         <v>15396777171</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="36">
         <v>43220</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="27">
         <v>76153259</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" s="27">
         <v>15952077449</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N23" s="27">
         <v>13913145062</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" s="27" customFormat="1" spans="1:15">
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="36">
         <v>43220</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24" s="27">
         <v>76159325</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" s="27">
         <v>15952077449</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N24" s="27">
         <v>13003428203</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="36">
         <v>43220</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1">
         <v>76163656</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" s="27">
         <v>15952077449</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N25" s="1">
         <v>18651801572</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="36">
         <v>43220</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1">
         <v>76119975</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>115</v>
+      <c r="H26" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" s="27">
         <v>15952077449</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N26" s="27">
         <v>15396777171</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>116</v>
+      <c r="B27" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" s="27">
         <v>76159317</v>
       </c>
-      <c r="H27" s="40" t="s">
-        <v>117</v>
+      <c r="H27" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27" s="27">
         <v>15952077449</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N27" s="27">
         <v>13003428203</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>116</v>
+      <c r="B28" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" s="27">
         <v>76168257</v>
       </c>
-      <c r="H28" s="40" t="s">
-        <v>119</v>
+      <c r="H28" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28" s="27">
         <v>15952077449</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N28" s="1">
         <v>15952825263</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>116</v>
+      <c r="B29" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" s="27">
         <v>76166928</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>65</v>
+      <c r="H29" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29" s="27">
         <v>15952077449</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N29" s="1">
         <v>15951874491</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>116</v>
+      <c r="B30" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" s="27">
         <v>76166316</v>
       </c>
-      <c r="H30" s="40" t="s">
-        <v>122</v>
+      <c r="H30" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30" s="27">
         <v>15952077449</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N30" s="1">
         <v>13952035527</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" s="27" customFormat="1" spans="1:15">
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>167</v>
+      <c r="B31" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G31" s="27">
         <v>76173398</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31" s="27">
         <v>15952077449</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="N31" s="27">
         <v>18551177101</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" s="27" customFormat="1" spans="1:15">
       <c r="A32" s="27">
         <v>22</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>167</v>
+      <c r="B32" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="G32" s="27">
         <v>76172532</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32" s="27">
         <v>15952077449</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="N32" s="27">
         <v>13401911658</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" s="27" customFormat="1" spans="1:15">
       <c r="A33" s="27">
         <v>22</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>167</v>
+      <c r="B33" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="G33" s="27">
         <v>76162813</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33" s="27">
         <v>15952077449</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="N33" s="27">
         <v>13305141327</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" s="27" customFormat="1" spans="2:2">
+      <c r="B34" s="46"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4738,9 +5326,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="33"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4755,9 +5343,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="33"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4772,9 +5360,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="33"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4789,9 +5377,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4806,9 +5394,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4823,9 +5411,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4840,9 +5428,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="33"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4857,9 +5445,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="33"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4874,9 +5462,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="33"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4891,9 +5479,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="33"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4908,9 +5496,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="33"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4925,9 +5513,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4942,9 +5530,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="33"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4959,9 +5547,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="33"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4976,9 +5564,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="33"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4993,9 +5581,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="33"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5010,9 +5598,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="33"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5027,9 +5615,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="33"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5044,9 +5632,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="33"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5061,9 +5649,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="33"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5078,9 +5666,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="33"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5095,9 +5683,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="33"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5112,9 +5700,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="33"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5129,9 +5717,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="33"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5146,9 +5734,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="33"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5163,9 +5751,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="33"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5180,9 +5768,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="33"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5197,9 +5785,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="33"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5214,9 +5802,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="33"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5231,9 +5819,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="33"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5248,9 +5836,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="33"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5265,9 +5853,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="33"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5282,9 +5870,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="33"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5299,9 +5887,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="33"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5316,9 +5904,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5333,9 +5921,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5350,9 +5938,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5367,9 +5955,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5384,9 +5972,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5401,9 +5989,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5418,9 +6006,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5435,9 +6023,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5452,9 +6040,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5469,9 +6057,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="33"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5486,9 +6074,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="33"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5503,9 +6091,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="33"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5520,9 +6108,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="33"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5537,9 +6125,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="33"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5554,9 +6142,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="33"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5571,9 +6159,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="33"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5588,9 +6176,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="33"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5605,9 +6193,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="33"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5622,9 +6210,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="33"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5639,9 +6227,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="33"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5656,9 +6244,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="33"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5673,9 +6261,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="33"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5690,9 +6278,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="33"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5707,9 +6295,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="33"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5724,9 +6312,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="33"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5741,9 +6329,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="33"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5758,9 +6346,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="33"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5775,9 +6363,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="33"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5792,9 +6380,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="33"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5809,9 +6397,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="33"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5826,9 +6414,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="33"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5843,9 +6431,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="33"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5860,9 +6448,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="33"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5877,9 +6465,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="33"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5894,9 +6482,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="33"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -5911,9 +6499,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="33"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5928,9 +6516,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="33"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5945,9 +6533,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="33"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5962,9 +6550,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="33"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5979,9 +6567,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="33"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5996,9 +6584,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="33"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6013,9 +6601,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="33"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6030,9 +6618,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="33"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6047,9 +6635,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="33"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6064,9 +6652,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="33"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6081,9 +6669,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="33"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6098,9 +6686,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="33"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6115,9 +6703,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="33"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6132,9 +6720,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="33"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6149,9 +6737,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="33"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6166,9 +6754,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="33"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6183,9 +6771,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="33"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -6200,9 +6788,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="33"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -6217,9 +6805,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="33"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -6234,9 +6822,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="33"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -6251,9 +6839,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="33"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -6268,9 +6856,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="33"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -6285,9 +6873,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="33"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -6302,9 +6890,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="33"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6319,9 +6907,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="33"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6336,9 +6924,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="33"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6353,9 +6941,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="33"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -6370,9 +6958,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="33"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -6387,9 +6975,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="33"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -6404,9 +6992,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="33"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6421,9 +7009,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="33"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6438,9 +7026,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="33"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6455,9 +7043,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="33"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6472,9 +7060,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="33"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6489,9 +7077,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="33"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6506,9 +7094,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="33"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6523,9 +7111,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="33"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6540,9 +7128,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="33"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6557,9 +7145,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="33"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6574,9 +7162,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="33"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6591,9 +7179,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="33"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6608,9 +7196,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="33"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6625,9 +7213,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="33"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6642,9 +7230,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="33"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6659,9 +7247,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="33"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6676,9 +7264,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="33"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6693,9 +7281,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="33"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6710,9 +7298,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="33"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6727,9 +7315,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="33"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6744,9 +7332,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="33"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6761,9 +7349,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="33"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6778,9 +7366,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="33"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -6795,9 +7383,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="33"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -6812,9 +7400,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="33"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -6829,9 +7417,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="33"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -6846,9 +7434,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="33"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -6863,9 +7451,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="33"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6880,9 +7468,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="33"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6897,9 +7485,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="33"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6914,9 +7502,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="33"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6931,9 +7519,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="33"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -6948,9 +7536,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="33"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -6965,9 +7553,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="33"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -6982,9 +7570,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="33"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -6999,9 +7587,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="33"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -7016,9 +7604,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="33"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -7033,9 +7621,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="33"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7050,9 +7638,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="33"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7067,9 +7655,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="33"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7084,9 +7672,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="33"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7101,9 +7689,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="33"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7118,9 +7706,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="33"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -7135,9 +7723,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="33"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -7152,9 +7740,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="33"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7169,9 +7757,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="33"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7186,9 +7774,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="33"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -7203,9 +7791,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="33"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7220,9 +7808,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="33"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7237,9 +7825,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="33"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7254,9 +7842,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="33"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7271,9 +7859,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="33"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7288,9 +7876,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="33"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7305,9 +7893,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="33"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7322,9 +7910,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="33"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7339,9 +7927,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="33"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -7356,9 +7944,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="33"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7373,9 +7961,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="33"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7390,9 +7978,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="33"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7407,9 +7995,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="33"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7424,9 +8012,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="33"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7441,9 +8029,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="33"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -7458,9 +8046,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="33"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -7475,9 +8063,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="33"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -7492,9 +8080,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="33"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -7509,9 +8097,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="33"/>
+      <c r="B199" s="36"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -7526,9 +8114,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="33"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -7543,9 +8131,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="33"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -7560,9 +8148,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="33"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -7577,9 +8165,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="33"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -7594,9 +8182,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="33"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -7611,9 +8199,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="33"/>
+      <c r="B205" s="36"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -7628,9 +8216,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="33"/>
+      <c r="B206" s="36"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -7645,9 +8233,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="33"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -7662,9 +8250,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="33"/>
+      <c r="B208" s="36"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -7679,9 +8267,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="33"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -7696,9 +8284,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="33"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -7713,9 +8301,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="33"/>
+      <c r="B211" s="36"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -7730,9 +8318,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="33"/>
+      <c r="B212" s="36"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -7747,9 +8335,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="33"/>
+      <c r="B213" s="36"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -7764,9 +8352,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="33"/>
+      <c r="B214" s="36"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -7781,9 +8369,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="33"/>
+      <c r="B215" s="36"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -7798,9 +8386,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="33"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -7815,9 +8403,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="33"/>
+      <c r="B217" s="36"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -7832,9 +8420,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="33"/>
+      <c r="B218" s="36"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -7849,9 +8437,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="33"/>
+      <c r="B219" s="36"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -7866,9 +8454,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="33"/>
+      <c r="B220" s="36"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -7883,9 +8471,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="33"/>
+      <c r="B221" s="36"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -7900,9 +8488,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="33"/>
+      <c r="B222" s="36"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -7917,9 +8505,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="33"/>
+      <c r="B223" s="36"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7934,9 +8522,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="33"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7951,9 +8539,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="33"/>
+      <c r="B225" s="36"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7968,9 +8556,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="33"/>
+      <c r="B226" s="36"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7985,9 +8573,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="33"/>
+      <c r="B227" s="36"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -8002,9 +8590,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="33"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -8019,9 +8607,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="33"/>
+      <c r="B229" s="36"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -8036,9 +8624,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="33"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -8053,9 +8641,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="33"/>
+      <c r="B231" s="36"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -8070,9 +8658,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="33"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -8087,9 +8675,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="33"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -8104,9 +8692,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="33"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -8121,9 +8709,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="33"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -8138,9 +8726,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="33"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -8155,9 +8743,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="33"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -8172,9 +8760,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="33"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -8189,9 +8777,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="33"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -8206,9 +8794,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="33"/>
+      <c r="B240" s="36"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -8223,9 +8811,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="33"/>
+      <c r="B241" s="36"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -8240,9 +8828,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="33"/>
+      <c r="B242" s="36"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -8257,9 +8845,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="33"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -8274,9 +8862,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="33"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -8291,9 +8879,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="33"/>
+      <c r="B245" s="36"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -8308,9 +8896,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="33"/>
+      <c r="B246" s="36"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -8325,9 +8913,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="33"/>
+      <c r="B247" s="36"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -8342,9 +8930,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="33"/>
+      <c r="B248" s="36"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -8359,9 +8947,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="33"/>
+      <c r="B249" s="36"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -8376,9 +8964,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="33"/>
+      <c r="B250" s="36"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -8393,9 +8981,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="33"/>
+      <c r="B251" s="36"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -8410,9 +8998,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="33"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -8427,9 +9015,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="33"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -8444,9 +9032,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="33"/>
+      <c r="B254" s="36"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -8461,9 +9049,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="33"/>
+      <c r="B255" s="36"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -8478,9 +9066,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="33"/>
+      <c r="B256" s="36"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -8495,9 +9083,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="33"/>
+      <c r="B257" s="36"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -8512,9 +9100,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="33"/>
+      <c r="B258" s="36"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -8529,9 +9117,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="33"/>
+      <c r="B259" s="36"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8546,9 +9134,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="33"/>
+      <c r="B260" s="36"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8563,9 +9151,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="33"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -8580,9 +9168,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="33"/>
+      <c r="B262" s="36"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -8597,9 +9185,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="33"/>
+      <c r="B263" s="36"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -8614,9 +9202,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="33"/>
+      <c r="B264" s="36"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -8631,9 +9219,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="33"/>
+      <c r="B265" s="36"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -8648,9 +9236,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="33"/>
+      <c r="B266" s="36"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -8665,9 +9253,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="33"/>
+      <c r="B267" s="36"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -8682,9 +9270,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="33"/>
+      <c r="B268" s="36"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -8699,9 +9287,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="33"/>
+      <c r="B269" s="36"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -8716,9 +9304,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="33"/>
+      <c r="B270" s="36"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -8733,9 +9321,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="33"/>
+      <c r="B271" s="36"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -8750,9 +9338,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="33"/>
+      <c r="B272" s="36"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -8767,9 +9355,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="33"/>
+      <c r="B273" s="36"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -8784,9 +9372,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="33"/>
+      <c r="B274" s="36"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -8801,9 +9389,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="33"/>
+      <c r="B275" s="36"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -8818,9 +9406,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="33"/>
+      <c r="B276" s="36"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -8835,9 +9423,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="33"/>
+      <c r="B277" s="36"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -8852,9 +9440,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="33"/>
+      <c r="B278" s="36"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -8869,9 +9457,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="33"/>
+      <c r="B279" s="36"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8886,9 +9474,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="33"/>
+      <c r="B280" s="36"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8903,9 +9491,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="33"/>
+      <c r="B281" s="36"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8920,9 +9508,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="33"/>
+      <c r="B282" s="36"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8937,9 +9525,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="33"/>
+      <c r="B283" s="36"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8954,9 +9542,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="33"/>
+      <c r="B284" s="36"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8971,9 +9559,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="33"/>
+      <c r="B285" s="36"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8988,9 +9576,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="33"/>
+      <c r="B286" s="36"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -9005,9 +9593,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="33"/>
+      <c r="B287" s="36"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -9022,9 +9610,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="33"/>
+      <c r="B288" s="36"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -9039,9 +9627,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="33"/>
+      <c r="B289" s="36"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -9056,9 +9644,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="33"/>
+      <c r="B290" s="36"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -9073,9 +9661,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="33"/>
+      <c r="B291" s="36"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -9090,9 +9678,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="33"/>
+      <c r="B292" s="36"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -9107,9 +9695,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="33"/>
+      <c r="B293" s="36"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -9124,9 +9712,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="33"/>
+      <c r="B294" s="36"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -9141,9 +9729,9 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="33"/>
+      <c r="B295" s="36"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -9158,9 +9746,9 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="33"/>
+      <c r="B296" s="36"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -9175,9 +9763,9 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="33"/>
+      <c r="B297" s="36"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -9192,9 +9780,9 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="33"/>
+      <c r="B298" s="36"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -9209,9 +9797,9 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="33"/>
+      <c r="B299" s="36"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9226,9 +9814,9 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="33"/>
+      <c r="B300" s="36"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -9244,1014 +9832,1016 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="18"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.63333333333333" style="17"/>
+    <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.725" style="18" customWidth="1"/>
+    <col min="4" max="4" width="35.2666666666667" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.45" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="B1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="23">
         <v>22</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C2" s="25">
         <v>43203</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" ht="14" hidden="1" customHeight="1" spans="1:7">
+      <c r="A3" s="28"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
-        <v>134</v>
+      <c r="D3" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="28"/>
       <c r="B4" s="27" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C4" s="30">
         <v>43246</v>
       </c>
-      <c r="D4" s="111" t="s">
-        <v>168</v>
+      <c r="D4" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="28"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="28"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="28"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="28"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="28"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="28"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="28"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="37"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31"/>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="23"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="28"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="28"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="28"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="28"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="28"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="28"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="28"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="28"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="28"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="28"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="28"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="37"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="28"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="28"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="28"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="28"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="28"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="28"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="28"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
-      <c r="D37" s="28"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="28"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="28"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="28"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="28"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="28"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="28"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="28"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="28"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="28"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="28"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="28"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="37"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+    <row r="47" ht="14.25" spans="1:7">
+      <c r="A47" s="23"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+    <row r="48" ht="14.25" spans="1:7">
+      <c r="A48" s="28"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="28"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:7">
+      <c r="A50" s="28"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="28"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="28"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="28"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="28"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="28"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="28"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
+    <row r="54" spans="1:7">
+      <c r="A54" s="28"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
-      <c r="D54" s="28"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="28"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
-      <c r="D55" s="28"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="28"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="28"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="28"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
-      <c r="D57" s="28"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="37"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="28"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+    <row r="59" ht="14.25" spans="1:7">
+      <c r="A59" s="23"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+    <row r="60" ht="14.25" spans="1:7">
+      <c r="A60" s="28"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" ht="14.25" spans="1:7">
+      <c r="A61" s="28"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:7">
+      <c r="A62" s="28"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="28"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
-      <c r="D63" s="28"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="28"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
-      <c r="D64" s="28"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="28"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="28"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="28"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
-      <c r="D66" s="28"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="28"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
-      <c r="D67" s="28"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="28"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
-      <c r="D68" s="28"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
+    <row r="69" spans="1:7">
+      <c r="A69" s="28"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
-      <c r="D69" s="28"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+    <row r="70" spans="1:7">
+      <c r="A70" s="37"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
-      <c r="D70" s="28"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+    <row r="71" ht="14.25" spans="1:7">
+      <c r="A71" s="28"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:7">
+      <c r="A72" s="28"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
-      <c r="D72" s="31"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="28"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
-      <c r="D73" s="28"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="28"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
-      <c r="D74" s="28"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="28"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
-      <c r="D75" s="28"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="28"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
-      <c r="D76" s="28"/>
+      <c r="D76" s="29"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="28"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
-      <c r="D77" s="28"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="28"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
-      <c r="D78" s="28"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="28"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="28"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="37"/>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
-      <c r="D80" s="28"/>
+      <c r="D80" s="29"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A58"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="A71:A80"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.0916666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.725" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="B1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
         <v>43086</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="13">
         <v>43092</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="13">
         <v>43197</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13">
         <v>43205</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13">
         <v>43211</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13">
         <v>43220</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13">
         <v>43226</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
+      <c r="D8" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F010F8D-0DDD-4B92-9D57-F7F1A298B894}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17F0CCF5-9306-40F6-B3DE-8FCB970F20A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="170">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -397,9 +397,6 @@
     <t>又卷烧饼润辉店</t>
   </si>
   <si>
-    <t>5月15号</t>
-  </si>
-  <si>
     <t>八戒肥肠新亭店</t>
   </si>
   <si>
@@ -560,10 +557,6 @@
   </si>
   <si>
     <t>第22周</t>
-  </si>
-  <si>
-    <t>5月30号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已实施培训</t>
@@ -1617,6 +1610,108 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1625,102 +1720,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,12 +1727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2013,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2381,24 +2374,24 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="94"/>
       <c r="B14" s="70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="57">
         <v>0</v>
       </c>
       <c r="F14" s="58">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="59">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="60">
         <f t="shared" si="2"/>
@@ -2406,7 +2399,7 @@
       </c>
       <c r="I14" s="77">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2433,7 +2426,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
       <c r="D16" s="49"/>
@@ -2456,7 +2449,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="73"/>
       <c r="C17" s="72"/>
       <c r="D17" s="56"/>
@@ -2479,7 +2472,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="73"/>
       <c r="C18" s="72"/>
       <c r="D18" s="56"/>
@@ -2502,7 +2495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="73"/>
       <c r="C19" s="72"/>
       <c r="D19" s="56"/>
@@ -2525,7 +2518,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="73"/>
       <c r="C20" s="72"/>
       <c r="D20" s="56"/>
@@ -2548,7 +2541,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="74"/>
       <c r="C21" s="75"/>
       <c r="D21" s="65"/>
@@ -2571,7 +2564,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
       <c r="D22" s="49"/>
@@ -2594,7 +2587,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="73"/>
       <c r="C23" s="72"/>
       <c r="D23" s="56"/>
@@ -2617,7 +2610,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="73"/>
       <c r="C24" s="72"/>
       <c r="D24" s="56"/>
@@ -2640,7 +2633,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="73"/>
       <c r="C25" s="72"/>
       <c r="D25" s="56"/>
@@ -2663,7 +2656,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="73"/>
       <c r="C26" s="72"/>
       <c r="D26" s="56"/>
@@ -2686,7 +2679,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="74"/>
       <c r="C27" s="75"/>
       <c r="D27" s="65"/>
@@ -2709,7 +2702,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="70"/>
       <c r="C28" s="71"/>
       <c r="D28" s="49"/>
@@ -2732,7 +2725,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="73"/>
       <c r="C29" s="72"/>
       <c r="D29" s="56"/>
@@ -2755,7 +2748,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="73"/>
       <c r="C30" s="72"/>
       <c r="D30" s="56"/>
@@ -2778,7 +2771,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="73"/>
       <c r="C31" s="72"/>
       <c r="D31" s="56"/>
@@ -2801,7 +2794,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="73"/>
       <c r="C32" s="72"/>
       <c r="D32" s="56"/>
@@ -2824,7 +2817,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="74"/>
       <c r="C33" s="75"/>
       <c r="D33" s="65"/>
@@ -2847,7 +2840,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="70"/>
       <c r="C34" s="71"/>
       <c r="D34" s="49"/>
@@ -2870,7 +2863,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="73"/>
       <c r="C35" s="72"/>
       <c r="D35" s="56"/>
@@ -2893,7 +2886,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="73"/>
       <c r="C36" s="72"/>
       <c r="D36" s="56"/>
@@ -2916,7 +2909,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="73"/>
       <c r="C37" s="72"/>
       <c r="D37" s="56"/>
@@ -2939,7 +2932,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="73"/>
       <c r="C38" s="72"/>
       <c r="D38" s="56"/>
@@ -2962,7 +2955,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="74"/>
       <c r="C39" s="75"/>
       <c r="D39" s="65"/>
@@ -2985,7 +2978,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="70"/>
       <c r="C40" s="71"/>
       <c r="D40" s="49"/>
@@ -3008,7 +3001,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="70"/>
       <c r="C41" s="72"/>
       <c r="D41" s="56"/>
@@ -3031,7 +3024,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="70"/>
       <c r="C42" s="72"/>
       <c r="D42" s="56"/>
@@ -3054,7 +3047,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="70"/>
       <c r="C43" s="72"/>
       <c r="D43" s="56"/>
@@ -3077,7 +3070,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="70"/>
       <c r="C44" s="72"/>
       <c r="D44" s="56"/>
@@ -3100,7 +3093,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75"/>
       <c r="D45" s="65"/>
@@ -3124,6 +3117,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3135,11 +3133,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3151,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4396,8 +4389,8 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>116</v>
+      <c r="B27" s="41">
+        <v>43235</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>37</v>
@@ -4415,7 +4408,7 @@
         <v>76159317</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="27" t="s">
         <v>42</v>
@@ -4443,17 +4436,17 @@
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>116</v>
+      <c r="B28" s="41">
+        <v>43235</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>42</v>
@@ -4462,7 +4455,7 @@
         <v>76168257</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>42</v>
@@ -4474,7 +4467,7 @@
         <v>15952077449</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28" s="27" t="s">
         <v>51</v>
@@ -4490,14 +4483,14 @@
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>116</v>
+      <c r="B29" s="41">
+        <v>43235</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>65</v>
@@ -4537,17 +4530,17 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>116</v>
+      <c r="B30" s="41">
+        <v>43235</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>42</v>
@@ -4556,7 +4549,7 @@
         <v>76166316</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" s="27" t="s">
         <v>42</v>
@@ -4568,7 +4561,7 @@
         <v>15952077449</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M30" s="27" t="s">
         <v>51</v>
@@ -4584,26 +4577,26 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>167</v>
+      <c r="B31" s="41">
+        <v>43250</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="F31" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G31" s="27">
         <v>76173398</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>42</v>
@@ -4615,10 +4608,10 @@
         <v>15952077449</v>
       </c>
       <c r="L31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="M31" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>153</v>
       </c>
       <c r="N31" s="27">
         <v>18551177101</v>
@@ -4631,26 +4624,26 @@
       <c r="A32" s="27">
         <v>22</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>167</v>
+      <c r="B32" s="41">
+        <v>43250</v>
       </c>
       <c r="C32" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="E32" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G32" s="27">
         <v>76172532</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I32" s="27" t="s">
         <v>42</v>
@@ -4662,10 +4655,10 @@
         <v>15952077449</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N32" s="27">
         <v>13401911658</v>
@@ -4678,23 +4671,23 @@
       <c r="A33" s="27">
         <v>22</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>167</v>
+      <c r="B33" s="41">
+        <v>43250</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="27">
         <v>76162813</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="27" t="s">
         <v>42</v>
@@ -4706,10 +4699,10 @@
         <v>15952077449</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N33" s="27">
         <v>13305141327</v>
@@ -9265,7 +9258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9288,78 +9281,78 @@
         <v>29</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="110">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
-        <v>22</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="C2" s="25">
         <v>43203</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="30">
         <v>43246</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="29"/>
       <c r="C5" s="32"/>
       <c r="D5" s="31"/>
@@ -9368,7 +9361,7 @@
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="24"/>
       <c r="C6" s="32"/>
       <c r="D6" s="31"/>
@@ -9377,7 +9370,7 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="28"/>
@@ -9386,7 +9379,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28"/>
@@ -9395,7 +9388,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="28"/>
@@ -9404,7 +9397,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
@@ -9413,7 +9406,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="28"/>
@@ -9422,7 +9415,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="1"/>
       <c r="C12" s="33"/>
       <c r="D12" s="28"/>
@@ -9431,7 +9424,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="1"/>
       <c r="C13" s="33"/>
       <c r="D13" s="28"/>
@@ -9440,7 +9433,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="1"/>
       <c r="C14" s="33"/>
       <c r="D14" s="28"/>
@@ -9449,7 +9442,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="1"/>
       <c r="C15" s="33"/>
       <c r="D15" s="28"/>
@@ -9458,7 +9451,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="1"/>
       <c r="C16" s="33"/>
       <c r="D16" s="28"/>
@@ -9467,7 +9460,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="29"/>
       <c r="C17" s="32"/>
       <c r="D17" s="31"/>
@@ -9476,7 +9469,7 @@
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
       <c r="D18" s="31"/>
@@ -9485,7 +9478,7 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="28"/>
@@ -9494,7 +9487,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="28"/>
@@ -9503,7 +9496,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="1"/>
       <c r="C21" s="33"/>
       <c r="D21" s="28"/>
@@ -9512,7 +9505,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="1"/>
       <c r="C22" s="33"/>
       <c r="D22" s="28"/>
@@ -9521,7 +9514,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="1"/>
       <c r="C23" s="33"/>
       <c r="D23" s="28"/>
@@ -9530,7 +9523,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="28"/>
@@ -9539,7 +9532,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
       <c r="D25" s="28"/>
@@ -9548,7 +9541,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="1"/>
       <c r="C26" s="33"/>
       <c r="D26" s="28"/>
@@ -9557,7 +9550,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="1"/>
       <c r="C27" s="33"/>
       <c r="D27" s="28"/>
@@ -9566,7 +9559,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="1"/>
       <c r="C28" s="33"/>
       <c r="D28" s="28"/>
@@ -9575,7 +9568,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="1"/>
       <c r="C29" s="33"/>
       <c r="D29" s="28"/>
@@ -9584,7 +9577,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="1"/>
       <c r="C30" s="33"/>
       <c r="D30" s="28"/>
@@ -9593,7 +9586,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="1"/>
       <c r="C31" s="33"/>
       <c r="D31" s="28"/>
@@ -9602,7 +9595,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="24"/>
       <c r="C32" s="32"/>
       <c r="D32" s="31"/>
@@ -9611,7 +9604,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="31"/>
@@ -9620,7 +9613,7 @@
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="28"/>
@@ -9629,7 +9622,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="28"/>
@@ -9638,7 +9631,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="28"/>
@@ -9647,7 +9640,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="28"/>
@@ -9656,7 +9649,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="28"/>
@@ -9665,7 +9658,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
       <c r="D39" s="28"/>
@@ -9674,7 +9667,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="1"/>
       <c r="C40" s="33"/>
       <c r="D40" s="28"/>
@@ -9683,7 +9676,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="1"/>
       <c r="C41" s="33"/>
       <c r="D41" s="28"/>
@@ -9692,7 +9685,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="1"/>
       <c r="C42" s="33"/>
       <c r="D42" s="28"/>
@@ -9701,7 +9694,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="1"/>
       <c r="C43" s="33"/>
       <c r="D43" s="28"/>
@@ -9710,7 +9703,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="1"/>
       <c r="C44" s="33"/>
       <c r="D44" s="28"/>
@@ -9719,7 +9712,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="1"/>
       <c r="C45" s="33"/>
       <c r="D45" s="28"/>
@@ -9728,7 +9721,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
       <c r="D46" s="28"/>
@@ -9737,7 +9730,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="24"/>
       <c r="C47" s="32"/>
       <c r="D47" s="31"/>
@@ -9746,7 +9739,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="31"/>
@@ -9755,7 +9748,7 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="31"/>
@@ -9764,7 +9757,7 @@
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="31"/>
@@ -9773,7 +9766,7 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="28"/>
@@ -9782,7 +9775,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="28"/>
@@ -9791,7 +9784,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="28"/>
@@ -9800,7 +9793,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
@@ -9809,7 +9802,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="28"/>
@@ -9818,7 +9811,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
@@ -9827,7 +9820,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
@@ -9836,7 +9829,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
       <c r="D58" s="28"/>
@@ -9845,7 +9838,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="24"/>
       <c r="C59" s="32"/>
       <c r="D59" s="31"/>
@@ -9854,7 +9847,7 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+      <c r="A60" s="111"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="31"/>
@@ -9863,7 +9856,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="31"/>
@@ -9872,7 +9865,7 @@
       <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
       <c r="D62" s="31"/>
@@ -9881,7 +9874,7 @@
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
@@ -9890,7 +9883,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
@@ -9899,7 +9892,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
@@ -9908,7 +9901,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="28"/>
@@ -9917,7 +9910,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
       <c r="D67" s="28"/>
@@ -9926,7 +9919,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
       <c r="D68" s="28"/>
@@ -9935,7 +9928,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="28"/>
@@ -9944,7 +9937,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="28"/>
@@ -9953,7 +9946,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="31"/>
@@ -9962,7 +9955,7 @@
       <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
       <c r="D72" s="31"/>
@@ -9971,7 +9964,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="28"/>
@@ -9980,7 +9973,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="28"/>
@@ -9989,7 +9982,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="28"/>
@@ -9998,7 +9991,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="28"/>
@@ -10007,7 +10000,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
       <c r="D77" s="28"/>
@@ -10016,7 +10009,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="28"/>
@@ -10025,7 +10018,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
       <c r="D79" s="28"/>
@@ -10034,7 +10027,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+      <c r="A80" s="112"/>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
       <c r="D80" s="28"/>
@@ -10044,12 +10037,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A16"/>
     <mergeCell ref="A59:A70"/>
     <mergeCell ref="A71:A80"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A58"/>
-    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
@@ -10088,16 +10081,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10111,13 +10104,13 @@
         <v>43086</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10131,13 +10124,13 @@
         <v>43092</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10151,10 +10144,10 @@
         <v>43197</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -10169,13 +10162,13 @@
         <v>43205</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10189,10 +10182,10 @@
         <v>43211</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10206,10 +10199,10 @@
         <v>43220</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10223,10 +10216,10 @@
         <v>43226</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17F0CCF5-9306-40F6-B3DE-8FCB970F20A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A7E8641-D2E0-405E-A1E3-E330716BA831}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="174">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -559,17 +559,35 @@
     <t>第22周</t>
   </si>
   <si>
-    <t>已实施培训</t>
+    <t>06月</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
-    <t>李燕东</t>
+    <t>第23周</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州渔悦酒店管理有限公司</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌蚌鲜虾粥</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兆强</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟店</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>老品牌</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,18 +727,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1349,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,9 +1450,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1610,11 +1619,13 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1668,10 +1679,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1712,14 +1719,6 @@
     <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,6 +1727,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2023,423 +2026,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="100" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="107"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47">
         <v>5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>4</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>2</v>
       </c>
-      <c r="F5" s="51">
-        <f t="shared" ref="F5:F45" si="0">D5+E5</f>
+      <c r="F5" s="50">
+        <f t="shared" ref="F5:F44" si="0">D5+E5</f>
         <v>6</v>
       </c>
-      <c r="G5" s="52">
-        <f t="shared" ref="G5:G45" si="1">C5-F5</f>
+      <c r="G5" s="51">
+        <f t="shared" ref="G5:G44" si="1">C5-F5</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="53">
-        <f t="shared" ref="H5:H45" si="2">E5/F5</f>
+      <c r="H5" s="52">
+        <f t="shared" ref="H5:H44" si="2">E5/F5</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I5" s="76">
-        <f t="shared" ref="I5:I45" si="3">F5/C5</f>
+      <c r="I5" s="75">
+        <f t="shared" ref="I5:I44" si="3">F5/C5</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
         <v>5</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>4</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <v>1</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54">
         <v>4</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="55">
         <v>4</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>2</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="58">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="76">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54">
         <v>0</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <v>3</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>2</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="58">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="I8" s="77" t="e">
+      <c r="I8" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64">
+      <c r="B9" s="62"/>
+      <c r="C9" s="63">
         <v>9</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <v>7</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="65">
         <v>2</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="66">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="68">
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="70">
         <v>0</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>0</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>0</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="53" t="e">
+      <c r="H10" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="76" t="e">
+      <c r="I10" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>1</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="55">
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <v>0</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="60" t="e">
+      <c r="H11" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="71">
         <v>1</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <v>4</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>0</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="58">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="76">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <v>0</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="55">
         <v>0</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="56">
         <v>0</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="60" t="e">
+      <c r="H13" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="77" t="e">
+      <c r="I13" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="93"/>
+      <c r="B14" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <v>3</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="55">
         <v>3</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="56">
         <v>0</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67">
+      <c r="A15" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="70">
+        <v>1</v>
+      </c>
+      <c r="D15" s="48">
+        <v>1</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="78"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G16" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="69" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="78" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="53" t="e">
+      <c r="H16" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2449,89 +2462,89 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58">
+      <c r="A17" s="78"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="60" t="e">
+      <c r="H17" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="77" t="e">
+      <c r="I17" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58">
+      <c r="A18" s="78"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="60" t="e">
+      <c r="H18" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="77" t="e">
+      <c r="I18" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58">
+      <c r="A19" s="78"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="60" t="e">
+      <c r="H19" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="77" t="e">
+      <c r="I19" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="73"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58">
+      <c r="C20" s="74"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="60" t="e">
+      <c r="H20" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2541,43 +2554,43 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67">
+      <c r="A21" s="78"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="69" t="e">
+      <c r="H21" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="78" t="e">
+      <c r="I21" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="71"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="53" t="e">
+      <c r="H22" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2587,89 +2600,89 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58">
+      <c r="A23" s="78"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="60" t="e">
+      <c r="H23" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="77" t="e">
+      <c r="I23" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58">
+      <c r="A24" s="78"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="60" t="e">
+      <c r="H24" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="77" t="e">
+      <c r="I24" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+      <c r="A25" s="78"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="60" t="e">
+      <c r="H25" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="77" t="e">
+      <c r="I25" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="73"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58">
+      <c r="C26" s="74"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="60" t="e">
+      <c r="H26" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2679,43 +2692,43 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67">
+      <c r="A27" s="78"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="69" t="e">
+      <c r="H27" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="78" t="e">
+      <c r="I27" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="71"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51">
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="53" t="e">
+      <c r="H28" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2725,89 +2738,89 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58">
+      <c r="A29" s="78"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="60" t="e">
+      <c r="H29" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="77" t="e">
+      <c r="I29" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58">
+      <c r="A30" s="78"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="60" t="e">
+      <c r="H30" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="77" t="e">
+      <c r="I30" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58">
+      <c r="A31" s="78"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="60" t="e">
+      <c r="H31" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="77" t="e">
+      <c r="I31" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="73"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58">
+      <c r="C32" s="74"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="60" t="e">
+      <c r="H32" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2817,43 +2830,43 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67">
+      <c r="A33" s="78"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="69" t="e">
+      <c r="H33" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="78" t="e">
+      <c r="I33" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="70"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="71"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51">
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="53" t="e">
+      <c r="H34" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2863,89 +2876,89 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58">
+      <c r="A35" s="78"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="60" t="e">
+      <c r="H35" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="77" t="e">
+      <c r="I35" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58">
+      <c r="A36" s="78"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="60" t="e">
+      <c r="H36" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="77" t="e">
+      <c r="I36" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58">
+      <c r="A37" s="78"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="60" t="e">
+      <c r="H37" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="77" t="e">
+      <c r="I37" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="73"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58">
+      <c r="C38" s="74"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="60" t="e">
+      <c r="H38" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2955,43 +2968,43 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67">
+      <c r="A39" s="78"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="69" t="e">
+      <c r="H39" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="78" t="e">
+      <c r="I39" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="70"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="71"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51">
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="53" t="e">
+      <c r="H40" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3001,89 +3014,89 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58">
+      <c r="A41" s="78"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="60" t="e">
+      <c r="H41" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="77" t="e">
+      <c r="I41" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58">
+      <c r="A42" s="78"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="60" t="e">
+      <c r="H42" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="77" t="e">
+      <c r="I42" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58">
+      <c r="A43" s="78"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="59">
+      <c r="G43" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="60" t="e">
+      <c r="H43" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="77" t="e">
+      <c r="I43" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58">
+      <c r="A44" s="79"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="60" t="e">
+      <c r="H44" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3092,47 +3105,24 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="69" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="78" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3144,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3163,50 +3153,50 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3214,7 +3204,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>43102</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -3229,7 +3219,7 @@
       <c r="F2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <v>76119980</v>
       </c>
       <c r="H2" s="27" t="s">
@@ -3261,7 +3251,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>43103</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -3276,7 +3266,7 @@
       <c r="F3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>76120617</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -3297,7 +3287,7 @@
       <c r="M3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="38">
         <v>15651615666</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3308,7 +3298,7 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>43124</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -3323,7 +3313,7 @@
       <c r="F4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <v>76125705</v>
       </c>
       <c r="H4" s="27" t="s">
@@ -3355,7 +3345,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>43129</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -3402,7 +3392,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>43130</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -3449,7 +3439,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>43132</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -3496,7 +3486,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>43133</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -3543,7 +3533,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>43140</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -3590,7 +3580,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>43144</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -3637,7 +3627,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>43157</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -3673,7 +3663,7 @@
       <c r="M11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N11" s="42" t="s">
         <v>79</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -3684,7 +3674,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>43158</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -3720,7 +3710,7 @@
       <c r="M12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="42">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -3731,7 +3721,7 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>43183</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -3778,7 +3768,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>43183</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -3825,7 +3815,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>43184</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -3872,7 +3862,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>43185</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -3919,7 +3909,7 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>43186</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -3966,7 +3956,7 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>43197</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -4013,7 +4003,7 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4060,7 +4050,7 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>43207</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -4107,7 +4097,7 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>43207</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -4154,7 +4144,7 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>43220</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -4201,7 +4191,7 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>43220</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -4248,7 +4238,7 @@
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>43220</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -4295,7 +4285,7 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>43220</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -4342,7 +4332,7 @@
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>43220</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -4360,7 +4350,7 @@
       <c r="G26" s="1">
         <v>76119975</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="39" t="s">
         <v>115</v>
       </c>
       <c r="I26" s="27" t="s">
@@ -4389,7 +4379,7 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <v>43235</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -4407,7 +4397,7 @@
       <c r="G27" s="27">
         <v>76159317</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="39" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="27" t="s">
@@ -4436,7 +4426,7 @@
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>43235</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -4454,7 +4444,7 @@
       <c r="G28" s="27">
         <v>76168257</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="39" t="s">
         <v>118</v>
       </c>
       <c r="I28" s="27" t="s">
@@ -4483,7 +4473,7 @@
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="40">
         <v>43235</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -4501,7 +4491,7 @@
       <c r="G29" s="27">
         <v>76166928</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="I29" s="27" t="s">
@@ -4530,7 +4520,7 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="40">
         <v>43235</v>
       </c>
       <c r="C30" s="27" t="s">
@@ -4548,7 +4538,7 @@
       <c r="G30" s="27">
         <v>76166316</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="39" t="s">
         <v>121</v>
       </c>
       <c r="I30" s="27" t="s">
@@ -4577,7 +4567,7 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <v>43250</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -4624,7 +4614,7 @@
       <c r="A32" s="27">
         <v>22</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="40">
         <v>43250</v>
       </c>
       <c r="C32" s="27" t="s">
@@ -4671,7 +4661,7 @@
       <c r="A33" s="27">
         <v>22</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="40">
         <v>43250</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -4712,11 +4702,55 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+      <c r="A34" s="27">
+        <v>23</v>
+      </c>
+      <c r="B34" s="27">
+        <v>43257</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="27">
+        <v>76168326</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="27">
+        <v>15613108207</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4733,7 +4767,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="33"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4750,7 +4784,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="33"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4767,7 +4801,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="33"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4784,7 +4818,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="33"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4801,7 +4835,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4818,7 +4852,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4835,7 +4869,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="33"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4852,7 +4886,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="33"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4869,7 +4903,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="33"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4886,7 +4920,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="33"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4903,7 +4937,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="33"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4920,7 +4954,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="33"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4937,7 +4971,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="33"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4954,7 +4988,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="33"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4971,7 +5005,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="33"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4988,7 +5022,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="33"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5005,7 +5039,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="33"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5022,7 +5056,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="33"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5039,7 +5073,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="33"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5056,7 +5090,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="33"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5073,7 +5107,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="33"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5090,7 +5124,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="33"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5107,7 +5141,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="33"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5124,7 +5158,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="33"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5141,7 +5175,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="33"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5158,7 +5192,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="33"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5175,7 +5209,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="33"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5192,7 +5226,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="33"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5209,7 +5243,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="33"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5226,7 +5260,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="33"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5243,7 +5277,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="33"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5260,7 +5294,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="33"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5277,7 +5311,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="33"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5294,7 +5328,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="33"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5311,7 +5345,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5328,7 +5362,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5345,7 +5379,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5362,7 +5396,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5379,7 +5413,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5396,7 +5430,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5413,7 +5447,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5430,7 +5464,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5447,7 +5481,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5464,7 +5498,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="33"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5481,7 +5515,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="33"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5498,7 +5532,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="33"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5515,7 +5549,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="33"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5532,7 +5566,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="33"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5549,7 +5583,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="33"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5566,7 +5600,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="33"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5583,7 +5617,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="33"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5600,7 +5634,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="33"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5617,7 +5651,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="33"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5634,7 +5668,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="33"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5651,7 +5685,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="33"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5668,7 +5702,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="33"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5685,7 +5719,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="33"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5702,7 +5736,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="33"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5719,7 +5753,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="33"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5736,7 +5770,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="33"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5753,7 +5787,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="33"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5770,7 +5804,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="33"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5787,7 +5821,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="33"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5804,7 +5838,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="33"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5821,7 +5855,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="33"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5838,7 +5872,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="33"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5855,7 +5889,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="33"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5872,7 +5906,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="33"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5889,7 +5923,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="33"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -5906,7 +5940,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="33"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5923,7 +5957,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="33"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5940,7 +5974,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="33"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5957,7 +5991,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="33"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5974,7 +6008,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="33"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5991,7 +6025,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="33"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6008,7 +6042,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="33"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6025,7 +6059,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="33"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6042,7 +6076,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="33"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6059,7 +6093,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="33"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6076,7 +6110,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="33"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6093,7 +6127,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="33"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6110,7 +6144,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="33"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6127,7 +6161,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="33"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6144,7 +6178,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="33"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6161,7 +6195,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="33"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6178,7 +6212,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="33"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -6195,7 +6229,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="33"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -6212,7 +6246,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="33"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -6229,7 +6263,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="33"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -6246,7 +6280,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="33"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -6263,7 +6297,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="33"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -6280,7 +6314,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="33"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -6297,7 +6331,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="33"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6314,7 +6348,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="33"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6331,7 +6365,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="33"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6348,7 +6382,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="33"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -6365,7 +6399,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="33"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -6382,7 +6416,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="33"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -6399,7 +6433,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="33"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6416,7 +6450,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="33"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6433,7 +6467,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="33"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6450,7 +6484,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="33"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6467,7 +6501,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="33"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6484,7 +6518,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="33"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6501,7 +6535,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="33"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6518,7 +6552,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="33"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6535,7 +6569,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="33"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6552,7 +6586,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="33"/>
+      <c r="B143" s="32"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6569,7 +6603,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="33"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6586,7 +6620,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="33"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6603,7 +6637,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="33"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6620,7 +6654,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="33"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6637,7 +6671,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="33"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6654,7 +6688,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="33"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6671,7 +6705,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="33"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6688,7 +6722,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="33"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6705,7 +6739,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="33"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6722,7 +6756,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="33"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6739,7 +6773,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="33"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6756,7 +6790,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="33"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6773,7 +6807,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="33"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -6790,7 +6824,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="33"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -6807,7 +6841,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="33"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -6824,7 +6858,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="33"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -6841,7 +6875,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="33"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -6858,7 +6892,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="33"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6875,7 +6909,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="33"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6892,7 +6926,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="33"/>
+      <c r="B163" s="32"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6909,7 +6943,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="33"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6926,7 +6960,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="33"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -6943,7 +6977,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="33"/>
+      <c r="B166" s="32"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -6960,7 +6994,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="33"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -6977,7 +7011,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="33"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -6994,7 +7028,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="33"/>
+      <c r="B169" s="32"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -7011,7 +7045,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="33"/>
+      <c r="B170" s="32"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -7028,7 +7062,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="33"/>
+      <c r="B171" s="32"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7045,7 +7079,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="33"/>
+      <c r="B172" s="32"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7062,7 +7096,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="33"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7079,7 +7113,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="33"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7096,7 +7130,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="33"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7113,7 +7147,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="33"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -7130,7 +7164,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="33"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -7147,7 +7181,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="33"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7164,7 +7198,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="33"/>
+      <c r="B179" s="32"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7181,7 +7215,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="33"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -7198,7 +7232,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="33"/>
+      <c r="B181" s="32"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7215,7 +7249,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="33"/>
+      <c r="B182" s="32"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7232,7 +7266,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="33"/>
+      <c r="B183" s="32"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7249,7 +7283,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="33"/>
+      <c r="B184" s="32"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7266,7 +7300,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="33"/>
+      <c r="B185" s="32"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7283,7 +7317,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="33"/>
+      <c r="B186" s="32"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7300,7 +7334,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="33"/>
+      <c r="B187" s="32"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7317,7 +7351,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="33"/>
+      <c r="B188" s="32"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7334,7 +7368,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="33"/>
+      <c r="B189" s="32"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -7351,7 +7385,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="33"/>
+      <c r="B190" s="32"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7368,7 +7402,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="33"/>
+      <c r="B191" s="32"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7385,7 +7419,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="33"/>
+      <c r="B192" s="32"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7402,7 +7436,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="33"/>
+      <c r="B193" s="32"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7419,7 +7453,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="33"/>
+      <c r="B194" s="32"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7436,7 +7470,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="33"/>
+      <c r="B195" s="32"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -7453,7 +7487,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="33"/>
+      <c r="B196" s="32"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -7470,7 +7504,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="33"/>
+      <c r="B197" s="32"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -7487,7 +7521,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="33"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -7504,7 +7538,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="33"/>
+      <c r="B199" s="32"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -7521,7 +7555,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="33"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -7538,7 +7572,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="33"/>
+      <c r="B201" s="32"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -7555,7 +7589,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="33"/>
+      <c r="B202" s="32"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -7572,7 +7606,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="33"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -7589,7 +7623,7 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="33"/>
+      <c r="B204" s="32"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -7606,7 +7640,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="33"/>
+      <c r="B205" s="32"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -7623,7 +7657,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="33"/>
+      <c r="B206" s="32"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -7640,7 +7674,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="33"/>
+      <c r="B207" s="32"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -7657,7 +7691,7 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="33"/>
+      <c r="B208" s="32"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -7674,7 +7708,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="33"/>
+      <c r="B209" s="32"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -7691,7 +7725,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="33"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -7708,7 +7742,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="33"/>
+      <c r="B211" s="32"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -7725,7 +7759,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="33"/>
+      <c r="B212" s="32"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -7742,7 +7776,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="33"/>
+      <c r="B213" s="32"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -7759,7 +7793,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="33"/>
+      <c r="B214" s="32"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -7776,7 +7810,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="33"/>
+      <c r="B215" s="32"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -7793,7 +7827,7 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="33"/>
+      <c r="B216" s="32"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -7810,7 +7844,7 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="33"/>
+      <c r="B217" s="32"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -7827,7 +7861,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="33"/>
+      <c r="B218" s="32"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -7844,7 +7878,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="33"/>
+      <c r="B219" s="32"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -7861,7 +7895,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="33"/>
+      <c r="B220" s="32"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -7878,7 +7912,7 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="33"/>
+      <c r="B221" s="32"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -7895,7 +7929,7 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="33"/>
+      <c r="B222" s="32"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -7912,7 +7946,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="33"/>
+      <c r="B223" s="32"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7929,7 +7963,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="33"/>
+      <c r="B224" s="32"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7946,7 +7980,7 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="33"/>
+      <c r="B225" s="32"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7963,7 +7997,7 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="33"/>
+      <c r="B226" s="32"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7980,7 +8014,7 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="33"/>
+      <c r="B227" s="32"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7997,7 +8031,7 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="33"/>
+      <c r="B228" s="32"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -8014,7 +8048,7 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="33"/>
+      <c r="B229" s="32"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -8031,7 +8065,7 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="33"/>
+      <c r="B230" s="32"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -8048,7 +8082,7 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="33"/>
+      <c r="B231" s="32"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -8065,7 +8099,7 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="33"/>
+      <c r="B232" s="32"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -8082,7 +8116,7 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="33"/>
+      <c r="B233" s="32"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -8099,7 +8133,7 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="33"/>
+      <c r="B234" s="32"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -8116,7 +8150,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="33"/>
+      <c r="B235" s="32"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -8133,7 +8167,7 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="33"/>
+      <c r="B236" s="32"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -8150,7 +8184,7 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="33"/>
+      <c r="B237" s="32"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -8167,7 +8201,7 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="33"/>
+      <c r="B238" s="32"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -8184,7 +8218,7 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="33"/>
+      <c r="B239" s="32"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -8201,7 +8235,7 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="33"/>
+      <c r="B240" s="32"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -8218,7 +8252,7 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="33"/>
+      <c r="B241" s="32"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -8235,7 +8269,7 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="33"/>
+      <c r="B242" s="32"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -8252,7 +8286,7 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="33"/>
+      <c r="B243" s="32"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -8269,7 +8303,7 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="33"/>
+      <c r="B244" s="32"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -8286,7 +8320,7 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="33"/>
+      <c r="B245" s="32"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -8303,7 +8337,7 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="33"/>
+      <c r="B246" s="32"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -8320,7 +8354,7 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="33"/>
+      <c r="B247" s="32"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -8337,7 +8371,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="33"/>
+      <c r="B248" s="32"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -8354,7 +8388,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="33"/>
+      <c r="B249" s="32"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -8371,7 +8405,7 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="33"/>
+      <c r="B250" s="32"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -8388,7 +8422,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="33"/>
+      <c r="B251" s="32"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -8405,7 +8439,7 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="33"/>
+      <c r="B252" s="32"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -8422,7 +8456,7 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="33"/>
+      <c r="B253" s="32"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -8439,7 +8473,7 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="33"/>
+      <c r="B254" s="32"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -8456,7 +8490,7 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="33"/>
+      <c r="B255" s="32"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -8473,7 +8507,7 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="33"/>
+      <c r="B256" s="32"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -8490,7 +8524,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="33"/>
+      <c r="B257" s="32"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -8507,7 +8541,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="33"/>
+      <c r="B258" s="32"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -8524,7 +8558,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="33"/>
+      <c r="B259" s="32"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8541,7 +8575,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="33"/>
+      <c r="B260" s="32"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8558,7 +8592,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="33"/>
+      <c r="B261" s="32"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -8575,7 +8609,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="33"/>
+      <c r="B262" s="32"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -8592,7 +8626,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="33"/>
+      <c r="B263" s="32"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -8609,7 +8643,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="33"/>
+      <c r="B264" s="32"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -8626,7 +8660,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="33"/>
+      <c r="B265" s="32"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -8643,7 +8677,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="33"/>
+      <c r="B266" s="32"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -8660,7 +8694,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="33"/>
+      <c r="B267" s="32"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -8677,7 +8711,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="33"/>
+      <c r="B268" s="32"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -8694,7 +8728,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="33"/>
+      <c r="B269" s="32"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -8711,7 +8745,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="33"/>
+      <c r="B270" s="32"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -8728,7 +8762,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="33"/>
+      <c r="B271" s="32"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -8745,7 +8779,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="33"/>
+      <c r="B272" s="32"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -8762,7 +8796,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="33"/>
+      <c r="B273" s="32"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -8779,7 +8813,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
-      <c r="B274" s="33"/>
+      <c r="B274" s="32"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -8796,7 +8830,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
-      <c r="B275" s="33"/>
+      <c r="B275" s="32"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -8813,7 +8847,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
-      <c r="B276" s="33"/>
+      <c r="B276" s="32"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -8830,7 +8864,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
-      <c r="B277" s="33"/>
+      <c r="B277" s="32"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -8847,7 +8881,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
-      <c r="B278" s="33"/>
+      <c r="B278" s="32"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -8864,7 +8898,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
-      <c r="B279" s="33"/>
+      <c r="B279" s="32"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8881,7 +8915,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
-      <c r="B280" s="33"/>
+      <c r="B280" s="32"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8898,7 +8932,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
-      <c r="B281" s="33"/>
+      <c r="B281" s="32"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8915,7 +8949,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
-      <c r="B282" s="33"/>
+      <c r="B282" s="32"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8932,7 +8966,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
-      <c r="B283" s="33"/>
+      <c r="B283" s="32"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8949,7 +8983,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
-      <c r="B284" s="33"/>
+      <c r="B284" s="32"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8966,7 +9000,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
-      <c r="B285" s="33"/>
+      <c r="B285" s="32"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8983,7 +9017,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="B286" s="33"/>
+      <c r="B286" s="32"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -9000,7 +9034,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
-      <c r="B287" s="33"/>
+      <c r="B287" s="32"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -9017,7 +9051,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
-      <c r="B288" s="33"/>
+      <c r="B288" s="32"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -9034,7 +9068,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-      <c r="B289" s="33"/>
+      <c r="B289" s="32"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -9051,7 +9085,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
-      <c r="B290" s="33"/>
+      <c r="B290" s="32"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -9068,7 +9102,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
-      <c r="B291" s="33"/>
+      <c r="B291" s="32"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -9085,7 +9119,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
-      <c r="B292" s="33"/>
+      <c r="B292" s="32"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -9102,7 +9136,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
-      <c r="B293" s="33"/>
+      <c r="B293" s="32"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -9119,7 +9153,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
-      <c r="B294" s="33"/>
+      <c r="B294" s="32"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -9136,7 +9170,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
-      <c r="B295" s="33"/>
+      <c r="B295" s="32"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -9153,7 +9187,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
-      <c r="B296" s="33"/>
+      <c r="B296" s="32"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -9170,7 +9204,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
-      <c r="B297" s="33"/>
+      <c r="B297" s="32"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -9187,7 +9221,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
-      <c r="B298" s="33"/>
+      <c r="B298" s="32"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -9204,7 +9238,7 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="B299" s="33"/>
+      <c r="B299" s="32"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9221,7 +9255,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
-      <c r="B300" s="33"/>
+      <c r="B300" s="32"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -9256,10 +9290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9297,8 +9331,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="110">
-        <v>22</v>
+      <c r="A2" s="106">
+        <v>23</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>128</v>
@@ -9320,7 +9354,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="28" t="s">
@@ -9331,46 +9365,34 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="30">
-        <v>43246</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>169</v>
-      </c>
+      <c r="A4" s="107"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="28"/>
@@ -9379,7 +9401,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28"/>
@@ -9388,7 +9410,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="28"/>
@@ -9397,7 +9419,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
@@ -9406,79 +9428,79 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="28"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="28"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="33"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="28"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="28"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="28"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="28"/>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="28"/>
@@ -9487,43 +9509,43 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="28"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="28"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="28"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="28"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="28"/>
@@ -9532,88 +9554,88 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="28"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="33"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="28"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="33"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="28"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="28"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="28"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="28"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="28"/>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="106"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="107"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="28"/>
@@ -9622,7 +9644,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="28"/>
@@ -9631,7 +9653,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="28"/>
@@ -9640,7 +9662,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="111"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="28"/>
@@ -9649,7 +9671,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="28"/>
@@ -9658,115 +9680,115 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="28"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="33"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="28"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="28"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="111"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="28"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="28"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="111"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="28"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="33"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="28"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="106"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="24"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="111"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="111"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="107"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="13"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="28"/>
@@ -9775,7 +9797,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
+      <c r="A52" s="107"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="28"/>
@@ -9784,7 +9806,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="28"/>
@@ -9793,7 +9815,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
+      <c r="A54" s="107"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
@@ -9802,7 +9824,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
+      <c r="A55" s="107"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="28"/>
@@ -9811,7 +9833,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="111"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
@@ -9820,7 +9842,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
@@ -9828,53 +9850,53 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
+      <c r="A59" s="107"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="24"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="111"/>
+      <c r="A60" s="107"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="111"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="107"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="111"/>
+      <c r="A63" s="107"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
@@ -9883,7 +9905,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="111"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
@@ -9892,7 +9914,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
@@ -9901,7 +9923,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="111"/>
+      <c r="A66" s="107"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="28"/>
@@ -9910,7 +9932,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
+      <c r="A67" s="107"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
       <c r="D67" s="28"/>
@@ -9919,7 +9941,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="111"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
       <c r="D68" s="28"/>
@@ -9928,7 +9950,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="111"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="28"/>
@@ -9936,35 +9958,35 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="107"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
-      <c r="D70" s="28"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="111"/>
+      <c r="A71" s="107"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="107"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
-      <c r="D72" s="31"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="28"/>
@@ -9973,7 +9995,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
+      <c r="A74" s="107"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="28"/>
@@ -9982,7 +10004,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="28"/>
@@ -9991,7 +10013,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="28"/>
@@ -10000,7 +10022,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="111"/>
+      <c r="A77" s="107"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
       <c r="D77" s="28"/>
@@ -10009,7 +10031,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="111"/>
+      <c r="A78" s="107"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="28"/>
@@ -10018,7 +10040,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="111"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
       <c r="D79" s="28"/>
@@ -10026,23 +10048,14 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="112"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A46:A57"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A7E8641-D2E0-405E-A1E3-E330716BA831}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26594FF1-DFB3-4D6C-A8CB-3BD13163A430}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -552,10 +552,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>蚌蚌鲜虾粥南京大洋百货店</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>第22周</t>
   </si>
   <si>
@@ -564,30 +560,6 @@
   </si>
   <si>
     <t>第23周</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐州渔悦酒店管理有限公司</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌蚌鲜虾粥</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>方兆强</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟店</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>老品牌</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1619,6 +1591,102 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1627,98 +1695,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,10 +1703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2026,72 +1998,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="105"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2249,7 +2221,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="69" t="s">
@@ -2282,7 +2254,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
@@ -2313,7 +2285,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2316,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
@@ -2375,9 +2347,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="71">
         <v>3</v>
@@ -2406,40 +2378,40 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>166</v>
-      </c>
-      <c r="B15" s="109" t="s">
-        <v>167</v>
       </c>
       <c r="C15" s="70">
         <v>1</v>
       </c>
       <c r="D15" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="49">
         <v>0</v>
       </c>
       <c r="F15" s="50">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="52">
+        <v>1</v>
+      </c>
+      <c r="H15" s="52" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="72"/>
       <c r="C16" s="71"/>
       <c r="D16" s="55"/>
@@ -2462,7 +2434,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="72"/>
       <c r="C17" s="71"/>
       <c r="D17" s="55"/>
@@ -2485,7 +2457,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="72"/>
       <c r="C18" s="71"/>
       <c r="D18" s="55"/>
@@ -2508,7 +2480,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="72"/>
       <c r="C19" s="71"/>
       <c r="D19" s="55"/>
@@ -2531,7 +2503,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="73"/>
       <c r="C20" s="74"/>
       <c r="D20" s="64"/>
@@ -2554,7 +2526,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="48"/>
@@ -2577,7 +2549,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="72"/>
       <c r="C22" s="71"/>
       <c r="D22" s="55"/>
@@ -2600,7 +2572,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="72"/>
       <c r="C23" s="71"/>
       <c r="D23" s="55"/>
@@ -2623,7 +2595,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="72"/>
       <c r="C24" s="71"/>
       <c r="D24" s="55"/>
@@ -2646,7 +2618,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="72"/>
       <c r="C25" s="71"/>
       <c r="D25" s="55"/>
@@ -2669,7 +2641,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="64"/>
@@ -2692,7 +2664,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="48"/>
@@ -2715,7 +2687,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="72"/>
       <c r="C28" s="71"/>
       <c r="D28" s="55"/>
@@ -2738,7 +2710,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="72"/>
       <c r="C29" s="71"/>
       <c r="D29" s="55"/>
@@ -2761,7 +2733,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="72"/>
       <c r="C30" s="71"/>
       <c r="D30" s="55"/>
@@ -2784,7 +2756,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="72"/>
       <c r="C31" s="71"/>
       <c r="D31" s="55"/>
@@ -2807,7 +2779,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
       <c r="D32" s="64"/>
@@ -2830,7 +2802,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="48"/>
@@ -2853,7 +2825,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="72"/>
       <c r="C34" s="71"/>
       <c r="D34" s="55"/>
@@ -2876,7 +2848,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="72"/>
       <c r="C35" s="71"/>
       <c r="D35" s="55"/>
@@ -2899,7 +2871,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="72"/>
       <c r="C36" s="71"/>
       <c r="D36" s="55"/>
@@ -2922,7 +2894,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="72"/>
       <c r="C37" s="71"/>
       <c r="D37" s="55"/>
@@ -2945,7 +2917,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="64"/>
@@ -2968,7 +2940,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="48"/>
@@ -2991,7 +2963,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="55"/>
@@ -3014,7 +2986,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="55"/>
@@ -3037,7 +3009,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="55"/>
@@ -3060,7 +3032,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="55"/>
@@ -3083,7 +3055,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
       <c r="D44" s="64"/>
@@ -3107,6 +3079,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3118,11 +3095,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3132,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4701,52 +4673,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>23</v>
-      </c>
-      <c r="B34" s="27">
-        <v>43257</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" s="27">
-        <v>76168326</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K34" s="27">
-        <v>15952077449</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" s="27">
-        <v>15613108207</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>173</v>
-      </c>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -9252,23 +9194,6 @@
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="32"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -9331,7 +9256,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="106">
+      <c r="A2" s="107">
         <v>23</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -9354,7 +9279,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="28" t="s">
@@ -9365,7 +9290,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="30"/>
@@ -9374,7 +9299,7 @@
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="24"/>
       <c r="C5" s="31"/>
       <c r="D5" s="30"/>
@@ -9383,7 +9308,7 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="28"/>
@@ -9392,7 +9317,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="28"/>
@@ -9401,7 +9326,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28"/>
@@ -9410,7 +9335,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="28"/>
@@ -9419,7 +9344,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
@@ -9428,7 +9353,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="1"/>
       <c r="C11" s="32"/>
       <c r="D11" s="28"/>
@@ -9437,7 +9362,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="1"/>
       <c r="C12" s="32"/>
       <c r="D12" s="28"/>
@@ -9446,7 +9371,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="1"/>
       <c r="C13" s="32"/>
       <c r="D13" s="28"/>
@@ -9455,7 +9380,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="1"/>
       <c r="C14" s="32"/>
       <c r="D14" s="28"/>
@@ -9464,7 +9389,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="1"/>
       <c r="C15" s="32"/>
       <c r="D15" s="28"/>
@@ -9473,7 +9398,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="29"/>
       <c r="C16" s="31"/>
       <c r="D16" s="30"/>
@@ -9482,7 +9407,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="24"/>
       <c r="C17" s="31"/>
       <c r="D17" s="30"/>
@@ -9491,7 +9416,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="28"/>
@@ -9500,7 +9425,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="28"/>
@@ -9509,7 +9434,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="1"/>
       <c r="C20" s="32"/>
       <c r="D20" s="28"/>
@@ -9518,7 +9443,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="1"/>
       <c r="C21" s="32"/>
       <c r="D21" s="28"/>
@@ -9527,7 +9452,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="1"/>
       <c r="C22" s="32"/>
       <c r="D22" s="28"/>
@@ -9536,7 +9461,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="28"/>
@@ -9545,7 +9470,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="28"/>
@@ -9554,7 +9479,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="1"/>
       <c r="C25" s="32"/>
       <c r="D25" s="28"/>
@@ -9563,7 +9488,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="1"/>
       <c r="C26" s="32"/>
       <c r="D26" s="28"/>
@@ -9572,7 +9497,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="1"/>
       <c r="C27" s="32"/>
       <c r="D27" s="28"/>
@@ -9581,7 +9506,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="1"/>
       <c r="C28" s="32"/>
       <c r="D28" s="28"/>
@@ -9590,7 +9515,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="1"/>
       <c r="C29" s="32"/>
       <c r="D29" s="28"/>
@@ -9599,7 +9524,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="1"/>
       <c r="C30" s="32"/>
       <c r="D30" s="28"/>
@@ -9608,7 +9533,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="24"/>
       <c r="C31" s="31"/>
       <c r="D31" s="30"/>
@@ -9617,7 +9542,7 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="30"/>
@@ -9626,7 +9551,7 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -9635,7 +9560,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="28"/>
@@ -9644,7 +9569,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="28"/>
@@ -9653,7 +9578,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="28"/>
@@ -9662,7 +9587,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="28"/>
@@ -9671,7 +9596,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="28"/>
@@ -9680,7 +9605,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="1"/>
       <c r="C39" s="32"/>
       <c r="D39" s="28"/>
@@ -9689,7 +9614,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="1"/>
       <c r="C40" s="32"/>
       <c r="D40" s="28"/>
@@ -9698,7 +9623,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="1"/>
       <c r="C41" s="32"/>
       <c r="D41" s="28"/>
@@ -9707,7 +9632,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="1"/>
       <c r="C42" s="32"/>
       <c r="D42" s="28"/>
@@ -9716,7 +9641,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="1"/>
       <c r="C43" s="32"/>
       <c r="D43" s="28"/>
@@ -9725,7 +9650,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="1"/>
       <c r="C44" s="32"/>
       <c r="D44" s="28"/>
@@ -9734,7 +9659,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
       <c r="D45" s="28"/>
@@ -9743,7 +9668,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="24"/>
       <c r="C46" s="31"/>
       <c r="D46" s="30"/>
@@ -9752,7 +9677,7 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="30"/>
@@ -9761,7 +9686,7 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="30"/>
@@ -9770,7 +9695,7 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="107"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="30"/>
@@ -9779,7 +9704,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="28"/>
@@ -9788,7 +9713,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="107"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="28"/>
@@ -9797,7 +9722,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="28"/>
@@ -9806,7 +9731,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="107"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="28"/>
@@ -9815,7 +9740,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="107"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
@@ -9824,7 +9749,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="28"/>
@@ -9833,7 +9758,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
@@ -9842,7 +9767,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+      <c r="A57" s="109"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
@@ -9851,7 +9776,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="106"/>
+      <c r="A58" s="107"/>
       <c r="B58" s="24"/>
       <c r="C58" s="31"/>
       <c r="D58" s="30"/>
@@ -9860,7 +9785,7 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
       <c r="D59" s="30"/>
@@ -9869,7 +9794,7 @@
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="30"/>
@@ -9878,7 +9803,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="30"/>
@@ -9887,7 +9812,7 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="107"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
       <c r="D62" s="28"/>
@@ -9896,7 +9821,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="107"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
@@ -9905,7 +9830,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
@@ -9914,7 +9839,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="107"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
@@ -9923,7 +9848,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="28"/>
@@ -9932,7 +9857,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
       <c r="D67" s="28"/>
@@ -9941,7 +9866,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
       <c r="D68" s="28"/>
@@ -9950,7 +9875,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="28"/>
@@ -9959,7 +9884,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="30"/>
@@ -9968,7 +9893,7 @@
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="107"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="30"/>
@@ -9977,7 +9902,7 @@
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="107"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
       <c r="D72" s="28"/>
@@ -9986,7 +9911,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="107"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="28"/>
@@ -9995,7 +9920,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="107"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="28"/>
@@ -10004,7 +9929,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="107"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="28"/>
@@ -10013,7 +9938,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="107"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="28"/>
@@ -10022,7 +9947,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
       <c r="D77" s="28"/>
@@ -10031,7 +9956,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="107"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="28"/>
@@ -10040,7 +9965,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+      <c r="A79" s="109"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
       <c r="D79" s="28"/>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26594FF1-DFB3-4D6C-A8CB-3BD13163A430}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EDAC3EED-B99F-4CED-9987-E5A1E9C030D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="170">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -562,6 +562,17 @@
     <t>第23周</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>第24周</t>
+  </si>
+  <si>
+    <t>楼兰缤润汇店驻店</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠总部培训报表中心及结账中心</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -570,7 +581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +717,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1333,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,6 +1614,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1687,14 +1714,6 @@
     <xf numFmtId="9" fontId="13" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1702,6 +1721,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1998,72 +2020,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="96"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="104"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2221,7 +2243,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="69" t="s">
@@ -2254,7 +2276,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2307,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
@@ -2316,7 +2338,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
@@ -2347,7 +2369,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="69" t="s">
         <v>164</v>
       </c>
@@ -2378,7 +2400,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="79" t="s">
         <v>165</v>
       </c>
       <c r="B15" s="78" t="s">
@@ -2411,11 +2433,19 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="71">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0</v>
+      </c>
       <c r="F16" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2434,7 +2464,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="72"/>
       <c r="C17" s="71"/>
       <c r="D17" s="55"/>
@@ -2457,7 +2487,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="72"/>
       <c r="C18" s="71"/>
       <c r="D18" s="55"/>
@@ -2480,7 +2510,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="72"/>
       <c r="C19" s="71"/>
       <c r="D19" s="55"/>
@@ -2503,7 +2533,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="73"/>
       <c r="C20" s="74"/>
       <c r="D20" s="64"/>
@@ -2526,7 +2556,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="48"/>
@@ -2549,7 +2579,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="72"/>
       <c r="C22" s="71"/>
       <c r="D22" s="55"/>
@@ -2572,7 +2602,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="72"/>
       <c r="C23" s="71"/>
       <c r="D23" s="55"/>
@@ -2595,7 +2625,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="72"/>
       <c r="C24" s="71"/>
       <c r="D24" s="55"/>
@@ -2618,7 +2648,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="72"/>
       <c r="C25" s="71"/>
       <c r="D25" s="55"/>
@@ -2641,7 +2671,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="64"/>
@@ -2664,7 +2694,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="48"/>
@@ -2687,7 +2717,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="72"/>
       <c r="C28" s="71"/>
       <c r="D28" s="55"/>
@@ -2710,7 +2740,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="72"/>
       <c r="C29" s="71"/>
       <c r="D29" s="55"/>
@@ -2733,7 +2763,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="72"/>
       <c r="C30" s="71"/>
       <c r="D30" s="55"/>
@@ -2756,7 +2786,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="105"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="72"/>
       <c r="C31" s="71"/>
       <c r="D31" s="55"/>
@@ -2779,7 +2809,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
       <c r="D32" s="64"/>
@@ -2802,7 +2832,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="48"/>
@@ -2825,7 +2855,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="72"/>
       <c r="C34" s="71"/>
       <c r="D34" s="55"/>
@@ -2848,7 +2878,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="72"/>
       <c r="C35" s="71"/>
       <c r="D35" s="55"/>
@@ -2871,7 +2901,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="72"/>
       <c r="C36" s="71"/>
       <c r="D36" s="55"/>
@@ -2894,7 +2924,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="105"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="72"/>
       <c r="C37" s="71"/>
       <c r="D37" s="55"/>
@@ -2917,7 +2947,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="64"/>
@@ -2940,7 +2970,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="48"/>
@@ -2963,7 +2993,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="55"/>
@@ -2986,7 +3016,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="55"/>
@@ -3009,7 +3039,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="55"/>
@@ -3032,7 +3062,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="55"/>
@@ -3055,7 +3085,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
       <c r="D44" s="64"/>
@@ -3079,11 +3109,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3095,6 +3120,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3106,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -10001,8 +10031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10161,14 +10191,38 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43260</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14">
+        <v>43261</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DBCEBD1-5037-4F60-B530-29FD9FCFF6EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="176">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -546,19 +552,45 @@
   <si>
     <t>八戒肥肠总部培训报表中心及结账中心</t>
   </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘食湘遇</t>
+  </si>
+  <si>
+    <t>湘食湘遇（南京市-科研园店）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏蓉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25周</t>
+  </si>
+  <si>
+    <t>茶無缺（上海人民广场店）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,7 +687,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -694,25 +726,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -720,125 +736,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,7 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,19 +798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
+        <fgColor theme="7" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,194 +820,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1242,7 +959,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,7 +972,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1644,255 +1361,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1950,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1959,19 +1434,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,26 +1452,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2007,7 +1473,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,7 +1488,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,6 +1496,138 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2060,265 +1658,101 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2576,1130 +2010,1138 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26666666666667" customWidth="1"/>
-    <col min="3" max="3" width="17.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.9083333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.0916666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="19.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" ht="21" spans="1:9">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="104"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="54" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="103" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="105" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="106"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47">
         <v>5</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="48">
         <v>4</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="49">
         <v>2</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="50">
         <f t="shared" ref="F5:F44" si="0">D5+E5</f>
         <v>6</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="51">
         <f t="shared" ref="G5:G44" si="1">C5-F5</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="52">
         <f t="shared" ref="H5:H44" si="2">E5/F5</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I5" s="107">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="76">
         <f t="shared" ref="I5:I44" si="3">F5/C5</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
         <v>5</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="55">
         <v>4</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="56">
         <v>1</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="59">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="108">
+      <c r="I6" s="77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54">
         <v>4</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="55">
         <v>4</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="56">
         <v>2</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="58">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="59">
         <f t="shared" si="2"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I7" s="108">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="77">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54">
         <v>0</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="55">
         <v>3</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="56">
         <v>2</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="58">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="59">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="I8" s="108" t="e">
+      <c r="I8" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="85" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87">
+      <c r="B9" s="62"/>
+      <c r="C9" s="63">
         <v>9</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="64">
         <v>7</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="65">
         <v>2</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="66">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="68">
         <f t="shared" si="2"/>
-        <v>0.222222222222222</v>
-      </c>
-      <c r="I9" s="109">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I9" s="78">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="70">
         <v>0</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="48">
         <v>0</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="49">
         <v>0</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="76" t="e">
+      <c r="H10" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="107" t="e">
+      <c r="I10" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="96"/>
-      <c r="B11" s="94" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="71">
         <v>1</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="55">
         <v>0</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="56">
         <v>0</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="83" t="e">
+      <c r="H11" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="108">
+      <c r="I11" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="96"/>
-      <c r="B12" s="94" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="71">
         <v>1</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="55">
         <v>4</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="56">
         <v>0</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="58">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="108">
+      <c r="I12" s="77">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="96"/>
-      <c r="B13" s="94" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="71">
         <v>0</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="55">
         <v>0</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="56">
         <v>0</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="83" t="e">
+      <c r="H13" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="108" t="e">
+      <c r="I13" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="96"/>
-      <c r="B14" s="94" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="71">
         <v>3</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="55">
         <v>3</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="56">
         <v>0</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="108">
+      <c r="I14" s="77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="70">
         <v>1</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="48">
         <v>0</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="49">
         <v>0</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="76" t="e">
+      <c r="H15" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="71">
         <v>0</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="55">
         <v>0</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="56">
         <v>0</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="83" t="e">
+      <c r="H16" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="108" t="e">
+      <c r="I16" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="98"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="71">
+        <v>0</v>
+      </c>
+      <c r="D17" s="55">
+        <v>2</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="58">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H17" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G18" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="83" t="e">
+      <c r="H18" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="108" t="e">
+      <c r="I18" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="98"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G19" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="83" t="e">
+      <c r="H19" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="108" t="e">
+      <c r="I19" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="98"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G20" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="83" t="e">
+      <c r="H20" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="108" t="e">
+      <c r="I20" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:9">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="91">
+      <c r="G21" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="92" t="e">
+      <c r="H21" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="109" t="e">
+      <c r="I21" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="98"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G22" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="76" t="e">
+      <c r="H22" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="107" t="e">
+      <c r="I22" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="98"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="93"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G23" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="83" t="e">
+      <c r="H23" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="108" t="e">
+      <c r="I23" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="98"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="82">
+      <c r="G24" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="83" t="e">
+      <c r="H24" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="108" t="e">
+      <c r="I24" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="98"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="93"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G25" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="83" t="e">
+      <c r="H25" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="108" t="e">
+      <c r="I25" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="98"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="94"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G26" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="83" t="e">
+      <c r="H26" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="108" t="e">
+      <c r="I26" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="101"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="91">
+      <c r="G27" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="92" t="e">
+      <c r="H27" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="109" t="e">
+      <c r="I27" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="98"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="93"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G28" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="76" t="e">
+      <c r="H28" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="107" t="e">
+      <c r="I28" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="98"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="82">
+      <c r="G29" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="83" t="e">
+      <c r="H29" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="108" t="e">
+      <c r="I29" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="98"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="93"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G30" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="83" t="e">
+      <c r="H30" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="108" t="e">
+      <c r="I30" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="98"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="93"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G31" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="83" t="e">
+      <c r="H31" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="108" t="e">
+      <c r="I31" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="98"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="94"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G32" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="83" t="e">
+      <c r="H32" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="108" t="e">
+      <c r="I32" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:9">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="93"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="91">
+      <c r="G33" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="92" t="e">
+      <c r="H33" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="109" t="e">
+      <c r="I33" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="98"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="93"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="75">
+      <c r="G34" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="76" t="e">
+      <c r="H34" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="107" t="e">
+      <c r="I34" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="98"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="93"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="82">
+      <c r="G35" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="83" t="e">
+      <c r="H35" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="108" t="e">
+      <c r="I35" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="98"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="81">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="93"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G36" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="83" t="e">
+      <c r="H36" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="108" t="e">
+      <c r="I36" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="98"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="81">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="93"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G37" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="83" t="e">
+      <c r="H37" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="108" t="e">
+      <c r="I37" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="98"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="81">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="94"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="82">
+      <c r="G38" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="83" t="e">
+      <c r="H38" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="108" t="e">
+      <c r="I38" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:9">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="93"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="91">
+      <c r="G39" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="92" t="e">
+      <c r="H39" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="109" t="e">
+      <c r="I39" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="98"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="93"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="75">
+      <c r="G40" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="76" t="e">
+      <c r="H40" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="107" t="e">
+      <c r="I40" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="98"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="81">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="93"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G41" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="83" t="e">
+      <c r="H41" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="108" t="e">
+      <c r="I41" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="98"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="81">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="93"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G42" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="83" t="e">
+      <c r="H42" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="108" t="e">
+      <c r="I42" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="98"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="81">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="93"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G43" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="83" t="e">
+      <c r="H43" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="108" t="e">
+      <c r="I43" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="98"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="81">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="94"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="82">
+      <c r="G44" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="83" t="e">
+      <c r="H44" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="108" t="e">
+      <c r="I44" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:9">
-      <c r="A44" s="101"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="92" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="109" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
@@ -3707,121 +3149,120 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.45" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.45" customWidth="1"/>
-    <col min="4" max="4" width="26.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.0916666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.90833333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>43102</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="38">
         <v>76119980</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>49</v>
       </c>
       <c r="N2" s="1">
@@ -3831,91 +3272,91 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>43103</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="38">
         <v>76120617</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="38">
         <v>15651615666</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>43124</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="38">
         <v>76125705</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K4" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="1">
@@ -3925,44 +3366,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>43129</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N5" s="1">
@@ -3972,44 +3413,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>43130</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="1">
@@ -4019,44 +3460,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>43132</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>76128399</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N7" s="1">
@@ -4066,44 +3507,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>43133</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="1">
         <v>76129828</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N8" s="1">
@@ -4113,23 +3554,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="32">
         <v>43140</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="1">
@@ -4138,19 +3579,19 @@
       <c r="H9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="27" t="s">
         <v>76</v>
       </c>
       <c r="N9" s="1">
@@ -4160,14 +3601,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>43144</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4176,7 +3617,7 @@
       <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="1">
@@ -4185,36 +3626,36 @@
       <c r="H10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>18762310760</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="32">
         <v>43157</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4229,39 +3670,39 @@
       <c r="G11" s="1">
         <v>76131263</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K11" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="42" t="s">
         <v>83</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>43158</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4270,45 +3711,45 @@
       <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="1">
         <v>76132273</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>47</v>
       </c>
       <c r="K12" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="42">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="32">
         <v>43183</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -4348,20 +3789,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>43183</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4395,23 +3836,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>43184</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="1">
@@ -4429,10 +3870,10 @@
       <c r="K15" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N15" s="1">
@@ -4442,23 +3883,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>43185</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="1">
@@ -4476,10 +3917,10 @@
       <c r="K16" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N16" s="1">
@@ -4489,23 +3930,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="32">
         <v>43186</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="1">
@@ -4523,10 +3964,10 @@
       <c r="K17" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N17" s="1">
@@ -4536,23 +3977,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="32">
         <v>43197</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="1">
@@ -4570,10 +4011,10 @@
       <c r="K18" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="27" t="s">
         <v>100</v>
       </c>
       <c r="N18" s="1">
@@ -4583,11 +4024,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="32">
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4630,29 +4071,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="32">
         <v>43207</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="1">
         <v>76153256</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -4664,10 +4105,10 @@
       <c r="K20" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N20" s="1">
@@ -4677,29 +4118,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="32">
         <v>43207</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>76158795</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -4711,10 +4152,10 @@
       <c r="K21" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N21" s="1">
@@ -4724,185 +4165,185 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="32">
         <v>43220</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>76158188</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="27">
         <v>15396777171</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <v>43220</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>76153259</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="27">
         <v>13913145062</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>43220</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>76159325</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="27">
         <v>13003428203</v>
       </c>
-      <c r="O24" s="28" t="s">
+      <c r="O24" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="32">
         <v>43220</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="1">
         <v>76163656</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="1">
@@ -4912,138 +4353,138 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="32">
         <v>43220</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G26" s="1">
         <v>76119975</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="27">
         <v>15396777171</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="40">
         <v>43235</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>76159317</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="27">
         <v>13003428203</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="40">
         <v>43235</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>76168257</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N28" s="1">
@@ -5053,44 +4494,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="40">
         <v>43235</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>76166928</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N29" s="1">
@@ -5100,44 +4541,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="40">
         <v>43235</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>76166316</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N30" s="1">
@@ -5147,181 +4588,241 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" s="28" customFormat="1" spans="1:15">
-      <c r="A31" s="28">
+    <row r="31" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="40">
         <v>43250</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <v>76173398</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M31" s="28" t="s">
+      <c r="M31" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="27">
         <v>18551177101</v>
       </c>
-      <c r="O31" s="28" t="s">
+      <c r="O31" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:15">
-      <c r="A32" s="28">
+    <row r="32" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
         <v>22</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="40">
         <v>43250</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <v>76172532</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="27">
         <v>13401911658</v>
       </c>
-      <c r="O32" s="28" t="s">
+      <c r="O32" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" s="28" customFormat="1" spans="1:15">
-      <c r="A33" s="28">
+    <row r="33" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
         <v>22</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="40">
         <v>43250</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="27">
         <v>76162813</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="27">
         <v>15952077449</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="M33" s="28" t="s">
+      <c r="M33" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="27">
         <v>13305141327</v>
       </c>
-      <c r="O33" s="28" t="s">
+      <c r="O33" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15">
+    <row r="34" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>25</v>
+      </c>
+      <c r="B34" s="40">
+        <v>43271</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="27">
+        <v>76177790</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="27">
+        <v>15115322599</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>25</v>
+      </c>
+      <c r="B35" s="40">
+        <v>43271</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="27">
+        <v>76176392</v>
+      </c>
+      <c r="H35" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="27">
+        <v>18551177101</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="34"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5336,9 +4837,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="34"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5353,9 +4854,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="34"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5370,9 +4871,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="34"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5387,9 +4888,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5404,9 +4905,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="34"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5421,9 +4922,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="34"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5438,9 +4939,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="34"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5455,9 +4956,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="34"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5472,9 +4973,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="34"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5489,9 +4990,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="34"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5506,9 +5007,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="34"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5523,9 +5024,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="34"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5540,9 +5041,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="34"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5557,9 +5058,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="34"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5574,9 +5075,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="34"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5591,9 +5092,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="34"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5608,9 +5109,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="34"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5625,9 +5126,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="34"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5642,9 +5143,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="34"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5659,9 +5160,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="34"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5676,9 +5177,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5693,9 +5194,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="34"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5710,9 +5211,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="34"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5727,9 +5228,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="34"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5744,9 +5245,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="34"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5761,9 +5262,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="34"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5778,9 +5279,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="34"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5795,9 +5296,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="34"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5812,9 +5313,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="34"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5829,9 +5330,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="34"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5846,9 +5347,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="34"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5863,9 +5364,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="34"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5880,9 +5381,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="34"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5897,9 +5398,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="34"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5914,9 +5415,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="34"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5931,9 +5432,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="34"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5948,9 +5449,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="34"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5965,9 +5466,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="34"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5982,9 +5483,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="34"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5999,9 +5500,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="34"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -6016,9 +5517,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="34"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6033,9 +5534,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="34"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6050,9 +5551,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="34"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6067,9 +5568,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="34"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6084,9 +5585,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="34"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6101,9 +5602,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="34"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6118,9 +5619,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="34"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6135,9 +5636,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="34"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6152,9 +5653,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="34"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6169,9 +5670,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="34"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6186,9 +5687,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="34"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6203,9 +5704,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6220,9 +5721,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="34"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6237,9 +5738,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="34"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -6254,9 +5755,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="34"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -6271,9 +5772,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="34"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -6288,9 +5789,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="34"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6305,9 +5806,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="34"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6322,9 +5823,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="34"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -6339,9 +5840,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="34"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -6356,9 +5857,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="34"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -6373,9 +5874,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="34"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -6390,9 +5891,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="34"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -6407,9 +5908,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="34"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -6424,9 +5925,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="34"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -6441,9 +5942,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="34"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6458,9 +5959,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="34"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -6475,9 +5976,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="34"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6492,9 +5993,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="34"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -6509,9 +6010,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="34"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -6526,9 +6027,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="34"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -6543,9 +6044,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="34"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -6560,9 +6061,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="34"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -6577,9 +6078,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="34"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6594,9 +6095,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="34"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6611,9 +6112,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="34"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6628,9 +6129,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="34"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6645,9 +6146,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="34"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6662,9 +6163,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="34"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6679,9 +6180,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="34"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6696,9 +6197,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="34"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6713,9 +6214,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="34"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6730,9 +6231,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="34"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6747,9 +6248,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="34"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6764,9 +6265,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="34"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -6781,9 +6282,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="34"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -6798,9 +6299,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="34"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -6815,9 +6316,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="34"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -6832,9 +6333,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="34"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -6849,9 +6350,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="34"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -6866,9 +6367,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="34"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -6883,9 +6384,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="34"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6900,9 +6401,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="34"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6917,9 +6418,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="34"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6934,9 +6435,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="34"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -6951,9 +6452,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="34"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -6968,9 +6469,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="34"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -6985,9 +6486,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="34"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -7002,9 +6503,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="34"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -7019,9 +6520,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="34"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -7036,9 +6537,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="34"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -7053,9 +6554,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="34"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -7070,9 +6571,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="34"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -7087,9 +6588,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="34"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -7104,9 +6605,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="34"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -7121,9 +6622,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="34"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -7138,9 +6639,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="34"/>
+      <c r="B143" s="32"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -7155,9 +6656,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="34"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -7172,9 +6673,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="34"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -7189,9 +6690,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="34"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -7206,9 +6707,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="34"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -7223,9 +6724,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="34"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -7240,9 +6741,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="34"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -7257,9 +6758,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="34"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -7274,9 +6775,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="34"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -7291,9 +6792,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="34"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -7308,9 +6809,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="34"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -7325,9 +6826,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="34"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -7342,9 +6843,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="34"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -7359,9 +6860,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="34"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -7376,9 +6877,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="34"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -7393,9 +6894,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="34"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -7410,9 +6911,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="34"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -7427,9 +6928,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="34"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -7444,9 +6945,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="34"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -7461,9 +6962,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="34"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -7478,9 +6979,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="34"/>
+      <c r="B163" s="32"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -7495,9 +6996,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="34"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -7512,9 +7013,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="34"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7529,9 +7030,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="34"/>
+      <c r="B166" s="32"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -7546,9 +7047,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="34"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -7563,9 +7064,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="34"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -7580,9 +7081,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="34"/>
+      <c r="B169" s="32"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -7597,9 +7098,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="34"/>
+      <c r="B170" s="32"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -7614,9 +7115,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="34"/>
+      <c r="B171" s="32"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7631,9 +7132,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="34"/>
+      <c r="B172" s="32"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7648,9 +7149,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="34"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7665,9 +7166,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="34"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7682,9 +7183,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="34"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7699,9 +7200,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="34"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -7716,9 +7217,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="34"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -7733,9 +7234,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="34"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7750,9 +7251,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="34"/>
+      <c r="B179" s="32"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7767,9 +7268,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="34"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -7784,9 +7285,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="34"/>
+      <c r="B181" s="32"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7801,9 +7302,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="34"/>
+      <c r="B182" s="32"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7818,9 +7319,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="34"/>
+      <c r="B183" s="32"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7835,9 +7336,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="34"/>
+      <c r="B184" s="32"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7852,9 +7353,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="34"/>
+      <c r="B185" s="32"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7869,9 +7370,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="34"/>
+      <c r="B186" s="32"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7886,9 +7387,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="34"/>
+      <c r="B187" s="32"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7903,9 +7404,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="34"/>
+      <c r="B188" s="32"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7920,9 +7421,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="34"/>
+      <c r="B189" s="32"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -7937,9 +7438,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="34"/>
+      <c r="B190" s="32"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7954,9 +7455,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="34"/>
+      <c r="B191" s="32"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7971,9 +7472,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="34"/>
+      <c r="B192" s="32"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7988,9 +7489,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="34"/>
+      <c r="B193" s="32"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -8005,9 +7506,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="34"/>
+      <c r="B194" s="32"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -8022,9 +7523,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="34"/>
+      <c r="B195" s="32"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -8039,9 +7540,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="34"/>
+      <c r="B196" s="32"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -8056,9 +7557,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="34"/>
+      <c r="B197" s="32"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -8073,9 +7574,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="34"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -8090,9 +7591,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="34"/>
+      <c r="B199" s="32"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -8107,9 +7608,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="34"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -8124,9 +7625,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="34"/>
+      <c r="B201" s="32"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -8141,9 +7642,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="34"/>
+      <c r="B202" s="32"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -8158,9 +7659,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="34"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -8175,9 +7676,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="34"/>
+      <c r="B204" s="32"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8192,9 +7693,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="34"/>
+      <c r="B205" s="32"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8209,9 +7710,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="34"/>
+      <c r="B206" s="32"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8226,9 +7727,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="34"/>
+      <c r="B207" s="32"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -8243,9 +7744,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="34"/>
+      <c r="B208" s="32"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -8260,9 +7761,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="34"/>
+      <c r="B209" s="32"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8277,9 +7778,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="34"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8294,9 +7795,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="34"/>
+      <c r="B211" s="32"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8311,9 +7812,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="34"/>
+      <c r="B212" s="32"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8328,9 +7829,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="34"/>
+      <c r="B213" s="32"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -8345,9 +7846,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="34"/>
+      <c r="B214" s="32"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -8362,9 +7863,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="34"/>
+      <c r="B215" s="32"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -8379,9 +7880,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="34"/>
+      <c r="B216" s="32"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8396,9 +7897,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="34"/>
+      <c r="B217" s="32"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8413,9 +7914,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="34"/>
+      <c r="B218" s="32"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8430,9 +7931,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="34"/>
+      <c r="B219" s="32"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -8447,9 +7948,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="34"/>
+      <c r="B220" s="32"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -8464,9 +7965,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="34"/>
+      <c r="B221" s="32"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -8481,9 +7982,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="34"/>
+      <c r="B222" s="32"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -8498,9 +7999,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="34"/>
+      <c r="B223" s="32"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -8515,9 +8016,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="34"/>
+      <c r="B224" s="32"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -8532,9 +8033,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="34"/>
+      <c r="B225" s="32"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -8549,9 +8050,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="34"/>
+      <c r="B226" s="32"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -8566,9 +8067,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="34"/>
+      <c r="B227" s="32"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -8583,9 +8084,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="34"/>
+      <c r="B228" s="32"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -8600,9 +8101,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="34"/>
+      <c r="B229" s="32"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -8617,9 +8118,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="34"/>
+      <c r="B230" s="32"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -8634,9 +8135,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="34"/>
+      <c r="B231" s="32"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -8651,9 +8152,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="34"/>
+      <c r="B232" s="32"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -8668,9 +8169,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="34"/>
+      <c r="B233" s="32"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -8685,9 +8186,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="34"/>
+      <c r="B234" s="32"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -8702,9 +8203,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="34"/>
+      <c r="B235" s="32"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -8719,9 +8220,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="34"/>
+      <c r="B236" s="32"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -8736,9 +8237,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="34"/>
+      <c r="B237" s="32"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -8753,9 +8254,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="34"/>
+      <c r="B238" s="32"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -8770,9 +8271,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="34"/>
+      <c r="B239" s="32"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -8787,9 +8288,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="34"/>
+      <c r="B240" s="32"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -8804,9 +8305,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="34"/>
+      <c r="B241" s="32"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -8821,9 +8322,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="34"/>
+      <c r="B242" s="32"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -8838,9 +8339,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="34"/>
+      <c r="B243" s="32"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -8855,9 +8356,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="34"/>
+      <c r="B244" s="32"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -8872,9 +8373,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="34"/>
+      <c r="B245" s="32"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -8889,9 +8390,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="34"/>
+      <c r="B246" s="32"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -8906,9 +8407,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="34"/>
+      <c r="B247" s="32"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -8923,9 +8424,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="34"/>
+      <c r="B248" s="32"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -8940,9 +8441,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="34"/>
+      <c r="B249" s="32"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -8957,9 +8458,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="34"/>
+      <c r="B250" s="32"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -8974,9 +8475,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="34"/>
+      <c r="B251" s="32"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -8991,9 +8492,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="34"/>
+      <c r="B252" s="32"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -9008,9 +8509,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="34"/>
+      <c r="B253" s="32"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -9025,9 +8526,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="34"/>
+      <c r="B254" s="32"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -9042,9 +8543,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="34"/>
+      <c r="B255" s="32"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -9059,9 +8560,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="34"/>
+      <c r="B256" s="32"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -9076,9 +8577,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="34"/>
+      <c r="B257" s="32"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -9093,9 +8594,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="34"/>
+      <c r="B258" s="32"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -9110,9 +8611,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="34"/>
+      <c r="B259" s="32"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -9127,9 +8628,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="34"/>
+      <c r="B260" s="32"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -9144,9 +8645,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="34"/>
+      <c r="B261" s="32"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -9161,9 +8662,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="34"/>
+      <c r="B262" s="32"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -9178,9 +8679,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="34"/>
+      <c r="B263" s="32"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -9195,9 +8696,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="34"/>
+      <c r="B264" s="32"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -9212,9 +8713,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="34"/>
+      <c r="B265" s="32"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -9229,9 +8730,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="34"/>
+      <c r="B266" s="32"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -9246,9 +8747,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="34"/>
+      <c r="B267" s="32"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -9263,9 +8764,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="34"/>
+      <c r="B268" s="32"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -9280,9 +8781,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="34"/>
+      <c r="B269" s="32"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -9297,9 +8798,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="34"/>
+      <c r="B270" s="32"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -9314,9 +8815,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="34"/>
+      <c r="B271" s="32"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -9331,9 +8832,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="34"/>
+      <c r="B272" s="32"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -9348,9 +8849,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="34"/>
+      <c r="B273" s="32"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -9365,9 +8866,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
-      <c r="B274" s="34"/>
+      <c r="B274" s="32"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -9382,9 +8883,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
-      <c r="B275" s="34"/>
+      <c r="B275" s="32"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -9399,9 +8900,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
-      <c r="B276" s="34"/>
+      <c r="B276" s="32"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -9416,9 +8917,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
-      <c r="B277" s="34"/>
+      <c r="B277" s="32"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -9433,9 +8934,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
-      <c r="B278" s="34"/>
+      <c r="B278" s="32"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -9450,9 +8951,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
-      <c r="B279" s="34"/>
+      <c r="B279" s="32"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -9467,9 +8968,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
-      <c r="B280" s="34"/>
+      <c r="B280" s="32"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -9484,9 +8985,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
-      <c r="B281" s="34"/>
+      <c r="B281" s="32"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -9501,9 +9002,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
-      <c r="B282" s="34"/>
+      <c r="B282" s="32"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -9518,9 +9019,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
-      <c r="B283" s="34"/>
+      <c r="B283" s="32"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -9535,9 +9036,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
-      <c r="B284" s="34"/>
+      <c r="B284" s="32"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -9552,9 +9053,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
-      <c r="B285" s="34"/>
+      <c r="B285" s="32"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -9569,9 +9070,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="B286" s="34"/>
+      <c r="B286" s="32"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -9586,9 +9087,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
-      <c r="B287" s="34"/>
+      <c r="B287" s="32"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -9603,9 +9104,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
-      <c r="B288" s="34"/>
+      <c r="B288" s="32"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -9620,9 +9121,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-      <c r="B289" s="34"/>
+      <c r="B289" s="32"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -9637,9 +9138,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
-      <c r="B290" s="34"/>
+      <c r="B290" s="32"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -9654,9 +9155,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
-      <c r="B291" s="34"/>
+      <c r="B291" s="32"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -9671,9 +9172,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
-      <c r="B292" s="34"/>
+      <c r="B292" s="32"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -9688,9 +9189,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
-      <c r="B293" s="34"/>
+      <c r="B293" s="32"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -9705,9 +9206,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
-      <c r="B294" s="34"/>
+      <c r="B294" s="32"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -9722,9 +9223,9 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
-      <c r="B295" s="34"/>
+      <c r="B295" s="32"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -9739,9 +9240,9 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
-      <c r="B296" s="34"/>
+      <c r="B296" s="32"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -9756,9 +9257,9 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
-      <c r="B297" s="34"/>
+      <c r="B297" s="32"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -9773,9 +9274,9 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
-      <c r="B298" s="34"/>
+      <c r="B298" s="32"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -9790,9 +9291,9 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="B299" s="34"/>
+      <c r="B299" s="32"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9808,44 +9309,43 @@
       <c r="O299" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.63333333333333" style="18"/>
-    <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.725" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.2666666666667" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.45" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="18"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -9868,17 +9368,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="24">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="107">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>43203</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9887,748 +9387,747 @@
       <c r="F2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" ht="14" hidden="1" customHeight="1" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="30" t="s">
+    <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="108"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="29"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="29"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="30"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="108"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="30"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="108"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="30"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="108"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="30"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="108"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="30"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="108"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="108"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="108"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="24"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="30"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="108"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="30"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="29"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="30"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="108"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="108"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="108"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="108"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="108"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="108"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="109"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="107"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="33"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="29"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="30"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="108"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="29"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="30"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="108"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="29"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="30"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="108"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="29"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="30"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="108"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="30"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="108"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="29"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="30"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="108"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="108"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="29"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="108"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="29"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="108"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="29"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="108"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="29"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="108"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="29"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="108"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="35"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="30"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="109"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="107"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="29"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="33"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="108"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="29"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="33"/>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="108"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="29"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="33"/>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="108"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="29"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="30"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="108"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="30"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="108"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="29"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="30"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="108"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="29"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="108"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="29"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="30"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="108"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="29"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="30"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="108"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="29"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="30"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="108"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="35"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="30"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="109"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="107"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="25"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:7">
-      <c r="A59" s="29"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="33"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="108"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="29"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="33"/>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="108"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="29"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="33"/>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="108"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="29"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="30"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="108"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="29"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="30"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="108"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="29"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="30"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="108"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="29"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="30"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="108"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="29"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="30"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="108"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="29"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="30"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="108"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="29"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="30"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="108"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="35"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="30"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="109"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
-      <c r="A70" s="29"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="33"/>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="108"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
-      <c r="A71" s="29"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="33"/>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="108"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="29"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="30"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="108"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="29"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="30"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="108"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="29"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="30"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="108"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="29"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="30"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="108"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="29"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="30"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="108"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="29"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="30"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="108"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="29"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="30"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="108"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="35"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="30"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="109"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A70:A79"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A30"/>
     <mergeCell ref="A31:A45"/>
     <mergeCell ref="A46:A57"/>
     <mergeCell ref="A58:A69"/>
-    <mergeCell ref="A70:A79"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.725" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" style="2" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -10645,7 +10144,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>12</v>
       </c>
@@ -10665,7 +10164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -10685,7 +10184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -10703,7 +10202,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10723,7 +10222,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10740,7 +10239,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -10757,7 +10256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -10774,7 +10273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -10791,7 +10290,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -10808,19 +10307,19 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DBCEBD1-5037-4F60-B530-29FD9FCFF6EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6A746DB-D7EF-4F2E-B1AF-DEC77D823CD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="183">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -347,6 +347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,6 +358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -581,6 +583,32 @@
   <si>
     <t>茶無缺（上海人民广场店）</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州楼兰餐饮管理有限公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰新疆主题餐厅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰餐厅(南京建邺缤润汇店)</t>
+  </si>
+  <si>
+    <t>孙店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>025-85657177</t>
   </si>
 </sst>
 </file>
@@ -588,7 +616,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -603,6 +631,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -610,6 +639,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -617,6 +647,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -625,17 +656,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -643,12 +677,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -656,12 +692,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -671,6 +709,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -680,6 +719,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -689,6 +729,7 @@
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -697,6 +738,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -706,6 +748,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -714,6 +757,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -722,6 +766,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1425,7 +1470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1434,7 +1479,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,7 +1488,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1458,13 +1503,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1473,7 +1518,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,7 +1533,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,6 +1674,17 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1681,14 +1737,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1729,17 +1777,14 @@
     <xf numFmtId="9" fontId="14" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,72 +2080,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="99" t="s">
+      <c r="E3" s="91"/>
+      <c r="F3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="106" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="98"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="106"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2258,7 +2303,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="69" t="s">
@@ -2291,7 +2336,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2367,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
@@ -2353,7 +2398,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
@@ -2384,7 +2429,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2460,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="72" t="s">
@@ -2448,7 +2493,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="72" t="s">
         <v>25</v>
       </c>
@@ -2479,7 +2524,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="72" t="s">
         <v>174</v>
       </c>
@@ -2510,7 +2555,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="73"/>
       <c r="C18" s="71"/>
       <c r="D18" s="55"/>
@@ -2533,7 +2578,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="73"/>
       <c r="C19" s="71"/>
       <c r="D19" s="55"/>
@@ -2556,7 +2601,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75"/>
       <c r="D20" s="64"/>
@@ -2579,7 +2624,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="48"/>
@@ -2602,7 +2647,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="73"/>
       <c r="C22" s="71"/>
       <c r="D22" s="55"/>
@@ -2625,7 +2670,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="73"/>
       <c r="C23" s="71"/>
       <c r="D23" s="55"/>
@@ -2648,7 +2693,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="73"/>
       <c r="C24" s="71"/>
       <c r="D24" s="55"/>
@@ -2671,7 +2716,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="73"/>
       <c r="C25" s="71"/>
       <c r="D25" s="55"/>
@@ -2694,7 +2739,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="74"/>
       <c r="C26" s="75"/>
       <c r="D26" s="64"/>
@@ -2717,7 +2762,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="48"/>
@@ -2740,7 +2785,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="73"/>
       <c r="C28" s="71"/>
       <c r="D28" s="55"/>
@@ -2763,7 +2808,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="73"/>
       <c r="C29" s="71"/>
       <c r="D29" s="55"/>
@@ -2786,7 +2831,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="73"/>
       <c r="C30" s="71"/>
       <c r="D30" s="55"/>
@@ -2809,7 +2854,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="73"/>
       <c r="C31" s="71"/>
       <c r="D31" s="55"/>
@@ -2832,7 +2877,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="74"/>
       <c r="C32" s="75"/>
       <c r="D32" s="64"/>
@@ -2855,7 +2900,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="48"/>
@@ -2878,7 +2923,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="73"/>
       <c r="C34" s="71"/>
       <c r="D34" s="55"/>
@@ -2901,7 +2946,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="73"/>
       <c r="C35" s="71"/>
       <c r="D35" s="55"/>
@@ -2924,7 +2969,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="73"/>
       <c r="C36" s="71"/>
       <c r="D36" s="55"/>
@@ -2947,7 +2992,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="73"/>
       <c r="C37" s="71"/>
       <c r="D37" s="55"/>
@@ -2970,7 +3015,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
       <c r="D38" s="64"/>
@@ -2993,7 +3038,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="48"/>
@@ -3016,7 +3061,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="55"/>
@@ -3039,7 +3084,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="55"/>
@@ -3062,7 +3107,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="55"/>
@@ -3085,7 +3130,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="55"/>
@@ -3108,7 +3153,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
       <c r="D44" s="64"/>
@@ -3132,11 +3177,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3148,6 +3188,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3159,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3215,7 @@
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="26.90625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
     <col min="8" max="8" width="17.08984375" customWidth="1"/>
     <col min="9" max="9" width="9.90625" customWidth="1"/>
     <col min="10" max="10" width="13.90625" customWidth="1"/>
@@ -4795,7 +4840,7 @@
       <c r="G35" s="27">
         <v>76176392</v>
       </c>
-      <c r="H35" s="110" t="s">
+      <c r="H35" s="79" t="s">
         <v>175</v>
       </c>
       <c r="I35" s="27" t="s">
@@ -4820,22 +4865,52 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+    <row r="36" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>25</v>
+      </c>
+      <c r="B36" s="40">
+        <v>43271</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="27">
+        <v>76173533</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="N36" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -9369,7 +9444,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="107">
+      <c r="A2" s="110">
         <v>23</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -9511,7 +9586,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
@@ -9646,7 +9721,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="24"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
@@ -9781,7 +9856,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
+      <c r="A46" s="110"/>
       <c r="B46" s="24"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
@@ -9889,7 +9964,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="107"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="24"/>
       <c r="C58" s="30"/>
       <c r="D58" s="31"/>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6A746DB-D7EF-4F2E-B1AF-DEC77D823CD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85F46928-DD02-4199-B655-A4C691EE8B7A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="186">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -552,9 +552,6 @@
     <t>楼兰缤润汇店驻店</t>
   </si>
   <si>
-    <t>八戒肥肠总部培训报表中心及结账中心</t>
-  </si>
-  <si>
     <t>SaaS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -609,6 +606,21 @@
   </si>
   <si>
     <t>025-85657177</t>
+  </si>
+  <si>
+    <t>方兆强</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>肆号小馆到店评估及实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠总部培训报表中心及结账中心</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第26周</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2076,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2526,24 +2538,24 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="71">
         <v>0</v>
       </c>
       <c r="D17" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="56">
         <v>0</v>
       </c>
       <c r="F17" s="57">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="58">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H17" s="59">
         <f t="shared" si="2"/>
@@ -2556,10 +2568,18 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="B18" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="71">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0</v>
+      </c>
       <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3204,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4779,22 +4799,22 @@
         <v>43271</v>
       </c>
       <c r="C34" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="F34" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="G34" s="27">
         <v>76177790</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I34" s="27" t="s">
         <v>46</v>
@@ -4806,10 +4826,10 @@
         <v>15952077449</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N34" s="27">
         <v>15115322599</v>
@@ -4826,7 +4846,7 @@
         <v>43271</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>127</v>
@@ -4835,13 +4855,13 @@
         <v>128</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="27">
         <v>76176392</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I35" s="27" t="s">
         <v>46</v>
@@ -4873,25 +4893,25 @@
         <v>43271</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="G36" s="27">
         <v>76173533</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>47</v>
@@ -4900,13 +4920,13 @@
         <v>15952077449</v>
       </c>
       <c r="L36" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="M36" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="N36" s="42" t="s">
         <v>181</v>
-      </c>
-      <c r="N36" s="42" t="s">
-        <v>182</v>
       </c>
       <c r="O36" s="27" t="s">
         <v>56</v>
@@ -10189,8 +10209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10376,16 +10396,28 @@
         <v>43261</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43274</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85F46928-DD02-4199-B655-A4C691EE8B7A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7933FA85-DAE7-484F-9000-0AF63BA9708D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="195">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -622,6 +622,42 @@
   <si>
     <t>第26周</t>
   </si>
+  <si>
+    <t>徐州渔悦酒店管理有限公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌蚌鲜虾粥</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌蚌鲜虾粥南京大洋百货店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌蚌鲜虾粥徐州环球港店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌蚌鲜虾粥徐州三胞广场店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -630,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +833,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1424,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,6 +1729,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2076,7 +2121,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2092,72 +2137,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="100" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="107" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="107"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2315,7 +2360,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="69" t="s">
@@ -2348,7 +2393,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2424,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
@@ -2410,7 +2455,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2486,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2517,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="72" t="s">
@@ -2505,7 +2550,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="72" t="s">
         <v>25</v>
       </c>
@@ -2536,7 +2581,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="72" t="s">
         <v>173</v>
       </c>
@@ -2567,7 +2612,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="72" t="s">
         <v>185</v>
       </c>
@@ -2575,22 +2620,22 @@
         <v>0</v>
       </c>
       <c r="D18" s="55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="56">
         <v>0</v>
       </c>
       <c r="F18" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="58">
         <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="H18" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="H18" s="59" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I18" s="77" t="e">
         <f t="shared" si="3"/>
@@ -2598,7 +2643,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="73"/>
       <c r="C19" s="71"/>
       <c r="D19" s="55"/>
@@ -2621,7 +2666,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75"/>
       <c r="D20" s="64"/>
@@ -2644,7 +2689,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="48"/>
@@ -2667,7 +2712,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="73"/>
       <c r="C22" s="71"/>
       <c r="D22" s="55"/>
@@ -2690,7 +2735,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="73"/>
       <c r="C23" s="71"/>
       <c r="D23" s="55"/>
@@ -2713,7 +2758,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="73"/>
       <c r="C24" s="71"/>
       <c r="D24" s="55"/>
@@ -2736,7 +2781,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="73"/>
       <c r="C25" s="71"/>
       <c r="D25" s="55"/>
@@ -2759,7 +2804,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="75"/>
       <c r="D26" s="64"/>
@@ -2782,7 +2827,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="48"/>
@@ -2805,7 +2850,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="73"/>
       <c r="C28" s="71"/>
       <c r="D28" s="55"/>
@@ -2828,7 +2873,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="73"/>
       <c r="C29" s="71"/>
       <c r="D29" s="55"/>
@@ -2851,7 +2896,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="73"/>
       <c r="C30" s="71"/>
       <c r="D30" s="55"/>
@@ -2874,7 +2919,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="73"/>
       <c r="C31" s="71"/>
       <c r="D31" s="55"/>
@@ -2897,7 +2942,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="74"/>
       <c r="C32" s="75"/>
       <c r="D32" s="64"/>
@@ -2920,7 +2965,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="48"/>
@@ -2943,7 +2988,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="73"/>
       <c r="C34" s="71"/>
       <c r="D34" s="55"/>
@@ -2966,7 +3011,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="73"/>
       <c r="C35" s="71"/>
       <c r="D35" s="55"/>
@@ -2989,7 +3034,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="73"/>
       <c r="C36" s="71"/>
       <c r="D36" s="55"/>
@@ -3012,7 +3057,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="73"/>
       <c r="C37" s="71"/>
       <c r="D37" s="55"/>
@@ -3035,7 +3080,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
       <c r="D38" s="64"/>
@@ -3058,7 +3103,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="48"/>
@@ -3081,7 +3126,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="55"/>
@@ -3104,7 +3149,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="55"/>
@@ -3127,7 +3172,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="55"/>
@@ -3150,7 +3195,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="55"/>
@@ -3173,7 +3218,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
       <c r="D44" s="64"/>
@@ -3224,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4932,56 +4977,146 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+    <row r="37" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>26</v>
+      </c>
+      <c r="B37" s="40">
+        <v>43280</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="27">
+        <v>76168326</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37" s="27">
+        <v>13585479450</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>26</v>
+      </c>
+      <c r="B38" s="40">
+        <v>43280</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="27">
+        <v>76171117</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38" s="27">
+        <v>13585479450</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>26</v>
+      </c>
+      <c r="B39" s="40">
+        <v>43280</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="27">
+        <v>76171100</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K39" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N39" s="27">
+        <v>13585479450</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -4997,7 +5132,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="80"/>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -9464,7 +9599,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="110">
+      <c r="A2" s="111">
         <v>23</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -9487,7 +9622,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="28" t="s">
@@ -9498,7 +9633,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
       <c r="D4" s="31"/>
@@ -9507,7 +9642,7 @@
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="24"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
@@ -9516,7 +9651,7 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="28"/>
@@ -9525,7 +9660,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="28"/>
@@ -9534,7 +9669,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28"/>
@@ -9543,7 +9678,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="28"/>
@@ -9552,7 +9687,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
@@ -9561,7 +9696,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="1"/>
       <c r="C11" s="32"/>
       <c r="D11" s="28"/>
@@ -9570,7 +9705,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="1"/>
       <c r="C12" s="32"/>
       <c r="D12" s="28"/>
@@ -9579,7 +9714,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="1"/>
       <c r="C13" s="32"/>
       <c r="D13" s="28"/>
@@ -9588,7 +9723,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="1"/>
       <c r="C14" s="32"/>
       <c r="D14" s="28"/>
@@ -9597,7 +9732,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="1"/>
       <c r="C15" s="32"/>
       <c r="D15" s="28"/>
@@ -9606,7 +9741,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
@@ -9615,7 +9750,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
@@ -9624,7 +9759,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="28"/>
@@ -9633,7 +9768,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="28"/>
@@ -9642,7 +9777,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="1"/>
       <c r="C20" s="32"/>
       <c r="D20" s="28"/>
@@ -9651,7 +9786,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="1"/>
       <c r="C21" s="32"/>
       <c r="D21" s="28"/>
@@ -9660,7 +9795,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="1"/>
       <c r="C22" s="32"/>
       <c r="D22" s="28"/>
@@ -9669,7 +9804,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="28"/>
@@ -9678,7 +9813,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="28"/>
@@ -9687,7 +9822,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="1"/>
       <c r="C25" s="32"/>
       <c r="D25" s="28"/>
@@ -9696,7 +9831,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="1"/>
       <c r="C26" s="32"/>
       <c r="D26" s="28"/>
@@ -9705,7 +9840,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="1"/>
       <c r="C27" s="32"/>
       <c r="D27" s="28"/>
@@ -9714,7 +9849,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="1"/>
       <c r="C28" s="32"/>
       <c r="D28" s="28"/>
@@ -9723,7 +9858,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="1"/>
       <c r="C29" s="32"/>
       <c r="D29" s="28"/>
@@ -9732,7 +9867,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="1"/>
       <c r="C30" s="32"/>
       <c r="D30" s="28"/>
@@ -9741,7 +9876,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="24"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
@@ -9750,7 +9885,7 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="31"/>
@@ -9759,7 +9894,7 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -9768,7 +9903,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="28"/>
@@ -9777,7 +9912,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="28"/>
@@ -9786,7 +9921,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="28"/>
@@ -9795,7 +9930,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="28"/>
@@ -9804,7 +9939,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="28"/>
@@ -9813,7 +9948,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="1"/>
       <c r="C39" s="32"/>
       <c r="D39" s="28"/>
@@ -9822,7 +9957,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="1"/>
       <c r="C40" s="32"/>
       <c r="D40" s="28"/>
@@ -9831,7 +9966,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="1"/>
       <c r="C41" s="32"/>
       <c r="D41" s="28"/>
@@ -9840,7 +9975,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="1"/>
       <c r="C42" s="32"/>
       <c r="D42" s="28"/>
@@ -9849,7 +9984,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="1"/>
       <c r="C43" s="32"/>
       <c r="D43" s="28"/>
@@ -9858,7 +9993,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="1"/>
       <c r="C44" s="32"/>
       <c r="D44" s="28"/>
@@ -9867,7 +10002,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
       <c r="D45" s="28"/>
@@ -9876,7 +10011,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="24"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
@@ -9885,7 +10020,7 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="31"/>
@@ -9894,7 +10029,7 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="31"/>
@@ -9903,7 +10038,7 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="31"/>
@@ -9912,7 +10047,7 @@
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="28"/>
@@ -9921,7 +10056,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="28"/>
@@ -9930,7 +10065,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="28"/>
@@ -9939,7 +10074,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
+      <c r="A53" s="109"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="28"/>
@@ -9948,7 +10083,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+      <c r="A54" s="109"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
@@ -9957,7 +10092,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+      <c r="A55" s="109"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="28"/>
@@ -9966,7 +10101,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+      <c r="A56" s="109"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
@@ -9975,7 +10110,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
@@ -9984,7 +10119,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="24"/>
       <c r="C58" s="30"/>
       <c r="D58" s="31"/>
@@ -9993,7 +10128,7 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+      <c r="A59" s="109"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
       <c r="D59" s="31"/>
@@ -10002,7 +10137,7 @@
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="109"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="31"/>
@@ -10011,7 +10146,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+      <c r="A61" s="109"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="31"/>
@@ -10020,7 +10155,7 @@
       <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+      <c r="A62" s="109"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
       <c r="D62" s="28"/>
@@ -10029,7 +10164,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+      <c r="A63" s="109"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
@@ -10038,7 +10173,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+      <c r="A64" s="109"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
@@ -10047,7 +10182,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+      <c r="A65" s="109"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
@@ -10056,7 +10191,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
+      <c r="A66" s="109"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="28"/>
@@ -10065,7 +10200,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+      <c r="A67" s="109"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
       <c r="D67" s="28"/>
@@ -10074,7 +10209,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
       <c r="D68" s="28"/>
@@ -10083,7 +10218,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="28"/>
@@ -10092,7 +10227,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="31"/>
@@ -10101,7 +10236,7 @@
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="31"/>
@@ -10110,7 +10245,7 @@
       <c r="G71" s="12"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
       <c r="D72" s="28"/>
@@ -10119,7 +10254,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+      <c r="A73" s="109"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="28"/>
@@ -10128,7 +10263,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
+      <c r="A74" s="109"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="28"/>
@@ -10137,7 +10272,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+      <c r="A75" s="109"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="28"/>
@@ -10146,7 +10281,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+      <c r="A76" s="109"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="28"/>
@@ -10155,7 +10290,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
       <c r="D77" s="28"/>
@@ -10164,7 +10299,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="28"/>
@@ -10173,7 +10308,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
       <c r="D79" s="28"/>
@@ -10209,7 +10344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7933FA85-DAE7-484F-9000-0AF63BA9708D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E23B8D8-2759-4F08-AAEE-923D5D22EC46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="202">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -656,6 +656,32 @@
   </si>
   <si>
     <t>蚌蚌鲜虾粥徐州三胞广场店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金陵小园春</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已安装未上线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>史大超</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第27周</t>
+  </si>
+  <si>
+    <t>金陵小园春实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1466,7 +1492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1734,6 +1760,98 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1742,98 +1860,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1842,6 +1868,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2120,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2137,72 +2169,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="108"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2360,7 +2392,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="69" t="s">
@@ -2393,7 +2425,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
@@ -2424,7 +2456,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2487,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
@@ -2486,7 +2518,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +2549,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="107" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="72" t="s">
@@ -2550,7 +2582,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="72" t="s">
         <v>25</v>
       </c>
@@ -2581,7 +2613,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="72" t="s">
         <v>173</v>
       </c>
@@ -2612,7 +2644,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="72" t="s">
         <v>185</v>
       </c>
@@ -2643,30 +2675,38 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="71">
+        <v>1</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
       <c r="F19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="77" t="e">
+      <c r="I19" s="77">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75"/>
       <c r="D20" s="64"/>
@@ -2689,7 +2729,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="48"/>
@@ -2712,7 +2752,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="73"/>
       <c r="C22" s="71"/>
       <c r="D22" s="55"/>
@@ -2735,7 +2775,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="73"/>
       <c r="C23" s="71"/>
       <c r="D23" s="55"/>
@@ -2758,7 +2798,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="73"/>
       <c r="C24" s="71"/>
       <c r="D24" s="55"/>
@@ -2781,7 +2821,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="73"/>
       <c r="C25" s="71"/>
       <c r="D25" s="55"/>
@@ -2804,7 +2844,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="74"/>
       <c r="C26" s="75"/>
       <c r="D26" s="64"/>
@@ -2827,7 +2867,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="48"/>
@@ -2850,7 +2890,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="73"/>
       <c r="C28" s="71"/>
       <c r="D28" s="55"/>
@@ -2873,7 +2913,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="73"/>
       <c r="C29" s="71"/>
       <c r="D29" s="55"/>
@@ -2896,7 +2936,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="73"/>
       <c r="C30" s="71"/>
       <c r="D30" s="55"/>
@@ -2919,7 +2959,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="73"/>
       <c r="C31" s="71"/>
       <c r="D31" s="55"/>
@@ -2942,7 +2982,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="74"/>
       <c r="C32" s="75"/>
       <c r="D32" s="64"/>
@@ -2965,7 +3005,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="48"/>
@@ -2988,7 +3028,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="73"/>
       <c r="C34" s="71"/>
       <c r="D34" s="55"/>
@@ -3011,7 +3051,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="73"/>
       <c r="C35" s="71"/>
       <c r="D35" s="55"/>
@@ -3034,7 +3074,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="73"/>
       <c r="C36" s="71"/>
       <c r="D36" s="55"/>
@@ -3057,7 +3097,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="73"/>
       <c r="C37" s="71"/>
       <c r="D37" s="55"/>
@@ -3080,7 +3120,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
       <c r="D38" s="64"/>
@@ -3103,7 +3143,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="48"/>
@@ -3126,7 +3166,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="55"/>
@@ -3149,7 +3189,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="55"/>
@@ -3172,7 +3212,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="55"/>
@@ -3195,7 +3235,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="55"/>
@@ -3218,7 +3258,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
       <c r="D44" s="64"/>
@@ -3242,6 +3282,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3253,11 +3298,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3269,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -9561,7 +9601,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9600,7 +9640,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="111">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>146</v>
@@ -9634,12 +9674,24 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="109"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="109"/>
@@ -10336,7 +10388,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10344,8 +10396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10555,9 +10607,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43282</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/周数据/《实施上线数据统计表》-方兆强.xlsx
+++ b/周数据/《实施上线数据统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E23B8D8-2759-4F08-AAEE-923D5D22EC46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4530E4F9-E860-49C1-962A-D269BBA4A41B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="207">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -549,9 +549,6 @@
     <t>花食间庐山路店实施培训</t>
   </si>
   <si>
-    <t>楼兰缤润汇店驻店</t>
-  </si>
-  <si>
     <t>SaaS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -663,10 +660,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>6月30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>已安装未上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -674,14 +667,41 @@
     <t>SAAS</t>
   </si>
   <si>
-    <t>史大超</t>
+    <t>第27周</t>
+  </si>
+  <si>
+    <t>金陵小园春实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>第27周</t>
-  </si>
-  <si>
-    <t>金陵小园春实施</t>
+    <t>金陵小园春（南京市-龙眠大道店）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈总</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第28周</t>
+  </si>
+  <si>
+    <t>鸭得堡明发店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪冰洋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴四老城区驻店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰缤润汇店驻店</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +712,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,12 +879,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1492,7 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,8 +1771,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1852,14 +1877,6 @@
     <xf numFmtId="9" fontId="14" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,12 +1885,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2152,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2169,72 +2180,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="99" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="108" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="98"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="106"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2392,7 +2403,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="69" t="s">
@@ -2425,7 +2436,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="69" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2467,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
@@ -2487,7 +2498,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="69" t="s">
         <v>21</v>
       </c>
@@ -2518,7 +2529,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
@@ -2549,7 +2560,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="72" t="s">
@@ -2582,7 +2593,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="72" t="s">
         <v>25</v>
       </c>
@@ -2613,9 +2624,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="71">
         <v>0</v>
@@ -2644,9 +2655,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="71">
         <v>0</v>
@@ -2675,107 +2686,91 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="71">
-        <v>1</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0</v>
-      </c>
-      <c r="E19" s="56">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="59" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A19" s="82"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65"/>
-      <c r="F20" s="66">
-        <f t="shared" si="0"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="78"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="82"/>
+      <c r="B21" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="71">
+        <v>1</v>
+      </c>
+      <c r="D21" s="55">
         <v>0</v>
       </c>
-      <c r="G20" s="67">
-        <f t="shared" si="1"/>
+      <c r="E21" s="56">
         <v>0</v>
       </c>
-      <c r="H20" s="68" t="e">
-        <f t="shared" si="2"/>
+      <c r="F21" s="57">
+        <f t="shared" ref="F21" si="4">D21+E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="58">
+        <f t="shared" ref="G21" si="5">C21-F21</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="59" t="e">
+        <f t="shared" ref="H21" si="6">E21/F21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="78" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50">
-        <f t="shared" si="0"/>
+      <c r="I21" s="77">
+        <f t="shared" ref="I21" si="7">F21/C21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="51">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
+      <c r="B22" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="71">
+        <v>2</v>
+      </c>
+      <c r="D22" s="55">
+        <v>1</v>
+      </c>
+      <c r="E22" s="56">
         <v>0</v>
       </c>
-      <c r="H21" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="76" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
       <c r="F22" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="58">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="59" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="77" t="e">
+      <c r="I22" s="77">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="73"/>
       <c r="C23" s="71"/>
       <c r="D23" s="55"/>
@@ -2798,7 +2793,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="73"/>
       <c r="C24" s="71"/>
       <c r="D24" s="55"/>
@@ -2821,7 +2816,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="73"/>
       <c r="C25" s="71"/>
       <c r="D25" s="55"/>
@@ -2844,7 +2839,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="74"/>
       <c r="C26" s="75"/>
       <c r="D26" s="64"/>
@@ -2867,7 +2862,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="D27" s="48"/>
@@ -2890,7 +2885,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="73"/>
       <c r="C28" s="71"/>
       <c r="D28" s="55"/>
@@ -2913,7 +2908,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="73"/>
       <c r="C29" s="71"/>
       <c r="D29" s="55"/>
@@ -2936,7 +2931,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="73"/>
       <c r="C30" s="71"/>
       <c r="D30" s="55"/>
@@ -2959,7 +2954,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="73"/>
       <c r="C31" s="71"/>
       <c r="D31" s="55"/>
@@ -2982,7 +2977,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="74"/>
       <c r="C32" s="75"/>
       <c r="D32" s="64"/>
@@ -3005,7 +3000,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="48"/>
@@ -3028,7 +3023,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="73"/>
       <c r="C34" s="71"/>
       <c r="D34" s="55"/>
@@ -3051,7 +3046,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="73"/>
       <c r="C35" s="71"/>
       <c r="D35" s="55"/>
@@ -3074,7 +3069,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="73"/>
       <c r="C36" s="71"/>
       <c r="D36" s="55"/>
@@ -3097,7 +3092,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="73"/>
       <c r="C37" s="71"/>
       <c r="D37" s="55"/>
@@ -3120,7 +3115,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
       <c r="D38" s="64"/>
@@ -3143,7 +3138,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="48"/>
@@ -3166,7 +3161,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="55"/>
@@ -3189,7 +3184,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="55"/>
@@ -3212,7 +3207,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="55"/>
@@ -3235,7 +3230,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="55"/>
@@ -3258,7 +3253,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
       <c r="D44" s="64"/>
@@ -3282,11 +3277,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3298,6 +3288,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3309,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="D48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4884,22 +4879,22 @@
         <v>43271</v>
       </c>
       <c r="C34" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="F34" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>170</v>
       </c>
       <c r="G34" s="27">
         <v>76177790</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I34" s="27" t="s">
         <v>46</v>
@@ -4911,10 +4906,10 @@
         <v>15952077449</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N34" s="27">
         <v>15115322599</v>
@@ -4931,7 +4926,7 @@
         <v>43271</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>127</v>
@@ -4940,13 +4935,13 @@
         <v>128</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G35" s="27">
         <v>76176392</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="27" t="s">
         <v>46</v>
@@ -4978,25 +4973,25 @@
         <v>43271</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>177</v>
       </c>
       <c r="G36" s="27">
         <v>76173533</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>47</v>
@@ -5005,13 +5000,13 @@
         <v>15952077449</v>
       </c>
       <c r="L36" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="N36" s="42" t="s">
         <v>180</v>
-      </c>
-      <c r="N36" s="42" t="s">
-        <v>181</v>
       </c>
       <c r="O36" s="27" t="s">
         <v>56</v>
@@ -5025,43 +5020,43 @@
         <v>43280</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="F37" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="27">
         <v>76168326</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K37" s="27">
         <v>15952077449</v>
       </c>
       <c r="L37" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" s="27" t="s">
         <v>189</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>190</v>
       </c>
       <c r="N37" s="27">
         <v>13585479450</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -5072,43 +5067,43 @@
         <v>43280</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="F38" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G38" s="27">
         <v>76171117</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K38" s="27">
         <v>15952077449</v>
       </c>
       <c r="L38" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" s="27" t="s">
         <v>189</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>190</v>
       </c>
       <c r="N38" s="27">
         <v>13585479450</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -5119,61 +5114,91 @@
         <v>43280</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="F39" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G39" s="27">
         <v>76171100</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K39" s="27">
         <v>15952077449</v>
       </c>
       <c r="L39" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M39" s="27" t="s">
         <v>189</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>190</v>
       </c>
       <c r="N39" s="27">
         <v>13585479450</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>27</v>
+      </c>
+      <c r="B40" s="40">
+        <v>43292</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="27">
+        <v>76188826</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="27">
+        <v>15952077449</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="N40" s="27">
+        <v>13016966678</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -9592,7 +9617,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9601,7 +9626,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9639,7 +9664,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="111">
+      <c r="A2" s="112">
         <v>27</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -9662,7 +9687,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="28" t="s">
@@ -9673,28 +9698,28 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="30">
+        <v>43287</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>195</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>197</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="24"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
@@ -9703,7 +9728,7 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="28"/>
@@ -9712,7 +9737,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="28"/>
@@ -9721,7 +9746,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28"/>
@@ -9730,7 +9755,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="28"/>
@@ -9739,7 +9764,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
@@ -9748,7 +9773,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="1"/>
       <c r="C11" s="32"/>
       <c r="D11" s="28"/>
@@ -9757,7 +9782,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="1"/>
       <c r="C12" s="32"/>
       <c r="D12" s="28"/>
@@ -9766,7 +9791,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="1"/>
       <c r="C13" s="32"/>
       <c r="D13" s="28"/>
@@ -9775,7 +9800,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="1"/>
       <c r="C14" s="32"/>
       <c r="D14" s="28"/>
@@ -9784,7 +9809,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="1"/>
       <c r="C15" s="32"/>
       <c r="D15" s="28"/>
@@ -9793,7 +9818,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
@@ -9802,7 +9827,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
@@ -9811,7 +9836,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="28"/>
@@ -9820,7 +9845,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="28"/>
@@ -9829,7 +9854,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="1"/>
       <c r="C20" s="32"/>
       <c r="D20" s="28"/>
@@ -9838,7 +9863,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="1"/>
       <c r="C21" s="32"/>
       <c r="D21" s="28"/>
@@ -9847,7 +9872,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="1"/>
       <c r="C22" s="32"/>
       <c r="D22" s="28"/>
@@ -9856,7 +9881,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="28"/>
@@ -9865,7 +9890,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="28"/>
@@ -9874,7 +9899,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="1"/>
       <c r="C25" s="32"/>
       <c r="D25" s="28"/>
@@ -9883,7 +9908,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="1"/>
       <c r="C26" s="32"/>
       <c r="D26" s="28"/>
@@ -9892,7 +9917,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="1"/>
       <c r="C27" s="32"/>
       <c r="D27" s="28"/>
@@ -9901,7 +9926,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="1"/>
       <c r="C28" s="32"/>
       <c r="D28" s="28"/>
@@ -9910,7 +9935,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="1"/>
       <c r="C29" s="32"/>
       <c r="D29" s="28"/>
@@ -9919,7 +9944,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="1"/>
       <c r="C30" s="32"/>
       <c r="D30" s="28"/>
@@ -9928,7 +9953,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="24"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
@@ -9937,7 +9962,7 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="31"/>
@@ -9946,7 +9971,7 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -9955,7 +9980,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="28"/>
@@ -9964,7 +9989,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="28"/>
@@ -9973,7 +9998,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+      <c r="A36" s="110"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="28"/>
@@ -9982,7 +10007,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="28"/>
@@ -9991,7 +10016,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="28"/>
@@ -10000,7 +10025,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+      <c r="A39" s="110"/>
       <c r="B39" s="1"/>
       <c r="C39" s="32"/>
       <c r="D39" s="28"/>
@@ -10009,7 +10034,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+      <c r="A40" s="110"/>
       <c r="B40" s="1"/>
       <c r="C40" s="32"/>
       <c r="D40" s="28"/>
@@ -10018,7 +10043,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="1"/>
       <c r="C41" s="32"/>
       <c r="D41" s="28"/>
@@ -10027,7 +10052,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="1"/>
       <c r="C42" s="32"/>
       <c r="D42" s="28"/>
@@ -10036,7 +10061,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="1"/>
       <c r="C43" s="32"/>
       <c r="D43" s="28"/>
@@ -10045,7 +10070,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
+      <c r="A44" s="110"/>
       <c r="B44" s="1"/>
       <c r="C44" s="32"/>
       <c r="D44" s="28"/>
@@ -10054,7 +10079,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
       <c r="D45" s="28"/>
@@ -10063,7 +10088,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="24"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
@@ -10072,7 +10097,7 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="31"/>
@@ -10081,7 +10106,7 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="31"/>
@@ -10090,7 +10115,7 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="A49" s="110"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="31"/>
@@ -10099,7 +10124,7 @@
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="A50" s="110"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="28"/>
@@ -10108,7 +10133,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="28"/>
@@ -10117,7 +10142,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
+      <c r="A52" s="110"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="28"/>
@@ -10126,7 +10151,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="28"/>
@@ -10135,7 +10160,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
@@ -10144,7 +10169,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="28"/>
@@ -10153,7 +10178,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
@@ -10162,7 +10187,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
@@ -10171,7 +10196,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="111"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="24"/>
       <c r="C58" s="30"/>
       <c r="D58" s="31"/>
@@ -10180,7 +10205,7 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
       <c r="D59" s="31"/>
@@ -10189,7 +10214,7 @@
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="31"/>
@@ -10198,7 +10223,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="31"/>
@@ -10207,7 +10232,7 @@
       <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
       <c r="D62" s="28"/>
@@ -10216,7 +10241,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
@@ -10225,7 +10250,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
+      <c r="A64" s="110"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
@@ -10234,7 +10259,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
@@ -10243,7 +10268,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
+      <c r="A66" s="110"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="28"/>
@@ -10252,7 +10277,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
       <c r="D67" s="28"/>
@@ -10261,7 +10286,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
+      <c r="A68" s="110"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
       <c r="D68" s="28"/>
@@ -10270,7 +10295,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="28"/>
@@ -10279,7 +10304,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="31"/>
@@ -10288,7 +10313,7 @@
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="31"/>
@@ -10297,7 +10322,7 @@
       <c r="G71" s="12"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
       <c r="D72" s="28"/>
@@ -10306,7 +10331,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="28"/>
@@ -10315,7 +10340,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="28"/>
@@ -10324,7 +10349,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
+      <c r="A75" s="110"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="28"/>
@@ -10333,7 +10358,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="28"/>
@@ -10342,7 +10367,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
       <c r="D77" s="28"/>
@@ -10351,7 +10376,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="28"/>
@@ -10360,7 +10385,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
       <c r="D79" s="28"/>
@@ -10394,10 +10419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10520,6 +10545,9 @@
       <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="F6" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -10566,7 +10594,7 @@
         <v>43260</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>157</v>
@@ -10583,7 +10611,7 @@
         <v>43261</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>157</v>
@@ -10594,13 +10622,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="13">
         <v>43274</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>157</v>
@@ -10611,15 +10639,32 @@
         <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="13">
         <v>43282</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43289</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>157</v>
       </c>
     </row>
